--- a/Jogos_do_Dia/2024-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -166,21 +166,21 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>France Ligue 1</t>
+  </si>
+  <si>
+    <t>England Championship</t>
+  </si>
+  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
-    <t>England Championship</t>
-  </si>
-  <si>
-    <t>France Ligue 1</t>
+    <t>Germany 2. Bundesliga</t>
   </si>
   <si>
     <t>Belgium Pro League</t>
   </si>
   <si>
-    <t>Germany 2. Bundesliga</t>
-  </si>
-  <si>
     <t>Spain La Liga</t>
   </si>
   <si>
@@ -196,15 +196,15 @@
     <t>Switzerland Super League</t>
   </si>
   <si>
+    <t>Croatia Prva HNL</t>
+  </si>
+  <si>
     <t>Czech Republic First League</t>
   </si>
   <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Croatia Prva HNL</t>
-  </si>
-  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
@@ -340,30 +340,30 @@
     <t>Lecce</t>
   </si>
   <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
     <t>Rogaška</t>
   </si>
   <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>PSG</t>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Greuther Fürth</t>
+  </si>
+  <si>
+    <t>St. Pauli</t>
   </si>
   <si>
     <t>KRC Genk</t>
   </si>
   <si>
-    <t>St. Pauli</t>
-  </si>
-  <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
-    <t>Greuther Fürth</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
     <t>Deportivo Alavés</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>Silkeborg</t>
   </si>
   <si>
+    <t>Samsunspor</t>
+  </si>
+  <si>
     <t>İstanbulspor</t>
   </si>
   <si>
-    <t>Samsunspor</t>
-  </si>
-  <si>
     <t>Racing Santander</t>
   </si>
   <si>
@@ -400,51 +400,51 @@
     <t>West Ham United</t>
   </si>
   <si>
+    <t>Rijeka</t>
+  </si>
+  <si>
     <t>Pogoń Szczecin</t>
   </si>
   <si>
     <t>Mura</t>
   </si>
   <si>
+    <t>Slavia Praha</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>Smouha SC</t>
+  </si>
+  <si>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
     <t>České Budějovice</t>
   </si>
   <si>
-    <t>Slavia Praha</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Smouha SC</t>
-  </si>
-  <si>
-    <t>El Daklyeh FC</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Rijeka</t>
-  </si>
-  <si>
     <t>Bochum</t>
   </si>
   <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
     <t>København</t>
   </si>
   <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
     <t>Lamia</t>
   </si>
   <si>
@@ -463,69 +463,69 @@
     <t>Venezia</t>
   </si>
   <si>
+    <t>Stade Lausanne-Ouchy</t>
+  </si>
+  <si>
     <t>Young Boys</t>
   </si>
   <si>
-    <t>Stade Lausanne-Ouchy</t>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
   </si>
   <si>
     <t>Botev Plovdiv</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>NEC</t>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>Austria Wien</t>
+  </si>
+  <si>
+    <t>Austria Klagenfurt</t>
+  </si>
+  <si>
+    <t>Austria Lustenau</t>
   </si>
   <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>Austria Klagenfurt</t>
-  </si>
-  <si>
-    <t>Austria Wien</t>
-  </si>
-  <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
-    <t>Wolfsberger AC</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
     <t>Spartak Trnava</t>
   </si>
   <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
-    <t>Dinamo Zagreb</t>
-  </si>
-  <si>
-    <t>Widzew Łódź</t>
+    <t>Viborg</t>
   </si>
   <si>
     <t>Viktoria Plzeň</t>
   </si>
   <si>
-    <t>Viborg</t>
-  </si>
-  <si>
     <t>Juventus</t>
   </si>
   <si>
+    <t>Union Saint-Gilloise</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Union Saint-Gilloise</t>
-  </si>
-  <si>
     <t>SD Eibar</t>
   </si>
   <si>
@@ -589,30 +589,30 @@
     <t>Hellas Verona</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
     <t>Radomlje</t>
   </si>
   <si>
-    <t>West Bromwich Albion</t>
-  </si>
-  <si>
-    <t>Reims</t>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
   </si>
   <si>
     <t>Standard Liège</t>
   </si>
   <si>
-    <t>Hertha BSC</t>
-  </si>
-  <si>
     <t>Osnabrück</t>
   </si>
   <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>AGF</t>
   </si>
   <si>
+    <t>Ankaragücü</t>
+  </si>
+  <si>
     <t>Kasımpaşa</t>
   </si>
   <si>
-    <t>Ankaragücü</t>
-  </si>
-  <si>
     <t>CD Tenerife</t>
   </si>
   <si>
@@ -649,51 +649,51 @@
     <t>Burnley</t>
   </si>
   <si>
+    <t>Osijek</t>
+  </si>
+  <si>
     <t>Zagłębie Lubin</t>
   </si>
   <si>
     <t>Olimpija</t>
   </si>
   <si>
+    <t>Teplice</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
+    <t>Pyramids FC</t>
+  </si>
+  <si>
     <t>Zlín</t>
   </si>
   <si>
-    <t>Teplice</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Ceramica Cleopatra</t>
-  </si>
-  <si>
-    <t>Pyramids FC</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Osijek</t>
-  </si>
-  <si>
     <t>Freiburg</t>
   </si>
   <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
     <t>Lyngby</t>
   </si>
   <si>
-    <t>OH Leuven</t>
-  </si>
-  <si>
     <t>AEK Athens</t>
   </si>
   <si>
@@ -712,67 +712,67 @@
     <t>Bari 1908</t>
   </si>
   <si>
+    <t>Luzern</t>
+  </si>
+  <si>
     <t>Basel</t>
   </si>
   <si>
-    <t>Luzern</t>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
   </si>
   <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
+    <t>Pendikspor</t>
+  </si>
+  <si>
+    <t>Rheindorf Altach</t>
+  </si>
+  <si>
+    <t>Wattens</t>
+  </si>
+  <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
+    <t>Blau-Weiß Linz</t>
   </si>
   <si>
     <t>Sturm Graz</t>
   </si>
   <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
-    <t>Wattens</t>
-  </si>
-  <si>
-    <t>Blau-Weiß Linz</t>
-  </si>
-  <si>
-    <t>Pendikspor</t>
-  </si>
-  <si>
-    <t>Rheindorf Altach</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Legia Warszawa</t>
+  </si>
+  <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
     <t>DAC</t>
   </si>
   <si>
     <t>Hoffenheim</t>
   </si>
   <si>
-    <t>Slaven Koprivnica</t>
-  </si>
-  <si>
-    <t>Legia Warszawa</t>
+    <t>Brøndby</t>
   </si>
   <si>
     <t>Sparta Praha</t>
   </si>
   <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
     <t>Atalanta</t>
   </si>
   <si>
+    <t>KAA Gent</t>
+  </si>
+  <si>
     <t>Celta de Vigo</t>
-  </si>
-  <si>
-    <t>KAA Gent</t>
   </si>
   <si>
     <t>Burgos CF</t>
@@ -1336,19 +1336,19 @@
         <v>5.5</v>
       </c>
       <c r="H2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
         <v>1.83</v>
       </c>
       <c r="J2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>5.05</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M2">
         <v>1.25</v>
@@ -1369,16 +1369,16 @@
         <v>5</v>
       </c>
       <c r="S2">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="T2">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="U2">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W2">
         <v>2.9</v>
@@ -1473,13 +1473,13 @@
         <v>3.9</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="K3">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>3.82</v>
       </c>
       <c r="M3">
         <v>1.37</v>
@@ -1500,10 +1500,10 @@
         <v>3.6</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T3">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1604,13 +1604,13 @@
         <v>2.63</v>
       </c>
       <c r="J4">
-        <v>4.83</v>
+        <v>3.28</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="L4">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="M4">
         <v>1.48</v>
@@ -1735,13 +1735,13 @@
         <v>3.2</v>
       </c>
       <c r="J5">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="K5">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="L5">
-        <v>2.44</v>
+        <v>2.35</v>
       </c>
       <c r="M5">
         <v>1.4</v>
@@ -1762,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="T5">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U5">
         <v>1.8</v>
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="K6">
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
       <c r="L6">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>1.29</v>
@@ -1893,10 +1893,10 @@
         <v>4.87</v>
       </c>
       <c r="S6">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1997,13 +1997,13 @@
         <v>3.95</v>
       </c>
       <c r="J7">
-        <v>2.31</v>
+        <v>2.08</v>
       </c>
       <c r="K7">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="M7">
         <v>1.45</v>
@@ -2024,10 +2024,10 @@
         <v>2.95</v>
       </c>
       <c r="S7">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="T7">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -2128,13 +2128,13 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="K8">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
         <v>1.5</v>
@@ -2155,10 +2155,10 @@
         <v>2.67</v>
       </c>
       <c r="S8">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T8">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -2250,115 +2250,115 @@
         <v>191</v>
       </c>
       <c r="G9">
-        <v>3.39</v>
+        <v>1.91</v>
       </c>
       <c r="H9">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="I9">
-        <v>3.18</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>2.84</v>
+        <v>1.44</v>
       </c>
       <c r="K9">
-        <v>3.12</v>
+        <v>4.62</v>
       </c>
       <c r="L9">
-        <v>2.29</v>
+        <v>5.9</v>
       </c>
       <c r="M9">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="N9">
-        <v>2.93</v>
+        <v>3.75</v>
       </c>
       <c r="O9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P9">
-        <v>8.699999999999999</v>
+        <v>20</v>
       </c>
       <c r="Q9">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="R9">
-        <v>3.14</v>
+        <v>5.2</v>
       </c>
       <c r="S9">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2.57</v>
       </c>
       <c r="U9">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V9">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="W9">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="X9">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="Y9">
+        <v>3.1</v>
+      </c>
+      <c r="Z9">
+        <v>2.25</v>
+      </c>
+      <c r="AA9">
+        <v>1.42</v>
+      </c>
+      <c r="AB9">
+        <v>1.76</v>
+      </c>
+      <c r="AC9">
+        <v>1.34</v>
+      </c>
+      <c r="AD9">
+        <v>3.1</v>
+      </c>
+      <c r="AE9">
+        <v>1.4</v>
+      </c>
+      <c r="AF9">
+        <v>10.2</v>
+      </c>
+      <c r="AG9">
+        <v>3.62</v>
+      </c>
+      <c r="AH9">
+        <v>1.18</v>
+      </c>
+      <c r="AI9">
+        <v>4.1</v>
+      </c>
+      <c r="AJ9">
+        <v>1.36</v>
+      </c>
+      <c r="AK9">
+        <v>2.79</v>
+      </c>
+      <c r="AL9">
+        <v>1.71</v>
+      </c>
+      <c r="AM9">
+        <v>2.11</v>
+      </c>
+      <c r="AN9">
+        <v>2.12</v>
+      </c>
+      <c r="AO9">
+        <v>1.71</v>
+      </c>
+      <c r="AP9">
+        <v>2.73</v>
+      </c>
+      <c r="AQ9">
         <v>1.41</v>
-      </c>
-      <c r="Z9">
-        <v>0.82</v>
-      </c>
-      <c r="AA9">
-        <v>1.36</v>
-      </c>
-      <c r="AB9">
-        <v>1.58</v>
-      </c>
-      <c r="AC9">
-        <v>1.39</v>
-      </c>
-      <c r="AD9">
-        <v>2.97</v>
-      </c>
-      <c r="AE9">
-        <v>1.83</v>
-      </c>
-      <c r="AF9">
-        <v>8.5</v>
-      </c>
-      <c r="AG9">
-        <v>2.2</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>1.47</v>
-      </c>
-      <c r="AK9">
-        <v>2.42</v>
-      </c>
-      <c r="AL9">
-        <v>1.82</v>
-      </c>
-      <c r="AM9">
-        <v>1.84</v>
-      </c>
-      <c r="AN9">
-        <v>2.34</v>
-      </c>
-      <c r="AO9">
-        <v>1.5</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2390,13 +2390,13 @@
         <v>3.25</v>
       </c>
       <c r="J10">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="L10">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="M10">
         <v>1.44</v>
@@ -2417,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="U10">
         <v>1.83</v>
@@ -2512,120 +2512,120 @@
         <v>193</v>
       </c>
       <c r="G11">
-        <v>1.91</v>
+        <v>3.39</v>
       </c>
       <c r="H11">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>3.18</v>
       </c>
       <c r="J11">
-        <v>1.4</v>
+        <v>2.59</v>
       </c>
       <c r="K11">
-        <v>4.8</v>
+        <v>3.01</v>
       </c>
       <c r="L11">
-        <v>7.5</v>
+        <v>2.36</v>
       </c>
       <c r="M11">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="N11">
-        <v>3.75</v>
+        <v>2.93</v>
       </c>
       <c r="O11">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P11">
-        <v>20</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q11">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="R11">
-        <v>5.2</v>
+        <v>3.14</v>
       </c>
       <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>1.8</v>
+      </c>
+      <c r="U11">
+        <v>1.73</v>
+      </c>
+      <c r="V11">
+        <v>2.06</v>
+      </c>
+      <c r="W11">
+        <v>1.48</v>
+      </c>
+      <c r="X11">
+        <v>1.28</v>
+      </c>
+      <c r="Y11">
+        <v>1.41</v>
+      </c>
+      <c r="Z11">
+        <v>0.82</v>
+      </c>
+      <c r="AA11">
+        <v>1.36</v>
+      </c>
+      <c r="AB11">
+        <v>1.58</v>
+      </c>
+      <c r="AC11">
+        <v>1.39</v>
+      </c>
+      <c r="AD11">
+        <v>2.97</v>
+      </c>
+      <c r="AE11">
+        <v>1.83</v>
+      </c>
+      <c r="AF11">
+        <v>8.5</v>
+      </c>
+      <c r="AG11">
+        <v>2.2</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>1.47</v>
+      </c>
+      <c r="AK11">
+        <v>2.42</v>
+      </c>
+      <c r="AL11">
+        <v>1.82</v>
+      </c>
+      <c r="AM11">
+        <v>1.84</v>
+      </c>
+      <c r="AN11">
+        <v>2.34</v>
+      </c>
+      <c r="AO11">
         <v>1.5</v>
       </c>
-      <c r="T11">
-        <v>2.55</v>
-      </c>
-      <c r="U11">
-        <v>1.7</v>
-      </c>
-      <c r="V11">
-        <v>2.05</v>
-      </c>
-      <c r="W11">
-        <v>1.05</v>
-      </c>
-      <c r="X11">
-        <v>1.17</v>
-      </c>
-      <c r="Y11">
-        <v>3.1</v>
-      </c>
-      <c r="Z11">
-        <v>2.25</v>
-      </c>
-      <c r="AA11">
-        <v>1.42</v>
-      </c>
-      <c r="AB11">
-        <v>1.76</v>
-      </c>
-      <c r="AC11">
-        <v>1.34</v>
-      </c>
-      <c r="AD11">
-        <v>3.1</v>
-      </c>
-      <c r="AE11">
-        <v>1.4</v>
-      </c>
-      <c r="AF11">
-        <v>10.2</v>
-      </c>
-      <c r="AG11">
-        <v>3.62</v>
-      </c>
-      <c r="AH11">
-        <v>1.18</v>
-      </c>
-      <c r="AI11">
-        <v>4.1</v>
-      </c>
-      <c r="AJ11">
-        <v>1.36</v>
-      </c>
-      <c r="AK11">
-        <v>2.79</v>
-      </c>
-      <c r="AL11">
-        <v>1.71</v>
-      </c>
-      <c r="AM11">
-        <v>2.11</v>
-      </c>
-      <c r="AN11">
-        <v>2.12</v>
-      </c>
-      <c r="AO11">
-        <v>1.71</v>
-      </c>
       <c r="AP11">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2">
         <v>45361</v>
@@ -2634,7 +2634,7 @@
         <v>77</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>111</v>
@@ -2643,120 +2643,120 @@
         <v>194</v>
       </c>
       <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>2.1</v>
       </c>
-      <c r="H12">
-        <v>2.38</v>
-      </c>
       <c r="I12">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="J12">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K12">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N12">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O12">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="Q12">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="R12">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="S12">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="U12">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W12">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="X12">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="Y12">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="Z12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AA12">
-        <v>0.79</v>
+        <v>1.28</v>
       </c>
       <c r="AB12">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="AC12">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AD12">
-        <v>3.04</v>
+        <v>2.44</v>
       </c>
       <c r="AE12">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="AF12">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG12">
-        <v>4.25</v>
+        <v>2.74</v>
       </c>
       <c r="AH12">
         <v>1.3</v>
       </c>
       <c r="AI12">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="AJ12">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AK12">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="AL12">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AM12">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AN12">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="AO12">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AP12">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2">
         <v>45361</v>
@@ -2774,61 +2774,61 @@
         <v>195</v>
       </c>
       <c r="G13">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H13">
         <v>2.4</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
+        <v>1.98</v>
+      </c>
+      <c r="K13">
+        <v>3.8</v>
+      </c>
+      <c r="L13">
+        <v>3.43</v>
+      </c>
+      <c r="M13">
+        <v>1.29</v>
+      </c>
+      <c r="N13">
+        <v>3.5</v>
+      </c>
+      <c r="O13">
+        <v>1.02</v>
+      </c>
+      <c r="P13">
+        <v>18</v>
+      </c>
+      <c r="Q13">
+        <v>1.17</v>
+      </c>
+      <c r="R13">
+        <v>5.3</v>
+      </c>
+      <c r="S13">
+        <v>1.58</v>
+      </c>
+      <c r="T13">
+        <v>2.24</v>
+      </c>
+      <c r="U13">
         <v>1.53</v>
       </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>1.3</v>
-      </c>
-      <c r="N13">
-        <v>3.4</v>
-      </c>
-      <c r="O13">
-        <v>1.03</v>
-      </c>
-      <c r="P13">
-        <v>16</v>
-      </c>
-      <c r="Q13">
-        <v>1.19</v>
-      </c>
-      <c r="R13">
-        <v>4.8</v>
-      </c>
-      <c r="S13">
-        <v>1.61</v>
-      </c>
-      <c r="T13">
-        <v>2.15</v>
-      </c>
-      <c r="U13">
-        <v>1.67</v>
-      </c>
       <c r="V13">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="X13">
         <v>1.18</v>
       </c>
       <c r="Y13">
-        <v>2.29</v>
+        <v>2.02</v>
       </c>
       <c r="Z13">
         <v>2.17</v>
@@ -2837,57 +2837,57 @@
         <v>1.25</v>
       </c>
       <c r="AB13">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AC13">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AD13">
+        <v>3.18</v>
+      </c>
+      <c r="AE13">
+        <v>1.45</v>
+      </c>
+      <c r="AF13">
+        <v>8.5</v>
+      </c>
+      <c r="AG13">
         <v>3.29</v>
       </c>
-      <c r="AE13">
-        <v>1.26</v>
-      </c>
-      <c r="AF13">
-        <v>9.5</v>
-      </c>
-      <c r="AG13">
-        <v>4.88</v>
-      </c>
       <c r="AH13">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AI13">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="AJ13">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="AK13">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AL13">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="AM13">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="AN13">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="AO13">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AP13">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="AQ13">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2">
         <v>45361</v>
@@ -2905,115 +2905,115 @@
         <v>196</v>
       </c>
       <c r="G14">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H14">
         <v>2.4</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="K14">
-        <v>3.7</v>
+        <v>4.37</v>
       </c>
       <c r="L14">
-        <v>3.7</v>
+        <v>5.45</v>
       </c>
       <c r="M14">
+        <v>1.3</v>
+      </c>
+      <c r="N14">
+        <v>3.4</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <v>1.19</v>
+      </c>
+      <c r="R14">
+        <v>4.8</v>
+      </c>
+      <c r="S14">
+        <v>1.6</v>
+      </c>
+      <c r="T14">
+        <v>2.21</v>
+      </c>
+      <c r="U14">
+        <v>1.67</v>
+      </c>
+      <c r="V14">
+        <v>2.1</v>
+      </c>
+      <c r="W14">
+        <v>1.1</v>
+      </c>
+      <c r="X14">
+        <v>1.18</v>
+      </c>
+      <c r="Y14">
+        <v>2.29</v>
+      </c>
+      <c r="Z14">
+        <v>2.17</v>
+      </c>
+      <c r="AA14">
+        <v>1.25</v>
+      </c>
+      <c r="AB14">
+        <v>1.91</v>
+      </c>
+      <c r="AC14">
+        <v>1.38</v>
+      </c>
+      <c r="AD14">
+        <v>3.29</v>
+      </c>
+      <c r="AE14">
+        <v>1.26</v>
+      </c>
+      <c r="AF14">
+        <v>9.5</v>
+      </c>
+      <c r="AG14">
+        <v>4.88</v>
+      </c>
+      <c r="AH14">
+        <v>1.25</v>
+      </c>
+      <c r="AI14">
+        <v>3.42</v>
+      </c>
+      <c r="AJ14">
+        <v>1.65</v>
+      </c>
+      <c r="AK14">
+        <v>2.13</v>
+      </c>
+      <c r="AL14">
+        <v>1.76</v>
+      </c>
+      <c r="AM14">
+        <v>2.06</v>
+      </c>
+      <c r="AN14">
+        <v>2.21</v>
+      </c>
+      <c r="AO14">
+        <v>1.67</v>
+      </c>
+      <c r="AP14">
+        <v>3.14</v>
+      </c>
+      <c r="AQ14">
         <v>1.29</v>
-      </c>
-      <c r="N14">
-        <v>3.5</v>
-      </c>
-      <c r="O14">
-        <v>1.02</v>
-      </c>
-      <c r="P14">
-        <v>19</v>
-      </c>
-      <c r="Q14">
-        <v>1.17</v>
-      </c>
-      <c r="R14">
-        <v>5.3</v>
-      </c>
-      <c r="S14">
-        <v>1.55</v>
-      </c>
-      <c r="T14">
-        <v>2.3</v>
-      </c>
-      <c r="U14">
-        <v>1.57</v>
-      </c>
-      <c r="V14">
-        <v>2.25</v>
-      </c>
-      <c r="W14">
-        <v>1.19</v>
-      </c>
-      <c r="X14">
-        <v>1.19</v>
-      </c>
-      <c r="Y14">
-        <v>1.98</v>
-      </c>
-      <c r="Z14">
-        <v>1.33</v>
-      </c>
-      <c r="AA14">
-        <v>0.58</v>
-      </c>
-      <c r="AB14">
-        <v>1.49</v>
-      </c>
-      <c r="AC14">
-        <v>1.1</v>
-      </c>
-      <c r="AD14">
-        <v>2.59</v>
-      </c>
-      <c r="AE14">
-        <v>1.55</v>
-      </c>
-      <c r="AF14">
-        <v>9</v>
-      </c>
-      <c r="AG14">
-        <v>2.9</v>
-      </c>
-      <c r="AH14">
-        <v>1.11</v>
-      </c>
-      <c r="AI14">
-        <v>5.2</v>
-      </c>
-      <c r="AJ14">
-        <v>1.24</v>
-      </c>
-      <c r="AK14">
-        <v>3.48</v>
-      </c>
-      <c r="AL14">
-        <v>1.46</v>
-      </c>
-      <c r="AM14">
-        <v>2.52</v>
-      </c>
-      <c r="AN14">
-        <v>1.7</v>
-      </c>
-      <c r="AO14">
-        <v>2.05</v>
-      </c>
-      <c r="AP14">
-        <v>2.22</v>
-      </c>
-      <c r="AQ14">
-        <v>1.66</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3027,7 +3027,7 @@
         <v>77</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>114</v>
@@ -3036,120 +3036,120 @@
         <v>197</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J15">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="M15">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O15">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q15">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="R15">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="S15">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="T15">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="U15">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V15">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="X15">
         <v>1.18</v>
       </c>
       <c r="Y15">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="Z15">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AA15">
-        <v>1.25</v>
+        <v>0.79</v>
       </c>
       <c r="AB15">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AC15">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="AD15">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="AE15">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AF15">
         <v>8.5</v>
       </c>
       <c r="AG15">
-        <v>3.29</v>
+        <v>4.25</v>
       </c>
       <c r="AH15">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI15">
         <v>3.25</v>
       </c>
       <c r="AJ15">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AK15">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AL15">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AN15">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="AO15">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AP15">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AQ15">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2">
         <v>45361</v>
@@ -3158,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
         <v>115</v>
@@ -3167,115 +3167,115 @@
         <v>198</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="H16">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="I16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>4.03</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>4.13</v>
       </c>
       <c r="M16">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="N16">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="O16">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P16">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Q16">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="R16">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="T16">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V16">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W16">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="X16">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="Y16">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="Z16">
         <v>1.33</v>
       </c>
       <c r="AA16">
-        <v>1.28</v>
+        <v>0.58</v>
       </c>
       <c r="AB16">
+        <v>1.49</v>
+      </c>
+      <c r="AC16">
+        <v>1.1</v>
+      </c>
+      <c r="AD16">
+        <v>2.59</v>
+      </c>
+      <c r="AE16">
+        <v>1.55</v>
+      </c>
+      <c r="AF16">
+        <v>9</v>
+      </c>
+      <c r="AG16">
+        <v>2.9</v>
+      </c>
+      <c r="AH16">
+        <v>1.11</v>
+      </c>
+      <c r="AI16">
+        <v>5.2</v>
+      </c>
+      <c r="AJ16">
         <v>1.24</v>
       </c>
-      <c r="AC16">
-        <v>1.2</v>
-      </c>
-      <c r="AD16">
-        <v>2.44</v>
-      </c>
-      <c r="AE16">
-        <v>1.81</v>
-      </c>
-      <c r="AF16">
-        <v>7.5</v>
-      </c>
-      <c r="AG16">
-        <v>2.74</v>
-      </c>
-      <c r="AH16">
-        <v>1.3</v>
-      </c>
-      <c r="AI16">
-        <v>3.52</v>
-      </c>
-      <c r="AJ16">
-        <v>1.54</v>
-      </c>
       <c r="AK16">
-        <v>2.48</v>
+        <v>3.48</v>
       </c>
       <c r="AL16">
-        <v>1.89</v>
+        <v>1.46</v>
       </c>
       <c r="AM16">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="AN16">
-        <v>2.41</v>
+        <v>1.7</v>
       </c>
       <c r="AO16">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AP16">
-        <v>3.27</v>
+        <v>2.22</v>
       </c>
       <c r="AQ16">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3307,13 +3307,13 @@
         <v>4.5</v>
       </c>
       <c r="J17">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K17">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M17">
         <v>1.57</v>
@@ -3334,10 +3334,10 @@
         <v>2.54</v>
       </c>
       <c r="S17">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="T17">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U17">
         <v>2.1</v>
@@ -3438,13 +3438,13 @@
         <v>3.4</v>
       </c>
       <c r="J18">
-        <v>2.53</v>
+        <v>2.45</v>
       </c>
       <c r="K18">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="L18">
-        <v>2.88</v>
+        <v>2.48</v>
       </c>
       <c r="M18">
         <v>1.44</v>
@@ -3465,10 +3465,10 @@
         <v>3.1</v>
       </c>
       <c r="S18">
-        <v>2.17</v>
+        <v>2.07</v>
       </c>
       <c r="T18">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U18">
         <v>1.8</v>
@@ -3569,13 +3569,13 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="K19">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L19">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="M19">
         <v>1.2</v>
@@ -3596,10 +3596,10 @@
         <v>6.45</v>
       </c>
       <c r="S19">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="T19">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="U19">
         <v>1.33</v>
@@ -3700,13 +3700,13 @@
         <v>3.25</v>
       </c>
       <c r="J20">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>3.06</v>
       </c>
       <c r="L20">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="M20">
         <v>1.44</v>
@@ -3727,10 +3727,10 @@
         <v>3.4</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U20">
         <v>1.8</v>
@@ -3822,115 +3822,115 @@
         <v>203</v>
       </c>
       <c r="G21">
-        <v>4.3</v>
+        <v>2.68</v>
       </c>
       <c r="H21">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="I21">
-        <v>2.45</v>
+        <v>4.79</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>2.02</v>
       </c>
       <c r="K21">
-        <v>3.75</v>
+        <v>3.37</v>
       </c>
       <c r="L21">
-        <v>1.75</v>
+        <v>3.73</v>
       </c>
       <c r="M21">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="N21">
-        <v>3.28</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="P21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q21">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="R21">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="S21">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="T21">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="U21">
-        <v>1.62</v>
+        <v>1.97</v>
       </c>
       <c r="V21">
-        <v>2.24</v>
+        <v>1.79</v>
       </c>
       <c r="W21">
-        <v>2.04</v>
+        <v>1.28</v>
       </c>
       <c r="X21">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Y21">
-        <v>1.26</v>
+        <v>1.85</v>
       </c>
       <c r="Z21">
-        <v>0.64</v>
+        <v>1.86</v>
       </c>
       <c r="AA21">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="AB21">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
       <c r="AC21">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AD21">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="AE21">
-        <v>2.88</v>
+        <v>1.57</v>
       </c>
       <c r="AF21">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG21">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="AH21">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AI21">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="AJ21">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AK21">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AL21">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="AM21">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AO21">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP21">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3953,115 +3953,115 @@
         <v>204</v>
       </c>
       <c r="G22">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="H22">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="I22">
-        <v>4.79</v>
+        <v>2.45</v>
       </c>
       <c r="J22">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="K22">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
       <c r="L22">
-        <v>3.73</v>
+        <v>1.85</v>
       </c>
       <c r="M22">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>3.28</v>
       </c>
       <c r="O22">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="R22">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="S22">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="T22">
-        <v>1.67</v>
+        <v>2.18</v>
       </c>
       <c r="U22">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="V22">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="W22">
+        <v>2.04</v>
+      </c>
+      <c r="X22">
         <v>1.28</v>
       </c>
-      <c r="X22">
-        <v>1.34</v>
-      </c>
       <c r="Y22">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="Z22">
-        <v>1.86</v>
+        <v>0.64</v>
       </c>
       <c r="AA22">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AB22">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AC22">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AD22">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="AE22">
+        <v>2.88</v>
+      </c>
+      <c r="AF22">
+        <v>8.5</v>
+      </c>
+      <c r="AG22">
         <v>1.57</v>
       </c>
-      <c r="AF22">
-        <v>8</v>
-      </c>
-      <c r="AG22">
-        <v>2.75</v>
-      </c>
       <c r="AH22">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AI22">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="AJ22">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AK22">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AL22">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="AM22">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AN22">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AO22">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP22">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="AQ22">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4093,13 +4093,13 @@
         <v>4.33</v>
       </c>
       <c r="J23">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="K23">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="M23">
         <v>1.62</v>
@@ -4120,10 +4120,10 @@
         <v>2.37</v>
       </c>
       <c r="S23">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="T23">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="U23">
         <v>2.25</v>
@@ -4224,13 +4224,13 @@
         <v>9.5</v>
       </c>
       <c r="J24">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="K24">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="L24">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M24">
         <v>1.41</v>
@@ -4251,10 +4251,10 @@
         <v>3</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T24">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="U24">
         <v>2.45</v>
@@ -4355,13 +4355,13 @@
         <v>4.75</v>
       </c>
       <c r="J25">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="K25">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>4.08</v>
       </c>
       <c r="M25">
         <v>1.33</v>
@@ -4382,10 +4382,10 @@
         <v>4</v>
       </c>
       <c r="S25">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="T25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U25">
         <v>1.73</v>
@@ -4486,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="K26">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="M26">
         <v>1.29</v>
@@ -4513,10 +4513,10 @@
         <v>4.6</v>
       </c>
       <c r="S26">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="T26">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="U26">
         <v>1.67</v>
@@ -4617,13 +4617,13 @@
         <v>6</v>
       </c>
       <c r="J27">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="K27">
-        <v>4.6</v>
+        <v>5.45</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="M27">
         <v>1.25</v>
@@ -4748,13 +4748,13 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="K28">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="L28">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="M28">
         <v>1.33</v>
@@ -4775,10 +4775,10 @@
         <v>3.92</v>
       </c>
       <c r="S28">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T28">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U28">
         <v>1.75</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2">
         <v>45361</v>
@@ -4861,7 +4861,7 @@
         <v>81</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>128</v>
@@ -4870,120 +4870,120 @@
         <v>211</v>
       </c>
       <c r="G29">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H29">
         <v>2.3</v>
       </c>
       <c r="I29">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="K29">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>4.47</v>
+        <v>5.5</v>
       </c>
       <c r="M29">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="N29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O29">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q29">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R29">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="S29">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T29">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="V29">
+        <v>1.9</v>
+      </c>
+      <c r="W29">
+        <v>1.09</v>
+      </c>
+      <c r="X29">
+        <v>1.17</v>
+      </c>
+      <c r="Y29">
+        <v>2.4</v>
+      </c>
+      <c r="Z29">
+        <v>2.46</v>
+      </c>
+      <c r="AA29">
+        <v>0.91</v>
+      </c>
+      <c r="AB29">
         <v>2.15</v>
       </c>
-      <c r="W29">
-        <v>1.16</v>
-      </c>
-      <c r="X29">
-        <v>1.2</v>
-      </c>
-      <c r="Y29">
-        <v>2.1</v>
-      </c>
-      <c r="Z29">
-        <v>1.55</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>1.91</v>
-      </c>
       <c r="AC29">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="AD29">
         <v>3.47</v>
       </c>
       <c r="AE29">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AF29">
         <v>9</v>
       </c>
       <c r="AG29">
-        <v>3.32</v>
+        <v>3.83</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AJ29">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="AK29">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AL29">
-        <v>1.52</v>
+        <v>2.25</v>
       </c>
       <c r="AM29">
-        <v>2.28</v>
+        <v>1.54</v>
       </c>
       <c r="AN29">
-        <v>1.95</v>
+        <v>3.08</v>
       </c>
       <c r="AO29">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="AP29">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="AQ29">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>45361</v>
@@ -4992,7 +4992,7 @@
         <v>81</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
         <v>129</v>
@@ -5001,120 +5001,120 @@
         <v>212</v>
       </c>
       <c r="G30">
-        <v>6.09</v>
+        <v>2.25</v>
       </c>
       <c r="H30">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="I30">
-        <v>2.02</v>
+        <v>4.33</v>
       </c>
       <c r="J30">
-        <v>5.25</v>
+        <v>1.74</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="L30">
-        <v>1.5</v>
+        <v>4.47</v>
       </c>
       <c r="M30">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="N30">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="O30">
         <v>1.01</v>
       </c>
       <c r="P30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q30">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R30">
-        <v>3.64</v>
+        <v>4.2</v>
       </c>
       <c r="S30">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="T30">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="U30">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="V30">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="W30">
-        <v>2.4</v>
+        <v>1.16</v>
       </c>
       <c r="X30">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z30">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AA30">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="AC30">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AD30">
-        <v>3</v>
+        <v>3.47</v>
       </c>
       <c r="AE30">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="AF30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG30">
-        <v>1.35</v>
+        <v>3.32</v>
       </c>
       <c r="AH30">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AK30">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AL30">
         <v>1.52</v>
       </c>
       <c r="AM30">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="AN30">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AO30">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AP30">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2">
         <v>45361</v>
@@ -5123,7 +5123,7 @@
         <v>81</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
         <v>130</v>
@@ -5132,120 +5132,120 @@
         <v>213</v>
       </c>
       <c r="G31">
-        <v>2.5</v>
+        <v>6.09</v>
       </c>
       <c r="H31">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>2.02</v>
       </c>
       <c r="J31">
-        <v>2.05</v>
+        <v>4.84</v>
       </c>
       <c r="K31">
-        <v>3.37</v>
+        <v>3.58</v>
       </c>
       <c r="L31">
-        <v>3.63</v>
+        <v>1.46</v>
       </c>
       <c r="M31">
         <v>1.33</v>
       </c>
       <c r="N31">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O31">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P31">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Q31">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R31">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="S31">
         <v>1.69</v>
       </c>
       <c r="T31">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="U31">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V31">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W31">
-        <v>1.22</v>
+        <v>2.4</v>
       </c>
       <c r="X31">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Y31">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AA31">
-        <v>0.42</v>
+        <v>2.25</v>
       </c>
       <c r="AB31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AC31">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="AD31">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AE31">
-        <v>1.69</v>
+        <v>3.6</v>
       </c>
       <c r="AF31">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG31">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ31">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AK31">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AL31">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AM31">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AN31">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AO31">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AP31">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2">
         <v>45361</v>
@@ -5299,10 +5299,10 @@
         <v>5.7</v>
       </c>
       <c r="S32">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="T32">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="U32">
         <v>2.1</v>
@@ -5403,13 +5403,13 @@
         <v>4.5</v>
       </c>
       <c r="J33">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="K33">
-        <v>4.2</v>
+        <v>4.27</v>
       </c>
       <c r="L33">
-        <v>5</v>
+        <v>4.92</v>
       </c>
       <c r="M33">
         <v>1.29</v>
@@ -5430,10 +5430,10 @@
         <v>4.4</v>
       </c>
       <c r="S33">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="T33">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="U33">
         <v>1.62</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2">
         <v>45361</v>
@@ -5516,7 +5516,7 @@
         <v>81</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
         <v>133</v>
@@ -5525,120 +5525,120 @@
         <v>216</v>
       </c>
       <c r="G34">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="H34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I34">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="J34">
-        <v>1.44</v>
+        <v>2.99</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="L34">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="M34">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N34">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O34">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P34">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q34">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="R34">
         <v>4.4</v>
       </c>
       <c r="S34">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="T34">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="V34">
+        <v>2.25</v>
+      </c>
+      <c r="W34">
         <v>1.8</v>
       </c>
-      <c r="W34">
-        <v>1.06</v>
-      </c>
       <c r="X34">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="Y34">
-        <v>2.69</v>
+        <v>1.24</v>
       </c>
       <c r="Z34">
-        <v>2.23</v>
+        <v>1.25</v>
       </c>
       <c r="AA34">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="AB34">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AC34">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AD34">
-        <v>2.6</v>
+        <v>2.94</v>
       </c>
       <c r="AE34">
-        <v>1.36</v>
+        <v>2.22</v>
       </c>
       <c r="AF34">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG34">
-        <v>3.86</v>
+        <v>1.92</v>
       </c>
       <c r="AH34">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AI34">
-        <v>3.74</v>
+        <v>2.84</v>
       </c>
       <c r="AJ34">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="AK34">
-        <v>2.66</v>
+        <v>2.09</v>
       </c>
       <c r="AL34">
-        <v>1.77</v>
+        <v>2.16</v>
       </c>
       <c r="AM34">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="AN34">
-        <v>2.23</v>
+        <v>2.85</v>
       </c>
       <c r="AO34">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AP34">
-        <v>2.88</v>
+        <v>3.94</v>
       </c>
       <c r="AQ34">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2">
         <v>45361</v>
@@ -5665,13 +5665,13 @@
         <v>3.4</v>
       </c>
       <c r="J35">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="K35">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L35">
-        <v>2.6</v>
+        <v>2.89</v>
       </c>
       <c r="M35">
         <v>1.44</v>
@@ -5692,10 +5692,10 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="U35">
         <v>1.91</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>45361</v>
@@ -5787,120 +5787,120 @@
         <v>218</v>
       </c>
       <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>2.05</v>
+      </c>
+      <c r="I36">
         <v>3.75</v>
       </c>
-      <c r="H36">
-        <v>2.3</v>
-      </c>
-      <c r="I36">
-        <v>2.6</v>
-      </c>
       <c r="J36">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="K36">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>2.89</v>
       </c>
       <c r="M36">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="N36">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="O36">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P36">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="Q36">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="R36">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="S36">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="T36">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="U36">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="V36">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W36">
-        <v>1.8</v>
+        <v>1.28</v>
       </c>
       <c r="X36">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="Y36">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Z36">
-        <v>1.25</v>
+        <v>0.55</v>
       </c>
       <c r="AA36">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
       <c r="AB36">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="AC36">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD36">
-        <v>2.94</v>
+        <v>2.38</v>
       </c>
       <c r="AE36">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="AF36">
         <v>8.6</v>
       </c>
       <c r="AG36">
-        <v>1.92</v>
+        <v>2.39</v>
       </c>
       <c r="AH36">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AI36">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="AJ36">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AK36">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AL36">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="AM36">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AN36">
-        <v>2.85</v>
+        <v>3.08</v>
       </c>
       <c r="AO36">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AP36">
-        <v>3.94</v>
+        <v>4.4</v>
       </c>
       <c r="AQ36">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
         <v>45361</v>
@@ -5909,7 +5909,7 @@
         <v>81</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
         <v>136</v>
@@ -5918,120 +5918,120 @@
         <v>219</v>
       </c>
       <c r="G37">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>1.41</v>
       </c>
       <c r="K37">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="L37">
-        <v>2.3</v>
+        <v>6.65</v>
       </c>
       <c r="M37">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="N37">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="O37">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="Q37">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="R37">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="S37">
-        <v>2.25</v>
+        <v>1.64</v>
       </c>
       <c r="T37">
-        <v>1.62</v>
+        <v>2.13</v>
       </c>
       <c r="U37">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
         <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="X37">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="Y37">
-        <v>1.35</v>
+        <v>2.69</v>
       </c>
       <c r="Z37">
-        <v>1.71</v>
+        <v>2.23</v>
       </c>
       <c r="AA37">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AB37">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AC37">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="AD37">
-        <v>3.39</v>
+        <v>2.6</v>
       </c>
       <c r="AE37">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="AF37">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG37">
-        <v>2.03</v>
+        <v>3.86</v>
       </c>
       <c r="AH37">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AI37">
-        <v>3.48</v>
+        <v>3.74</v>
       </c>
       <c r="AJ37">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AK37">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="AL37">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="AM37">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="AN37">
-        <v>2.54</v>
+        <v>2.23</v>
       </c>
       <c r="AO37">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AP37">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
       <c r="AQ37">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2">
         <v>45361</v>
@@ -6049,120 +6049,120 @@
         <v>220</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="H38">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J38">
-        <v>6</v>
+        <v>3.02</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L38">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="M38">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="N38">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="S38">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="T38">
         <v>1.67</v>
       </c>
       <c r="U38">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
         <v>1.57</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
       <c r="X38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AA38">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AB38">
-        <v>0.92</v>
+        <v>1.59</v>
       </c>
       <c r="AC38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD38">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2">
         <v>45361</v>
@@ -6171,7 +6171,7 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>138</v>
@@ -6180,22 +6180,22 @@
         <v>221</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I39">
+        <v>2.1</v>
+      </c>
+      <c r="J39">
+        <v>6.73</v>
+      </c>
+      <c r="K39">
         <v>3.75</v>
       </c>
-      <c r="J39">
-        <v>2.37</v>
-      </c>
-      <c r="K39">
-        <v>3.1</v>
-      </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="M39">
         <v>1.44</v>
@@ -6204,96 +6204,96 @@
         <v>2.63</v>
       </c>
       <c r="O39">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P39">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="Q39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R39">
         <v>3</v>
       </c>
       <c r="S39">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="T39">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="U39">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V39">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W39">
-        <v>1.28</v>
+        <v>2.45</v>
       </c>
       <c r="X39">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="Y39">
-        <v>1.62</v>
+        <v>1.07</v>
       </c>
       <c r="Z39">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.83</v>
+        <v>1.75</v>
       </c>
       <c r="AB39">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="AC39">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD39">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AE39">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AF39">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AH39">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AM39">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AN39">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AQ39">
-        <v>1.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="2">
         <v>45361</v>
@@ -6302,7 +6302,7 @@
         <v>81</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>139</v>
@@ -6311,22 +6311,22 @@
         <v>222</v>
       </c>
       <c r="G40">
+        <v>2.5</v>
+      </c>
+      <c r="H40">
+        <v>2.25</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
         <v>2.05</v>
       </c>
-      <c r="H40">
-        <v>2.3</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
-      <c r="J40">
-        <v>1.53</v>
-      </c>
       <c r="K40">
-        <v>4</v>
+        <v>3.37</v>
       </c>
       <c r="L40">
-        <v>5.5</v>
+        <v>3.63</v>
       </c>
       <c r="M40">
         <v>1.33</v>
@@ -6335,10 +6335,10 @@
         <v>3.25</v>
       </c>
       <c r="O40">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P40">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Q40">
         <v>1.25</v>
@@ -6347,79 +6347,79 @@
         <v>3.75</v>
       </c>
       <c r="S40">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U40">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W40">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="X40">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y40">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Z40">
-        <v>2.46</v>
+        <v>1.36</v>
       </c>
       <c r="AA40">
-        <v>0.91</v>
+        <v>0.42</v>
       </c>
       <c r="AB40">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="AC40">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="AD40">
-        <v>3.47</v>
+        <v>2.43</v>
       </c>
       <c r="AE40">
-        <v>1.37</v>
+        <v>1.69</v>
       </c>
       <c r="AF40">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG40">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="AH40">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="AK40">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="AL40">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AM40">
-        <v>1.54</v>
+        <v>2.5</v>
       </c>
       <c r="AN40">
-        <v>3.08</v>
+        <v>1.95</v>
       </c>
       <c r="AO40">
-        <v>1.3</v>
+        <v>1.85</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6451,13 +6451,13 @@
         <v>3.5</v>
       </c>
       <c r="J41">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="K41">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L41">
-        <v>2.87</v>
+        <v>2.66</v>
       </c>
       <c r="M41">
         <v>1.33</v>
@@ -6478,10 +6478,10 @@
         <v>3.9</v>
       </c>
       <c r="S41">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U41">
         <v>1.67</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2">
         <v>45361</v>
@@ -6564,7 +6564,7 @@
         <v>83</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
         <v>141</v>
@@ -6576,117 +6576,117 @@
         <v>1.73</v>
       </c>
       <c r="H42">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="I42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="K42">
-        <v>5.25</v>
+        <v>5.8</v>
       </c>
       <c r="L42">
-        <v>9</v>
+        <v>8.35</v>
       </c>
       <c r="M42">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>1.01</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>1.12</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+      <c r="S42">
+        <v>1.47</v>
+      </c>
+      <c r="T42">
+        <v>2.57</v>
+      </c>
+      <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>1.04</v>
+      </c>
+      <c r="X42">
+        <v>1.1</v>
+      </c>
+      <c r="Y42">
         <v>3.5</v>
       </c>
-      <c r="O42">
-        <v>1.02</v>
-      </c>
-      <c r="P42">
-        <v>12</v>
-      </c>
-      <c r="Q42">
-        <v>1.17</v>
-      </c>
-      <c r="R42">
-        <v>4.5</v>
-      </c>
-      <c r="S42">
-        <v>1.55</v>
-      </c>
-      <c r="T42">
-        <v>2.3</v>
-      </c>
-      <c r="U42">
-        <v>1.95</v>
-      </c>
-      <c r="V42">
-        <v>1.8</v>
-      </c>
-      <c r="W42">
-        <v>1.03</v>
-      </c>
-      <c r="X42">
+      <c r="Z42">
+        <v>1.93</v>
+      </c>
+      <c r="AA42">
+        <v>0.71</v>
+      </c>
+      <c r="AB42">
+        <v>1.83</v>
+      </c>
+      <c r="AC42">
+        <v>1.34</v>
+      </c>
+      <c r="AD42">
+        <v>3.17</v>
+      </c>
+      <c r="AE42">
         <v>1.14</v>
-      </c>
-      <c r="Y42">
-        <v>3.6</v>
-      </c>
-      <c r="Z42">
-        <v>1.9</v>
-      </c>
-      <c r="AA42">
-        <v>0.7</v>
-      </c>
-      <c r="AB42">
-        <v>2.05</v>
-      </c>
-      <c r="AC42">
-        <v>1.19</v>
-      </c>
-      <c r="AD42">
-        <v>3.24</v>
-      </c>
-      <c r="AE42">
-        <v>1.23</v>
       </c>
       <c r="AF42">
         <v>11</v>
       </c>
       <c r="AG42">
-        <v>4.89</v>
+        <v>7</v>
       </c>
       <c r="AH42">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AI42">
-        <v>5.15</v>
+        <v>4.1</v>
       </c>
       <c r="AJ42">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AK42">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="AL42">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AM42">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AN42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AP42">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="AQ42">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2">
         <v>45361</v>
@@ -6695,7 +6695,7 @@
         <v>83</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
         <v>142</v>
@@ -6707,112 +6707,112 @@
         <v>1.73</v>
       </c>
       <c r="H43">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J43">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="L43">
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="M43">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O43">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q43">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="R43">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="S43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="T43">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X43">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Y43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z43">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AA43">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AB43">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AC43">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AD43">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="AE43">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AF43">
         <v>11</v>
       </c>
       <c r="AG43">
-        <v>7</v>
+        <v>4.89</v>
       </c>
       <c r="AH43">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AI43">
-        <v>4.1</v>
+        <v>5.15</v>
       </c>
       <c r="AJ43">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AK43">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="AL43">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AM43">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AO43">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AP43">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="44" spans="1:43">
@@ -6844,13 +6844,13 @@
         <v>1.73</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>10.88</v>
       </c>
       <c r="K44">
-        <v>4.98</v>
+        <v>6</v>
       </c>
       <c r="L44">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="M44">
         <v>1.29</v>
@@ -6871,10 +6871,10 @@
         <v>4.75</v>
       </c>
       <c r="S44">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="T44">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="U44">
         <v>2.05</v>
@@ -6940,10 +6940,10 @@
         <v>1.33</v>
       </c>
       <c r="AP44">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="45" spans="1:43">
@@ -6975,13 +6975,13 @@
         <v>2.75</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>4.18</v>
       </c>
       <c r="K45">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="M45">
         <v>1.44</v>
@@ -7002,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="T45">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U45">
         <v>1.95</v>
@@ -7106,13 +7106,13 @@
         <v>4.2</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="K46">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="M46">
         <v>1.5</v>
@@ -7133,10 +7133,10 @@
         <v>2.8</v>
       </c>
       <c r="S46">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="T46">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="U46">
         <v>1.91</v>
@@ -7237,13 +7237,13 @@
         <v>2.8</v>
       </c>
       <c r="J47">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="K47">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="L47">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="M47">
         <v>1.52</v>
@@ -7258,13 +7258,13 @@
         <v>7</v>
       </c>
       <c r="Q47">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R47">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S47">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="T47">
         <v>1.55</v>
@@ -7368,13 +7368,13 @@
         <v>2.38</v>
       </c>
       <c r="J48">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
       <c r="K48">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L48">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="M48">
         <v>1.33</v>
@@ -7395,10 +7395,10 @@
         <v>4.2</v>
       </c>
       <c r="S48">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T48">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="U48">
         <v>1.67</v>
@@ -7621,115 +7621,115 @@
         <v>232</v>
       </c>
       <c r="G50">
+        <v>3.75</v>
+      </c>
+      <c r="H50">
         <v>2.38</v>
       </c>
-      <c r="H50">
-        <v>2.3</v>
-      </c>
       <c r="I50">
+        <v>2.6</v>
+      </c>
+      <c r="J50">
+        <v>3.65</v>
+      </c>
+      <c r="K50">
+        <v>3.75</v>
+      </c>
+      <c r="L50">
+        <v>1.92</v>
+      </c>
+      <c r="M50">
+        <v>1.3</v>
+      </c>
+      <c r="N50">
+        <v>3.4</v>
+      </c>
+      <c r="O50">
+        <v>1.01</v>
+      </c>
+      <c r="P50">
+        <v>12</v>
+      </c>
+      <c r="Q50">
+        <v>1.17</v>
+      </c>
+      <c r="R50">
         <v>4.5</v>
       </c>
-      <c r="J50">
-        <v>1.75</v>
-      </c>
-      <c r="K50">
-        <v>3.6</v>
-      </c>
-      <c r="L50">
-        <v>3.9</v>
-      </c>
-      <c r="M50">
-        <v>1.33</v>
-      </c>
-      <c r="N50">
-        <v>3.25</v>
-      </c>
-      <c r="O50">
-        <v>1.04</v>
-      </c>
-      <c r="P50">
-        <v>10</v>
-      </c>
-      <c r="Q50">
-        <v>1.22</v>
-      </c>
-      <c r="R50">
-        <v>4</v>
-      </c>
       <c r="S50">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="T50">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="U50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V50">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W50">
-        <v>1.16</v>
+        <v>1.8</v>
       </c>
       <c r="X50">
         <v>1.2</v>
       </c>
       <c r="Y50">
+        <v>1.3</v>
+      </c>
+      <c r="Z50">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>0.92</v>
+      </c>
+      <c r="AB50">
+        <v>1.27</v>
+      </c>
+      <c r="AC50">
+        <v>1.51</v>
+      </c>
+      <c r="AD50">
+        <v>2.78</v>
+      </c>
+      <c r="AE50">
+        <v>2</v>
+      </c>
+      <c r="AF50">
+        <v>8</v>
+      </c>
+      <c r="AG50">
         <v>2.05</v>
       </c>
-      <c r="Z50">
-        <v>2.46</v>
-      </c>
-      <c r="AA50">
-        <v>1.08</v>
-      </c>
-      <c r="AB50">
-        <v>2.03</v>
-      </c>
-      <c r="AC50">
-        <v>1.54</v>
-      </c>
-      <c r="AD50">
-        <v>3.57</v>
-      </c>
-      <c r="AE50">
-        <v>1.37</v>
-      </c>
-      <c r="AF50">
-        <v>9.5</v>
-      </c>
-      <c r="AG50">
-        <v>3.69</v>
-      </c>
       <c r="AH50">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AI50">
-        <v>5.1</v>
+        <v>3.65</v>
       </c>
       <c r="AJ50">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="AK50">
-        <v>3.42</v>
+        <v>2.58</v>
       </c>
       <c r="AL50">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="AM50">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="AN50">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AO50">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="51" spans="1:43">
@@ -7752,120 +7752,120 @@
         <v>233</v>
       </c>
       <c r="G51">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="H51">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I51">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="J51">
-        <v>3.65</v>
+        <v>1.72</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3.63</v>
       </c>
       <c r="L51">
-        <v>1.92</v>
+        <v>4.9</v>
       </c>
       <c r="M51">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N51">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O51">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q51">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="R51">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="S51">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="T51">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="U51">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V51">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W51">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="X51">
         <v>1.2</v>
       </c>
       <c r="Y51">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="Z51">
-        <v>0.6899999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="AA51">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AB51">
-        <v>1.27</v>
+        <v>2.03</v>
       </c>
       <c r="AC51">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AD51">
-        <v>2.78</v>
+        <v>3.57</v>
       </c>
       <c r="AE51">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="AF51">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG51">
-        <v>2.05</v>
+        <v>3.69</v>
       </c>
       <c r="AH51">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AI51">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="AJ51">
+        <v>1.25</v>
+      </c>
+      <c r="AK51">
+        <v>3.42</v>
+      </c>
+      <c r="AL51">
         <v>1.47</v>
       </c>
-      <c r="AK51">
-        <v>2.58</v>
-      </c>
-      <c r="AL51">
-        <v>1.75</v>
-      </c>
       <c r="AM51">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="AN51">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AO51">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AP51">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B52" s="2">
         <v>45361</v>
@@ -7874,7 +7874,7 @@
         <v>86</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -7883,115 +7883,115 @@
         <v>234</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="H52">
         <v>2.3</v>
       </c>
       <c r="I52">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J52">
-        <v>5.05</v>
+        <v>1.96</v>
       </c>
       <c r="K52">
-        <v>4.07</v>
+        <v>3.85</v>
       </c>
       <c r="L52">
-        <v>1.55</v>
+        <v>3.45</v>
       </c>
       <c r="M52">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="N52">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="O52">
         <v>1.03</v>
       </c>
       <c r="P52">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q52">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="R52">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="S52">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="T52">
+        <v>2.21</v>
+      </c>
+      <c r="U52">
+        <v>1.62</v>
+      </c>
+      <c r="V52">
+        <v>2.2</v>
+      </c>
+      <c r="W52">
+        <v>1.36</v>
+      </c>
+      <c r="X52">
+        <v>1.28</v>
+      </c>
+      <c r="Y52">
+        <v>1.71</v>
+      </c>
+      <c r="Z52">
+        <v>1.75</v>
+      </c>
+      <c r="AA52">
+        <v>0.92</v>
+      </c>
+      <c r="AB52">
+        <v>1.69</v>
+      </c>
+      <c r="AC52">
+        <v>1.33</v>
+      </c>
+      <c r="AD52">
+        <v>3.02</v>
+      </c>
+      <c r="AE52">
+        <v>1.71</v>
+      </c>
+      <c r="AF52">
+        <v>7.5</v>
+      </c>
+      <c r="AG52">
+        <v>2.48</v>
+      </c>
+      <c r="AH52">
+        <v>1.19</v>
+      </c>
+      <c r="AI52">
+        <v>3.9</v>
+      </c>
+      <c r="AJ52">
+        <v>1.35</v>
+      </c>
+      <c r="AK52">
+        <v>2.75</v>
+      </c>
+      <c r="AL52">
+        <v>1.63</v>
+      </c>
+      <c r="AM52">
         <v>2.1</v>
       </c>
-      <c r="U52">
-        <v>1.8</v>
-      </c>
-      <c r="V52">
-        <v>1.95</v>
-      </c>
-      <c r="W52">
-        <v>2.2</v>
-      </c>
-      <c r="X52">
-        <v>1.18</v>
-      </c>
-      <c r="Y52">
-        <v>1.12</v>
-      </c>
-      <c r="Z52">
-        <v>1.73</v>
-      </c>
-      <c r="AA52">
-        <v>2.2</v>
-      </c>
-      <c r="AB52">
-        <v>1.96</v>
-      </c>
-      <c r="AC52">
-        <v>2.16</v>
-      </c>
-      <c r="AD52">
-        <v>4.12</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>0</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
-      <c r="AK52">
-        <v>0</v>
-      </c>
-      <c r="AL52">
-        <v>0</v>
-      </c>
-      <c r="AM52">
-        <v>0</v>
-      </c>
       <c r="AN52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -8023,13 +8023,13 @@
         <v>2.75</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="K53">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L53">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="M53">
         <v>1.25</v>
@@ -8050,10 +8050,10 @@
         <v>4.95</v>
       </c>
       <c r="S53">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="T53">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U53">
         <v>1.44</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2">
         <v>45361</v>
@@ -8136,7 +8136,7 @@
         <v>86</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
         <v>153</v>
@@ -8145,120 +8145,120 @@
         <v>236</v>
       </c>
       <c r="G54">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="H54">
         <v>2.3</v>
       </c>
       <c r="I54">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="J54">
-        <v>2</v>
+        <v>4.34</v>
       </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="M54">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="N54">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="O54">
         <v>1.03</v>
       </c>
       <c r="P54">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q54">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R54">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="S54">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
         <v>2.2</v>
       </c>
-      <c r="W54">
-        <v>1.36</v>
-      </c>
       <c r="X54">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="Y54">
-        <v>1.71</v>
+        <v>1.12</v>
       </c>
       <c r="Z54">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AA54">
-        <v>0.92</v>
+        <v>2.2</v>
       </c>
       <c r="AB54">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AC54">
-        <v>1.33</v>
+        <v>2.16</v>
       </c>
       <c r="AD54">
-        <v>3.02</v>
+        <v>4.12</v>
       </c>
       <c r="AE54">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AH54">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AK54">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AL54">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AM54">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO54">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2">
         <v>45361</v>
@@ -8267,7 +8267,7 @@
         <v>87</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
         <v>154</v>
@@ -8276,115 +8276,115 @@
         <v>237</v>
       </c>
       <c r="G55">
-        <v>3.9</v>
+        <v>1.45</v>
       </c>
       <c r="H55">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="I55">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="J55">
-        <v>3.65</v>
+        <v>1.17</v>
       </c>
       <c r="K55">
-        <v>3.72</v>
+        <v>7.85</v>
       </c>
       <c r="L55">
-        <v>1.93</v>
+        <v>12.5</v>
       </c>
       <c r="M55">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="O55">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P55">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Q55">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="R55">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="S55">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="T55">
-        <v>1.99</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="V55">
+        <v>1.85</v>
+      </c>
+      <c r="W55">
+        <v>1.04</v>
+      </c>
+      <c r="X55">
+        <v>1.11</v>
+      </c>
+      <c r="Y55">
+        <v>5.5</v>
+      </c>
+      <c r="Z55">
+        <v>2.36</v>
+      </c>
+      <c r="AA55">
+        <v>0.79</v>
+      </c>
+      <c r="AB55">
+        <v>1.9</v>
+      </c>
+      <c r="AC55">
+        <v>1.34</v>
+      </c>
+      <c r="AD55">
+        <v>3.24</v>
+      </c>
+      <c r="AE55">
+        <v>1.18</v>
+      </c>
+      <c r="AF55">
+        <v>11</v>
+      </c>
+      <c r="AG55">
+        <v>5.5</v>
+      </c>
+      <c r="AH55">
+        <v>1.32</v>
+      </c>
+      <c r="AI55">
+        <v>3.05</v>
+      </c>
+      <c r="AJ55">
+        <v>1.58</v>
+      </c>
+      <c r="AK55">
         <v>2.2</v>
       </c>
-      <c r="W55">
-        <v>1.83</v>
-      </c>
-      <c r="X55">
-        <v>1.22</v>
-      </c>
-      <c r="Y55">
-        <v>1.3</v>
-      </c>
-      <c r="Z55">
-        <v>1.8</v>
-      </c>
-      <c r="AA55">
-        <v>2.1</v>
-      </c>
-      <c r="AB55">
-        <v>1.16</v>
-      </c>
-      <c r="AC55">
-        <v>1.48</v>
-      </c>
-      <c r="AD55">
-        <v>2.64</v>
-      </c>
-      <c r="AE55">
-        <v>2.44</v>
-      </c>
-      <c r="AF55">
-        <v>8</v>
-      </c>
-      <c r="AG55">
-        <v>1.75</v>
-      </c>
-      <c r="AH55">
-        <v>1.21</v>
-      </c>
-      <c r="AI55">
-        <v>3.8</v>
-      </c>
-      <c r="AJ55">
-        <v>1.4</v>
-      </c>
-      <c r="AK55">
-        <v>2.65</v>
-      </c>
       <c r="AL55">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AM55">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="AN55">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="AO55">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="AP55">
-        <v>2.85</v>
+        <v>3.55</v>
       </c>
       <c r="AQ55">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -8407,34 +8407,34 @@
         <v>238</v>
       </c>
       <c r="G56">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H56">
         <v>2.23</v>
       </c>
       <c r="I56">
-        <v>3.07</v>
+        <v>4.4</v>
       </c>
       <c r="J56">
-        <v>3.77</v>
+        <v>2.04</v>
       </c>
       <c r="K56">
-        <v>3.82</v>
+        <v>3.4</v>
       </c>
       <c r="L56">
-        <v>1.88</v>
+        <v>3.69</v>
       </c>
       <c r="M56">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="N56">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="O56">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P56">
-        <v>6.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q56">
         <v>1.28</v>
@@ -8443,79 +8443,79 @@
         <v>3.18</v>
       </c>
       <c r="S56">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U56">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="X56">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="Y56">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="Z56">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA56">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AB56">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AC56">
+        <v>1.22</v>
+      </c>
+      <c r="AD56">
+        <v>2.53</v>
+      </c>
+      <c r="AE56">
         <v>1.75</v>
-      </c>
-      <c r="AD56">
-        <v>3.04</v>
-      </c>
-      <c r="AE56">
-        <v>2.33</v>
       </c>
       <c r="AF56">
         <v>8</v>
       </c>
       <c r="AG56">
-        <v>1.82</v>
+        <v>2.42</v>
       </c>
       <c r="AH56">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI56">
-        <v>3.56</v>
+        <v>3.9</v>
       </c>
       <c r="AJ56">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AK56">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AL56">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AM56">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AN56">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="AO56">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AP56">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8669,120 +8669,120 @@
         <v>240</v>
       </c>
       <c r="G58">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H58">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="I58">
-        <v>2.46</v>
+        <v>3.07</v>
       </c>
       <c r="J58">
-        <v>4.08</v>
+        <v>3.56</v>
       </c>
       <c r="K58">
-        <v>3.78</v>
+        <v>2.8</v>
       </c>
       <c r="L58">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="M58">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="N58">
-        <v>2.86</v>
+        <v>3.01</v>
       </c>
       <c r="O58">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P58">
-        <v>9</v>
+        <v>6.85</v>
       </c>
       <c r="Q58">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R58">
-        <v>3.28</v>
+        <v>3.18</v>
       </c>
       <c r="S58">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="T58">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="U58">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="V58">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W58">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="X58">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="Y58">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA58">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="AB58">
-        <v>0.98</v>
+        <v>1.29</v>
       </c>
       <c r="AC58">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="AD58">
-        <v>1.99</v>
+        <v>3.04</v>
       </c>
       <c r="AE58">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="AF58">
         <v>8</v>
       </c>
       <c r="AG58">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="AH58">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AI58">
-        <v>3.1</v>
+        <v>3.56</v>
       </c>
       <c r="AJ58">
+        <v>1.48</v>
+      </c>
+      <c r="AK58">
+        <v>2.53</v>
+      </c>
+      <c r="AL58">
+        <v>1.88</v>
+      </c>
+      <c r="AM58">
+        <v>1.92</v>
+      </c>
+      <c r="AN58">
+        <v>2.24</v>
+      </c>
+      <c r="AO58">
         <v>1.61</v>
       </c>
-      <c r="AK58">
-        <v>2.27</v>
-      </c>
-      <c r="AL58">
-        <v>1.9</v>
-      </c>
-      <c r="AM58">
-        <v>1.9</v>
-      </c>
-      <c r="AN58">
-        <v>2.54</v>
-      </c>
-      <c r="AO58">
-        <v>1.49</v>
-      </c>
       <c r="AP58">
-        <v>3.45</v>
+        <v>3.04</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2">
         <v>45361</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="D59">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>158</v>
@@ -8800,115 +8800,115 @@
         <v>241</v>
       </c>
       <c r="G59">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="H59">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="I59">
-        <v>9.5</v>
+        <v>2.46</v>
       </c>
       <c r="J59">
-        <v>1.15</v>
+        <v>4.08</v>
       </c>
       <c r="K59">
-        <v>7</v>
+        <v>3.78</v>
       </c>
       <c r="L59">
-        <v>12</v>
+        <v>1.82</v>
       </c>
       <c r="M59">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="N59">
-        <v>4.33</v>
+        <v>2.86</v>
       </c>
       <c r="O59">
+        <v>1.02</v>
+      </c>
+      <c r="P59">
+        <v>9</v>
+      </c>
+      <c r="Q59">
+        <v>1.27</v>
+      </c>
+      <c r="R59">
+        <v>3.28</v>
+      </c>
+      <c r="S59">
+        <v>1.74</v>
+      </c>
+      <c r="T59">
+        <v>1.97</v>
+      </c>
+      <c r="U59">
+        <v>1.81</v>
+      </c>
+      <c r="V59">
+        <v>1.93</v>
+      </c>
+      <c r="W59">
+        <v>1.91</v>
+      </c>
+      <c r="X59">
+        <v>1.28</v>
+      </c>
+      <c r="Y59">
+        <v>1.25</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0.7</v>
+      </c>
+      <c r="AB59">
+        <v>0.98</v>
+      </c>
+      <c r="AC59">
         <v>1.01</v>
       </c>
-      <c r="P59">
-        <v>29</v>
-      </c>
-      <c r="Q59">
-        <v>1.07</v>
-      </c>
-      <c r="R59">
-        <v>7</v>
-      </c>
-      <c r="S59">
-        <v>1.33</v>
-      </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.83</v>
-      </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
-      <c r="W59">
-        <v>1.04</v>
-      </c>
-      <c r="X59">
-        <v>1.11</v>
-      </c>
-      <c r="Y59">
-        <v>5.5</v>
-      </c>
-      <c r="Z59">
-        <v>2.36</v>
-      </c>
-      <c r="AA59">
-        <v>0.79</v>
-      </c>
-      <c r="AB59">
+      <c r="AD59">
+        <v>1.99</v>
+      </c>
+      <c r="AE59">
+        <v>2.8</v>
+      </c>
+      <c r="AF59">
+        <v>8</v>
+      </c>
+      <c r="AG59">
+        <v>1.59</v>
+      </c>
+      <c r="AH59">
+        <v>1.3</v>
+      </c>
+      <c r="AI59">
+        <v>3.1</v>
+      </c>
+      <c r="AJ59">
+        <v>1.61</v>
+      </c>
+      <c r="AK59">
+        <v>2.27</v>
+      </c>
+      <c r="AL59">
         <v>1.9</v>
       </c>
-      <c r="AC59">
-        <v>1.34</v>
-      </c>
-      <c r="AD59">
-        <v>3.24</v>
-      </c>
-      <c r="AE59">
-        <v>1.18</v>
-      </c>
-      <c r="AF59">
-        <v>11</v>
-      </c>
-      <c r="AG59">
-        <v>5.5</v>
-      </c>
-      <c r="AH59">
-        <v>1.32</v>
-      </c>
-      <c r="AI59">
-        <v>3.05</v>
-      </c>
-      <c r="AJ59">
-        <v>1.58</v>
-      </c>
-      <c r="AK59">
-        <v>2.2</v>
-      </c>
-      <c r="AL59">
-        <v>1.98</v>
-      </c>
       <c r="AM59">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AN59">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="AO59">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AP59">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AQ59">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -8931,120 +8931,120 @@
         <v>242</v>
       </c>
       <c r="G60">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H60">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="I60">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="J60">
-        <v>2.04</v>
+        <v>3.71</v>
       </c>
       <c r="K60">
-        <v>3.48</v>
+        <v>3.6</v>
       </c>
       <c r="L60">
-        <v>3.53</v>
+        <v>1.97</v>
       </c>
       <c r="M60">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="N60">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
         <v>1.02</v>
       </c>
       <c r="P60">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Q60">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="S60">
         <v>1.75</v>
       </c>
       <c r="T60">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="U60">
+        <v>1.65</v>
+      </c>
+      <c r="V60">
+        <v>2.2</v>
+      </c>
+      <c r="W60">
+        <v>1.83</v>
+      </c>
+      <c r="X60">
+        <v>1.22</v>
+      </c>
+      <c r="Y60">
+        <v>1.3</v>
+      </c>
+      <c r="Z60">
         <v>1.8</v>
       </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
-      <c r="W60">
-        <v>1.3</v>
-      </c>
-      <c r="X60">
-        <v>1.3</v>
-      </c>
-      <c r="Y60">
-        <v>1.78</v>
-      </c>
-      <c r="Z60">
-        <v>1.6</v>
-      </c>
       <c r="AA60">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="AB60">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AC60">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="AD60">
-        <v>2.53</v>
+        <v>2.64</v>
       </c>
       <c r="AE60">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="AF60">
         <v>8</v>
       </c>
       <c r="AG60">
-        <v>2.42</v>
+        <v>1.75</v>
       </c>
       <c r="AH60">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AI60">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AJ60">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AK60">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AL60">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AM60">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AN60">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AO60">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AP60">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AQ60">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B61" s="2">
         <v>45361</v>
@@ -9071,13 +9071,13 @@
         <v>4</v>
       </c>
       <c r="J61">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="K61">
-        <v>3.4</v>
+        <v>3.43</v>
       </c>
       <c r="L61">
-        <v>3.7</v>
+        <v>3.58</v>
       </c>
       <c r="M61">
         <v>1.4</v>
@@ -9098,10 +9098,10 @@
         <v>3.2</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T61">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U61">
         <v>1.8</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2">
         <v>45361</v>
@@ -9184,7 +9184,7 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
         <v>161</v>
@@ -9193,64 +9193,64 @@
         <v>244</v>
       </c>
       <c r="G62">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="H62">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="I62">
-        <v>4.55</v>
+        <v>2.6</v>
       </c>
       <c r="J62">
+        <v>3.47</v>
+      </c>
+      <c r="K62">
+        <v>3.22</v>
+      </c>
+      <c r="L62">
         <v>2.17</v>
       </c>
-      <c r="K62">
-        <v>3.02</v>
-      </c>
-      <c r="L62">
-        <v>3.15</v>
-      </c>
       <c r="M62">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="N62">
-        <v>2.54</v>
+        <v>2.8</v>
       </c>
       <c r="O62">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P62">
-        <v>7.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q62">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="R62">
-        <v>2.84</v>
+        <v>3.5</v>
       </c>
       <c r="S62">
-        <v>2.15</v>
+        <v>1.69</v>
       </c>
       <c r="T62">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V62">
+        <v>2</v>
+      </c>
+      <c r="W62">
         <v>1.8</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>1.25</v>
       </c>
-      <c r="X62">
-        <v>1.32</v>
-      </c>
       <c r="Y62">
-        <v>1.76</v>
+        <v>1.28</v>
       </c>
       <c r="Z62">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AA62">
         <v>1.45</v>
@@ -9259,54 +9259,54 @@
         <v>1.73</v>
       </c>
       <c r="AC62">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="AD62">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="AE62">
-        <v>1.6</v>
+        <v>2.39</v>
       </c>
       <c r="AF62">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="AG62">
-        <v>2.72</v>
+        <v>1.82</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ62">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="AK62">
-        <v>2.31</v>
+        <v>2.6</v>
       </c>
       <c r="AL62">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="AM62">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="AN62">
-        <v>2.53</v>
+        <v>2.16</v>
       </c>
       <c r="AO62">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AP62">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
         <v>45361</v>
@@ -9315,7 +9315,7 @@
         <v>89</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
         <v>162</v>
@@ -9324,22 +9324,22 @@
         <v>245</v>
       </c>
       <c r="G63">
-        <v>2.63</v>
+        <v>1.62</v>
       </c>
       <c r="H63">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="I63">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="J63">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="K63">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M63">
         <v>1.3</v>
@@ -9348,96 +9348,96 @@
         <v>3.4</v>
       </c>
       <c r="O63">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P63">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q63">
         <v>1.17</v>
       </c>
       <c r="R63">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="S63">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T63">
+        <v>2.3</v>
+      </c>
+      <c r="U63">
         <v>2.1</v>
       </c>
-      <c r="U63">
-        <v>1.53</v>
-      </c>
       <c r="V63">
-        <v>2.38</v>
+        <v>1.68</v>
       </c>
       <c r="W63">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="X63">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="Y63">
-        <v>1.78</v>
+        <v>3.6</v>
       </c>
       <c r="Z63">
-        <v>1.82</v>
+        <v>2.23</v>
       </c>
       <c r="AA63">
-        <v>1.67</v>
+        <v>0.92</v>
       </c>
       <c r="AB63">
+        <v>1.9</v>
+      </c>
+      <c r="AC63">
+        <v>1.24</v>
+      </c>
+      <c r="AD63">
+        <v>3.14</v>
+      </c>
+      <c r="AE63">
+        <v>1.23</v>
+      </c>
+      <c r="AF63">
+        <v>10</v>
+      </c>
+      <c r="AG63">
+        <v>5.15</v>
+      </c>
+      <c r="AH63">
+        <v>1.38</v>
+      </c>
+      <c r="AI63">
+        <v>2.71</v>
+      </c>
+      <c r="AJ63">
+        <v>1.7</v>
+      </c>
+      <c r="AK63">
+        <v>2.03</v>
+      </c>
+      <c r="AL63">
+        <v>2.15</v>
+      </c>
+      <c r="AM63">
+        <v>1.59</v>
+      </c>
+      <c r="AN63">
+        <v>2.91</v>
+      </c>
+      <c r="AO63">
         <v>1.33</v>
       </c>
-      <c r="AC63">
-        <v>1.41</v>
-      </c>
-      <c r="AD63">
-        <v>2.74</v>
-      </c>
-      <c r="AE63">
-        <v>1.72</v>
-      </c>
-      <c r="AF63">
-        <v>9.1</v>
-      </c>
-      <c r="AG63">
-        <v>2.52</v>
-      </c>
-      <c r="AH63">
-        <v>1.25</v>
-      </c>
-      <c r="AI63">
-        <v>3.42</v>
-      </c>
-      <c r="AJ63">
-        <v>1.55</v>
-      </c>
-      <c r="AK63">
-        <v>2.43</v>
-      </c>
-      <c r="AL63">
-        <v>1.89</v>
-      </c>
-      <c r="AM63">
-        <v>1.91</v>
-      </c>
-      <c r="AN63">
-        <v>2.38</v>
-      </c>
-      <c r="AO63">
-        <v>1.57</v>
-      </c>
       <c r="AP63">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AQ63">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="64" spans="1:43">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
         <v>45361</v>
@@ -9446,7 +9446,7 @@
         <v>89</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>163</v>
@@ -9455,120 +9455,120 @@
         <v>246</v>
       </c>
       <c r="G64">
-        <v>1.62</v>
+        <v>2.62</v>
       </c>
       <c r="H64">
-        <v>2.65</v>
+        <v>1.99</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>4.55</v>
       </c>
       <c r="J64">
-        <v>1.22</v>
+        <v>1.97</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>2.99</v>
       </c>
       <c r="L64">
-        <v>11</v>
+        <v>3.35</v>
       </c>
       <c r="M64">
+        <v>1.48</v>
+      </c>
+      <c r="N64">
+        <v>2.54</v>
+      </c>
+      <c r="O64">
+        <v>1.04</v>
+      </c>
+      <c r="P64">
+        <v>7.4</v>
+      </c>
+      <c r="Q64">
+        <v>1.35</v>
+      </c>
+      <c r="R64">
+        <v>2.84</v>
+      </c>
+      <c r="S64">
+        <v>2.15</v>
+      </c>
+      <c r="T64">
+        <v>1.65</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>1.8</v>
+      </c>
+      <c r="W64">
+        <v>1.25</v>
+      </c>
+      <c r="X64">
+        <v>1.32</v>
+      </c>
+      <c r="Y64">
+        <v>1.76</v>
+      </c>
+      <c r="Z64">
+        <v>1.73</v>
+      </c>
+      <c r="AA64">
+        <v>1.45</v>
+      </c>
+      <c r="AB64">
+        <v>1.73</v>
+      </c>
+      <c r="AC64">
+        <v>1.19</v>
+      </c>
+      <c r="AD64">
+        <v>2.92</v>
+      </c>
+      <c r="AE64">
+        <v>1.6</v>
+      </c>
+      <c r="AF64">
+        <v>8.9</v>
+      </c>
+      <c r="AG64">
+        <v>2.72</v>
+      </c>
+      <c r="AH64">
+        <v>1.33</v>
+      </c>
+      <c r="AI64">
+        <v>3.2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.59</v>
+      </c>
+      <c r="AK64">
+        <v>2.31</v>
+      </c>
+      <c r="AL64">
+        <v>1.98</v>
+      </c>
+      <c r="AM64">
+        <v>1.82</v>
+      </c>
+      <c r="AN64">
+        <v>2.53</v>
+      </c>
+      <c r="AO64">
+        <v>1.49</v>
+      </c>
+      <c r="AP64">
+        <v>3.3</v>
+      </c>
+      <c r="AQ64">
         <v>1.3</v>
-      </c>
-      <c r="N64">
-        <v>3.4</v>
-      </c>
-      <c r="O64">
-        <v>1.02</v>
-      </c>
-      <c r="P64">
-        <v>12</v>
-      </c>
-      <c r="Q64">
-        <v>1.17</v>
-      </c>
-      <c r="R64">
-        <v>4.75</v>
-      </c>
-      <c r="S64">
-        <v>1.57</v>
-      </c>
-      <c r="T64">
-        <v>2.3</v>
-      </c>
-      <c r="U64">
-        <v>2.1</v>
-      </c>
-      <c r="V64">
-        <v>1.68</v>
-      </c>
-      <c r="W64">
-        <v>1.02</v>
-      </c>
-      <c r="X64">
-        <v>1.08</v>
-      </c>
-      <c r="Y64">
-        <v>3.6</v>
-      </c>
-      <c r="Z64">
-        <v>2.23</v>
-      </c>
-      <c r="AA64">
-        <v>0.92</v>
-      </c>
-      <c r="AB64">
-        <v>1.9</v>
-      </c>
-      <c r="AC64">
-        <v>1.24</v>
-      </c>
-      <c r="AD64">
-        <v>3.14</v>
-      </c>
-      <c r="AE64">
-        <v>1.23</v>
-      </c>
-      <c r="AF64">
-        <v>10</v>
-      </c>
-      <c r="AG64">
-        <v>5.15</v>
-      </c>
-      <c r="AH64">
-        <v>1.38</v>
-      </c>
-      <c r="AI64">
-        <v>2.71</v>
-      </c>
-      <c r="AJ64">
-        <v>1.7</v>
-      </c>
-      <c r="AK64">
-        <v>2.03</v>
-      </c>
-      <c r="AL64">
-        <v>2.15</v>
-      </c>
-      <c r="AM64">
-        <v>1.59</v>
-      </c>
-      <c r="AN64">
-        <v>2.91</v>
-      </c>
-      <c r="AO64">
-        <v>1.33</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64">
-        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:43">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>45361</v>
@@ -9577,7 +9577,7 @@
         <v>89</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
         <v>164</v>
@@ -9586,120 +9586,120 @@
         <v>247</v>
       </c>
       <c r="G65">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="H65">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="I65">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="J65">
-        <v>3.47</v>
+        <v>1.76</v>
       </c>
       <c r="K65">
-        <v>3.22</v>
+        <v>3.97</v>
       </c>
       <c r="L65">
-        <v>2.17</v>
+        <v>3.88</v>
       </c>
       <c r="M65">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="N65">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O65">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P65">
-        <v>9.300000000000001</v>
+        <v>18</v>
       </c>
       <c r="Q65">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="R65">
-        <v>3.5</v>
+        <v>4.45</v>
       </c>
       <c r="S65">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="T65">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="U65">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W65">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="X65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y65">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="Z65">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AA65">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AB65">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="AC65">
         <v>1.41</v>
       </c>
       <c r="AD65">
-        <v>3.14</v>
+        <v>2.74</v>
       </c>
       <c r="AE65">
-        <v>2.39</v>
+        <v>1.72</v>
       </c>
       <c r="AF65">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="AG65">
-        <v>1.82</v>
+        <v>2.52</v>
       </c>
       <c r="AH65">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI65">
-        <v>3.7</v>
+        <v>3.42</v>
       </c>
       <c r="AJ65">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AK65">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AL65">
-        <v>1.7</v>
+        <v>1.89</v>
       </c>
       <c r="AM65">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="AN65">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="AO65">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AP65">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AQ65">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="66" spans="1:43">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B66" s="2">
         <v>45361</v>
@@ -9708,7 +9708,7 @@
         <v>90</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
         <v>165</v>
@@ -9717,120 +9717,120 @@
         <v>248</v>
       </c>
       <c r="G66">
-        <v>3.56</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <v>2.2</v>
       </c>
       <c r="I66">
-        <v>3.13</v>
+        <v>2.63</v>
       </c>
       <c r="J66">
-        <v>3.15</v>
+        <v>3.77</v>
       </c>
       <c r="K66">
-        <v>3.38</v>
+        <v>3.68</v>
       </c>
       <c r="L66">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="M66">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N66">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="O66">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P66">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Q66">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R66">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S66">
+        <v>1.81</v>
+      </c>
+      <c r="T66">
+        <v>1.89</v>
+      </c>
+      <c r="U66">
+        <v>1.75</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>1.77</v>
+      </c>
+      <c r="X66">
+        <v>1.3</v>
+      </c>
+      <c r="Y66">
+        <v>1.2</v>
+      </c>
+      <c r="Z66">
+        <v>1.8</v>
+      </c>
+      <c r="AA66">
+        <v>2.1</v>
+      </c>
+      <c r="AB66">
+        <v>1.5</v>
+      </c>
+      <c r="AC66">
+        <v>1.35</v>
+      </c>
+      <c r="AD66">
+        <v>2.85</v>
+      </c>
+      <c r="AE66">
+        <v>2.2</v>
+      </c>
+      <c r="AF66">
+        <v>7.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.91</v>
+      </c>
+      <c r="AH66">
+        <v>1.36</v>
+      </c>
+      <c r="AI66">
+        <v>2.85</v>
+      </c>
+      <c r="AJ66">
         <v>1.64</v>
       </c>
-      <c r="T66">
-        <v>2.13</v>
-      </c>
-      <c r="U66">
-        <v>1.8</v>
-      </c>
-      <c r="V66">
-        <v>1.95</v>
-      </c>
-      <c r="W66">
-        <v>1.53</v>
-      </c>
-      <c r="X66">
-        <v>1.25</v>
-      </c>
-      <c r="Y66">
-        <v>1.42</v>
-      </c>
-      <c r="Z66">
-        <v>2.09</v>
-      </c>
-      <c r="AA66">
-        <v>2.36</v>
-      </c>
-      <c r="AB66">
-        <v>1.9</v>
-      </c>
-      <c r="AC66">
-        <v>1.64</v>
-      </c>
-      <c r="AD66">
-        <v>3.54</v>
-      </c>
-      <c r="AE66">
-        <v>2</v>
-      </c>
-      <c r="AF66">
-        <v>8</v>
-      </c>
-      <c r="AG66">
-        <v>2</v>
-      </c>
-      <c r="AH66">
-        <v>0</v>
-      </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-      <c r="AJ66">
-        <v>1.24</v>
-      </c>
       <c r="AK66">
-        <v>3.48</v>
+        <v>2.1</v>
       </c>
       <c r="AL66">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="AM66">
-        <v>2.51</v>
+        <v>1.65</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="AO66">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AP66">
-        <v>2.19</v>
+        <v>3.85</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2">
         <v>45361</v>
@@ -9839,7 +9839,7 @@
         <v>90</v>
       </c>
       <c r="D67">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
         <v>166</v>
@@ -9848,115 +9848,115 @@
         <v>249</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>3.56</v>
       </c>
       <c r="H67">
         <v>2.2</v>
       </c>
       <c r="I67">
-        <v>2.63</v>
+        <v>3.13</v>
       </c>
       <c r="J67">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="K67">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="L67">
+        <v>2.28</v>
+      </c>
+      <c r="M67">
+        <v>1.42</v>
+      </c>
+      <c r="N67">
+        <v>2.87</v>
+      </c>
+      <c r="O67">
+        <v>1.05</v>
+      </c>
+      <c r="P67">
+        <v>7.8</v>
+      </c>
+      <c r="Q67">
+        <v>1.33</v>
+      </c>
+      <c r="R67">
+        <v>3.1</v>
+      </c>
+      <c r="S67">
+        <v>1.61</v>
+      </c>
+      <c r="T67">
+        <v>2.09</v>
+      </c>
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
         <v>1.95</v>
       </c>
-      <c r="M67">
-        <v>1.4</v>
-      </c>
-      <c r="N67">
-        <v>2.75</v>
-      </c>
-      <c r="O67">
-        <v>1.06</v>
-      </c>
-      <c r="P67">
+      <c r="W67">
+        <v>1.53</v>
+      </c>
+      <c r="X67">
+        <v>1.25</v>
+      </c>
+      <c r="Y67">
+        <v>1.42</v>
+      </c>
+      <c r="Z67">
+        <v>2.09</v>
+      </c>
+      <c r="AA67">
+        <v>2.36</v>
+      </c>
+      <c r="AB67">
+        <v>1.9</v>
+      </c>
+      <c r="AC67">
+        <v>1.64</v>
+      </c>
+      <c r="AD67">
+        <v>3.54</v>
+      </c>
+      <c r="AE67">
+        <v>2</v>
+      </c>
+      <c r="AF67">
         <v>8</v>
       </c>
-      <c r="Q67">
-        <v>1.3</v>
-      </c>
-      <c r="R67">
-        <v>3.4</v>
-      </c>
-      <c r="S67">
-        <v>1.85</v>
-      </c>
-      <c r="T67">
-        <v>1.85</v>
-      </c>
-      <c r="U67">
-        <v>1.75</v>
-      </c>
-      <c r="V67">
+      <c r="AG67">
         <v>2</v>
       </c>
-      <c r="W67">
-        <v>1.77</v>
-      </c>
-      <c r="X67">
-        <v>1.3</v>
-      </c>
-      <c r="Y67">
-        <v>1.2</v>
-      </c>
-      <c r="Z67">
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>1.24</v>
+      </c>
+      <c r="AK67">
+        <v>3.48</v>
+      </c>
+      <c r="AL67">
+        <v>1.44</v>
+      </c>
+      <c r="AM67">
+        <v>2.51</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
+      <c r="AO67">
         <v>1.8</v>
       </c>
-      <c r="AA67">
-        <v>2.1</v>
-      </c>
-      <c r="AB67">
-        <v>1.5</v>
-      </c>
-      <c r="AC67">
-        <v>1.35</v>
-      </c>
-      <c r="AD67">
-        <v>2.85</v>
-      </c>
-      <c r="AE67">
-        <v>2.2</v>
-      </c>
-      <c r="AF67">
-        <v>7.5</v>
-      </c>
-      <c r="AG67">
-        <v>1.91</v>
-      </c>
-      <c r="AH67">
-        <v>1.36</v>
-      </c>
-      <c r="AI67">
-        <v>2.85</v>
-      </c>
-      <c r="AJ67">
-        <v>1.64</v>
-      </c>
-      <c r="AK67">
-        <v>2.1</v>
-      </c>
-      <c r="AL67">
-        <v>2.08</v>
-      </c>
-      <c r="AM67">
-        <v>1.65</v>
-      </c>
-      <c r="AN67">
-        <v>2.75</v>
-      </c>
-      <c r="AO67">
-        <v>1.38</v>
-      </c>
       <c r="AP67">
-        <v>3.85</v>
+        <v>2.19</v>
       </c>
       <c r="AQ67">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="68" spans="1:43">
@@ -9988,13 +9988,13 @@
         <v>4</v>
       </c>
       <c r="J68">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="K68">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="M68">
         <v>1.44</v>
@@ -10015,10 +10015,10 @@
         <v>3.3</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T68">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U68">
         <v>1.91</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2">
         <v>45361</v>
@@ -10101,7 +10101,7 @@
         <v>91</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
         <v>168</v>
@@ -10110,120 +10110,120 @@
         <v>251</v>
       </c>
       <c r="G69">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H69">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J69">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="K69">
-        <v>5.5</v>
+        <v>4.22</v>
       </c>
       <c r="L69">
-        <v>11</v>
+        <v>5.05</v>
       </c>
       <c r="M69">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="N69">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O69">
         <v>1.02</v>
       </c>
       <c r="P69">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q69">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="R69">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="S69">
+        <v>1.63</v>
+      </c>
+      <c r="T69">
+        <v>2.14</v>
+      </c>
+      <c r="U69">
+        <v>1.7</v>
+      </c>
+      <c r="V69">
+        <v>2.05</v>
+      </c>
+      <c r="W69">
+        <v>1.17</v>
+      </c>
+      <c r="X69">
+        <v>1.18</v>
+      </c>
+      <c r="Y69">
+        <v>2.3</v>
+      </c>
+      <c r="Z69">
+        <v>2.5</v>
+      </c>
+      <c r="AA69">
+        <v>1.36</v>
+      </c>
+      <c r="AB69">
+        <v>1.9</v>
+      </c>
+      <c r="AC69">
         <v>1.5</v>
       </c>
-      <c r="T69">
-        <v>2.55</v>
-      </c>
-      <c r="U69">
+      <c r="AD69">
+        <v>3.4</v>
+      </c>
+      <c r="AE69">
+        <v>1.48</v>
+      </c>
+      <c r="AF69">
+        <v>7.5</v>
+      </c>
+      <c r="AG69">
+        <v>3.25</v>
+      </c>
+      <c r="AH69">
+        <v>1.28</v>
+      </c>
+      <c r="AI69">
+        <v>3.5</v>
+      </c>
+      <c r="AJ69">
+        <v>1.48</v>
+      </c>
+      <c r="AK69">
+        <v>2.5</v>
+      </c>
+      <c r="AL69">
+        <v>1.8</v>
+      </c>
+      <c r="AM69">
         <v>1.95</v>
       </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
-      <c r="W69">
-        <v>1.04</v>
-      </c>
-      <c r="X69">
-        <v>1.11</v>
-      </c>
-      <c r="Y69">
-        <v>3.3</v>
-      </c>
-      <c r="Z69">
-        <v>2.69</v>
-      </c>
-      <c r="AA69">
-        <v>0.85</v>
-      </c>
-      <c r="AB69">
-        <v>2</v>
-      </c>
-      <c r="AC69">
-        <v>1.16</v>
-      </c>
-      <c r="AD69">
-        <v>3.16</v>
-      </c>
-      <c r="AE69">
-        <v>1.17</v>
-      </c>
-      <c r="AF69">
-        <v>11</v>
-      </c>
-      <c r="AG69">
-        <v>6</v>
-      </c>
-      <c r="AH69">
-        <v>1.21</v>
-      </c>
-      <c r="AI69">
-        <v>3.74</v>
-      </c>
-      <c r="AJ69">
-        <v>1.42</v>
-      </c>
-      <c r="AK69">
-        <v>2.69</v>
-      </c>
-      <c r="AL69">
-        <v>1.73</v>
-      </c>
-      <c r="AM69">
-        <v>2.05</v>
-      </c>
       <c r="AN69">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="AO69">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AP69">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AQ69">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="70" spans="1:43">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2">
         <v>45361</v>
@@ -10232,7 +10232,7 @@
         <v>91</v>
       </c>
       <c r="D70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
         <v>169</v>
@@ -10241,115 +10241,115 @@
         <v>252</v>
       </c>
       <c r="G70">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="H70">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J70">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="K70">
-        <v>3.9</v>
+        <v>5.95</v>
       </c>
       <c r="L70">
-        <v>4.6</v>
+        <v>10.25</v>
       </c>
       <c r="M70">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="N70">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O70">
         <v>1.02</v>
       </c>
       <c r="P70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q70">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="R70">
-        <v>4.33</v>
+        <v>4.8</v>
       </c>
       <c r="S70">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="T70">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
       <c r="U70">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
+        <v>1.8</v>
+      </c>
+      <c r="W70">
+        <v>1.04</v>
+      </c>
+      <c r="X70">
+        <v>1.11</v>
+      </c>
+      <c r="Y70">
+        <v>3.3</v>
+      </c>
+      <c r="Z70">
+        <v>2.69</v>
+      </c>
+      <c r="AA70">
+        <v>0.85</v>
+      </c>
+      <c r="AB70">
+        <v>2</v>
+      </c>
+      <c r="AC70">
+        <v>1.16</v>
+      </c>
+      <c r="AD70">
+        <v>3.16</v>
+      </c>
+      <c r="AE70">
+        <v>1.17</v>
+      </c>
+      <c r="AF70">
+        <v>11</v>
+      </c>
+      <c r="AG70">
+        <v>6</v>
+      </c>
+      <c r="AH70">
+        <v>1.21</v>
+      </c>
+      <c r="AI70">
+        <v>3.74</v>
+      </c>
+      <c r="AJ70">
+        <v>1.42</v>
+      </c>
+      <c r="AK70">
+        <v>2.69</v>
+      </c>
+      <c r="AL70">
+        <v>1.73</v>
+      </c>
+      <c r="AM70">
         <v>2.05</v>
       </c>
-      <c r="W70">
-        <v>1.17</v>
-      </c>
-      <c r="X70">
-        <v>1.18</v>
-      </c>
-      <c r="Y70">
-        <v>2.3</v>
-      </c>
-      <c r="Z70">
-        <v>2.5</v>
-      </c>
-      <c r="AA70">
-        <v>1.36</v>
-      </c>
-      <c r="AB70">
-        <v>1.9</v>
-      </c>
-      <c r="AC70">
-        <v>1.5</v>
-      </c>
-      <c r="AD70">
-        <v>3.4</v>
-      </c>
-      <c r="AE70">
-        <v>1.48</v>
-      </c>
-      <c r="AF70">
-        <v>7.5</v>
-      </c>
-      <c r="AG70">
-        <v>3.25</v>
-      </c>
-      <c r="AH70">
-        <v>1.28</v>
-      </c>
-      <c r="AI70">
-        <v>3.5</v>
-      </c>
-      <c r="AJ70">
-        <v>1.48</v>
-      </c>
-      <c r="AK70">
-        <v>2.5</v>
-      </c>
-      <c r="AL70">
-        <v>1.8</v>
-      </c>
-      <c r="AM70">
-        <v>1.95</v>
-      </c>
       <c r="AN70">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="AO70">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AP70">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="71" spans="1:43">
@@ -10381,13 +10381,13 @@
         <v>5.5</v>
       </c>
       <c r="J71">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="L71">
-        <v>4.4</v>
+        <v>4.82</v>
       </c>
       <c r="M71">
         <v>1.5</v>
@@ -10408,10 +10408,10 @@
         <v>3.05</v>
       </c>
       <c r="S71">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T71">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U71">
         <v>2.1</v>
@@ -10512,13 +10512,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="K72">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L72">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -10539,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -10616,7 +10616,7 @@
     </row>
     <row r="73" spans="1:43">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B73" s="2">
         <v>45361</v>
@@ -10643,13 +10643,13 @@
         <v>2.75</v>
       </c>
       <c r="J73">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K73">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="L73">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -10670,10 +10670,10 @@
         <v>3.3</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T73">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U73">
         <v>1.8</v>
@@ -10774,13 +10774,13 @@
         <v>5</v>
       </c>
       <c r="J74">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="K74">
-        <v>3.07</v>
+        <v>3.15</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.67</v>
       </c>
       <c r="M74">
         <v>1.5</v>
@@ -10801,10 +10801,10 @@
         <v>2.8</v>
       </c>
       <c r="S74">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="T74">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U74">
         <v>2</v>
@@ -10905,13 +10905,13 @@
         <v>7.5</v>
       </c>
       <c r="J75">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K75">
-        <v>5.25</v>
+        <v>5.7</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>8.65</v>
       </c>
       <c r="M75">
         <v>1.25</v>
@@ -10932,10 +10932,10 @@
         <v>5.2</v>
       </c>
       <c r="S75">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="T75">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="U75">
         <v>1.91</v>
@@ -11263,10 +11263,10 @@
         <v>1.28</v>
       </c>
       <c r="AP77">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AQ77">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="78" spans="1:43">
@@ -11298,13 +11298,13 @@
         <v>15</v>
       </c>
       <c r="J78">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L78">
-        <v>19</v>
+        <v>22.5</v>
       </c>
       <c r="M78">
         <v>1.14</v>
@@ -11325,10 +11325,10 @@
         <v>8</v>
       </c>
       <c r="S78">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T78">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="U78">
         <v>2.1</v>
@@ -11402,7 +11402,7 @@
     </row>
     <row r="79" spans="1:43">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B79" s="2">
         <v>45361</v>
@@ -11429,13 +11429,13 @@
         <v>2.85</v>
       </c>
       <c r="J79">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="K79">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="L79">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="M79">
         <v>1.4</v>
@@ -11456,10 +11456,10 @@
         <v>3.3</v>
       </c>
       <c r="S79">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="T79">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U79">
         <v>1.72</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" s="2">
         <v>45361</v>
@@ -11560,13 +11560,13 @@
         <v>6</v>
       </c>
       <c r="J80">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K80">
-        <v>3.9</v>
+        <v>4.08</v>
       </c>
       <c r="L80">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M80">
         <v>1.36</v>
@@ -11587,10 +11587,10 @@
         <v>3.4</v>
       </c>
       <c r="S80">
+        <v>1.84</v>
+      </c>
+      <c r="T80">
         <v>1.87</v>
-      </c>
-      <c r="T80">
-        <v>1.85</v>
       </c>
       <c r="U80">
         <v>1.95</v>
@@ -11691,13 +11691,13 @@
         <v>3.5</v>
       </c>
       <c r="J81">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="K81">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M81">
         <v>1.4</v>
@@ -11718,10 +11718,10 @@
         <v>3.4</v>
       </c>
       <c r="S81">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="T81">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
         <v>1.75</v>
@@ -11822,13 +11822,13 @@
         <v>2.7</v>
       </c>
       <c r="J82">
-        <v>3.6</v>
+        <v>4.22</v>
       </c>
       <c r="K82">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="L82">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="M82">
         <v>1.53</v>
@@ -11849,10 +11849,10 @@
         <v>2.43</v>
       </c>
       <c r="S82">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U82">
         <v>2</v>
@@ -11953,13 +11953,13 @@
         <v>4</v>
       </c>
       <c r="J83">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="K83">
         <v>3.6</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.52</v>
       </c>
       <c r="M83">
         <v>1.33</v>
@@ -11983,7 +11983,7 @@
         <v>1.67</v>
       </c>
       <c r="T83">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U83">
         <v>1.67</v>
@@ -12084,13 +12084,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K84">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="M84">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -166,21 +166,21 @@
     <t>Italy Serie A</t>
   </si>
   <si>
+    <t>England Championship</t>
+  </si>
+  <si>
+    <t>Slovenia PrvaLiga</t>
+  </si>
+  <si>
     <t>France Ligue 1</t>
   </si>
   <si>
-    <t>England Championship</t>
-  </si>
-  <si>
-    <t>Slovenia PrvaLiga</t>
+    <t>Belgium Pro League</t>
   </si>
   <si>
     <t>Germany 2. Bundesliga</t>
   </si>
   <si>
-    <t>Belgium Pro League</t>
-  </si>
-  <si>
     <t>Spain La Liga</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>Croatia Prva HNL</t>
   </si>
   <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
     <t>Czech Republic First League</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
@@ -340,30 +340,30 @@
     <t>Lecce</t>
   </si>
   <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Rogaška</t>
+  </si>
+  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Rogaška</t>
+    <t>KRC Genk</t>
+  </si>
+  <si>
+    <t>St. Pauli</t>
+  </si>
+  <si>
+    <t>Kaiserslautern</t>
+  </si>
+  <si>
+    <t>Greuther Fürth</t>
   </si>
   <si>
     <t>Bristol City</t>
   </si>
   <si>
-    <t>Greuther Fürth</t>
-  </si>
-  <si>
-    <t>St. Pauli</t>
-  </si>
-  <si>
-    <t>KRC Genk</t>
-  </si>
-  <si>
-    <t>Kaiserslautern</t>
-  </si>
-  <si>
     <t>Deportivo Alavés</t>
   </si>
   <si>
@@ -376,12 +376,12 @@
     <t>Silkeborg</t>
   </si>
   <si>
+    <t>İstanbulspor</t>
+  </si>
+  <si>
     <t>Samsunspor</t>
   </si>
   <si>
-    <t>İstanbulspor</t>
-  </si>
-  <si>
     <t>Racing Santander</t>
   </si>
   <si>
@@ -406,48 +406,48 @@
     <t>Pogoń Szczecin</t>
   </si>
   <si>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
+    <t>České Budějovice</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>Smouha SC</t>
+  </si>
+  <si>
+    <t>Slavia Praha</t>
+  </si>
+  <si>
     <t>Mura</t>
   </si>
   <si>
-    <t>Slavia Praha</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>AC Milan</t>
-  </si>
-  <si>
-    <t>Smouha SC</t>
-  </si>
-  <si>
-    <t>El Daklyeh FC</t>
-  </si>
-  <si>
-    <t>České Budějovice</t>
-  </si>
-  <si>
     <t>Bochum</t>
   </si>
   <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
     <t>Club Brugge</t>
   </si>
   <si>
-    <t>København</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
     <t>UD Las Palmas</t>
   </si>
   <si>
@@ -469,13 +469,25 @@
     <t>Young Boys</t>
   </si>
   <si>
+    <t>Botev Plovdiv</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
     <t>NEC</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Botev Plovdiv</t>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>Austria Klagenfurt</t>
+  </si>
+  <si>
+    <t>Austria Wien</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
   </si>
   <si>
     <t>Fenerbahçe</t>
@@ -484,27 +496,15 @@
     <t>Wolfsberger AC</t>
   </si>
   <si>
-    <t>Austria Wien</t>
-  </si>
-  <si>
-    <t>Austria Klagenfurt</t>
-  </si>
-  <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
-    <t>Hartberg</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
     <t>Widzew Łódź</t>
   </si>
   <si>
-    <t>Dinamo Zagreb</t>
-  </si>
-  <si>
     <t>Spartak Trnava</t>
   </si>
   <si>
@@ -535,21 +535,21 @@
     <t>AS Eupen</t>
   </si>
   <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
     <t>Olympiakos Piraeus</t>
   </si>
   <si>
-    <t>Bayer Leverkusen</t>
-  </si>
-  <si>
     <t>U Craiova 1948</t>
   </si>
   <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
     <t>PAOK</t>
   </si>
   <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
     <t>Domžale</t>
   </si>
   <si>
@@ -589,30 +589,30 @@
     <t>Hellas Verona</t>
   </si>
   <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Radomlje</t>
+  </si>
+  <si>
     <t>Reims</t>
   </si>
   <si>
-    <t>West Bromwich Albion</t>
-  </si>
-  <si>
-    <t>Radomlje</t>
+    <t>Standard Liège</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
+    <t>Osnabrück</t>
+  </si>
+  <si>
+    <t>Elversberg</t>
   </si>
   <si>
     <t>Swansea City</t>
   </si>
   <si>
-    <t>Elversberg</t>
-  </si>
-  <si>
-    <t>Hertha BSC</t>
-  </si>
-  <si>
-    <t>Standard Liège</t>
-  </si>
-  <si>
-    <t>Osnabrück</t>
-  </si>
-  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>AGF</t>
   </si>
   <si>
+    <t>Kasımpaşa</t>
+  </si>
+  <si>
     <t>Ankaragücü</t>
   </si>
   <si>
-    <t>Kasımpaşa</t>
-  </si>
-  <si>
     <t>CD Tenerife</t>
   </si>
   <si>
@@ -655,48 +655,48 @@
     <t>Zagłębie Lubin</t>
   </si>
   <si>
+    <t>Pyramids FC</t>
+  </si>
+  <si>
+    <t>Zlín</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
+    <t>Teplice</t>
+  </si>
+  <si>
     <t>Olimpija</t>
   </si>
   <si>
-    <t>Teplice</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Ceramica Cleopatra</t>
-  </si>
-  <si>
-    <t>Pyramids FC</t>
-  </si>
-  <si>
-    <t>Zlín</t>
-  </si>
-  <si>
     <t>Freiburg</t>
   </si>
   <si>
+    <t>Lyngby</t>
+  </si>
+  <si>
+    <t>AEK Athens</t>
+  </si>
+  <si>
     <t>OH Leuven</t>
   </si>
   <si>
-    <t>Lyngby</t>
-  </si>
-  <si>
-    <t>AEK Athens</t>
-  </si>
-  <si>
     <t>Athletic Club Bilbao</t>
   </si>
   <si>
@@ -718,13 +718,25 @@
     <t>Basel</t>
   </si>
   <si>
+    <t>Ludogorets</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
     <t>Heerenveen</t>
   </si>
   <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Ludogorets</t>
+    <t>Blau-Weiß Linz</t>
+  </si>
+  <si>
+    <t>Rapid Wien</t>
+  </si>
+  <si>
+    <t>Wattens</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
   </si>
   <si>
     <t>Pendikspor</t>
@@ -733,27 +745,15 @@
     <t>Rheindorf Altach</t>
   </si>
   <si>
-    <t>Wattens</t>
-  </si>
-  <si>
-    <t>Rapid Wien</t>
-  </si>
-  <si>
-    <t>Blau-Weiß Linz</t>
-  </si>
-  <si>
-    <t>Sturm Graz</t>
-  </si>
-  <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
     <t>Legia Warszawa</t>
   </si>
   <si>
-    <t>Slaven Koprivnica</t>
-  </si>
-  <si>
     <t>DAC</t>
   </si>
   <si>
@@ -784,19 +784,19 @@
     <t>Sint-Truiden</t>
   </si>
   <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
     <t>Panathinaikos</t>
   </si>
   <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
     <t>CS U Craiova</t>
   </si>
   <si>
+    <t>Heracles</t>
+  </si>
+  <si>
     <t>Aris</t>
-  </si>
-  <si>
-    <t>Heracles</t>
   </si>
   <si>
     <t>Koper</t>
@@ -1336,19 +1336,19 @@
         <v>5.5</v>
       </c>
       <c r="H2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
         <v>1.83</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="L2">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M2">
         <v>1.25</v>
@@ -1390,10 +1390,10 @@
         <v>1.06</v>
       </c>
       <c r="Z2">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AA2">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AB2">
         <v>1.24</v>
@@ -1426,7 +1426,7 @@
         <v>3.1</v>
       </c>
       <c r="AL2">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="AM2">
         <v>2.32</v>
@@ -1473,13 +1473,13 @@
         <v>3.9</v>
       </c>
       <c r="J3">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="K3">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>3.82</v>
+        <v>3.55</v>
       </c>
       <c r="M3">
         <v>1.37</v>
@@ -1500,10 +1500,10 @@
         <v>3.6</v>
       </c>
       <c r="S3">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="T3">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1521,10 +1521,10 @@
         <v>1.75</v>
       </c>
       <c r="Z3">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AA3">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AB3">
         <v>1.44</v>
@@ -1604,13 +1604,13 @@
         <v>2.63</v>
       </c>
       <c r="J4">
-        <v>3.28</v>
+        <v>3.95</v>
       </c>
       <c r="K4">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="M4">
         <v>1.48</v>
@@ -1631,10 +1631,10 @@
         <v>2.8</v>
       </c>
       <c r="S4">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="T4">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="U4">
         <v>1.95</v>
@@ -1652,10 +1652,10 @@
         <v>1.2</v>
       </c>
       <c r="Z4">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AA4">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AB4">
         <v>1.39</v>
@@ -1735,13 +1735,13 @@
         <v>3.2</v>
       </c>
       <c r="J5">
-        <v>2.56</v>
+        <v>2.75</v>
       </c>
       <c r="K5">
-        <v>2.99</v>
+        <v>3.35</v>
       </c>
       <c r="L5">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="M5">
         <v>1.4</v>
@@ -1762,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="T5">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="U5">
         <v>1.8</v>
@@ -1783,10 +1783,10 @@
         <v>1.37</v>
       </c>
       <c r="Z5">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AA5">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AB5">
         <v>1.48</v>
@@ -1866,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="K6">
-        <v>7.25</v>
+        <v>5.8</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M6">
         <v>1.29</v>
@@ -1893,10 +1893,10 @@
         <v>4.87</v>
       </c>
       <c r="S6">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="T6">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1914,10 +1914,10 @@
         <v>3.45</v>
       </c>
       <c r="Z6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB6">
         <v>1.67</v>
@@ -1997,13 +1997,13 @@
         <v>3.95</v>
       </c>
       <c r="J7">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="K7">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="M7">
         <v>1.45</v>
@@ -2024,10 +2024,10 @@
         <v>2.95</v>
       </c>
       <c r="S7">
-        <v>1.99</v>
+        <v>2.11</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="U7">
         <v>1.8</v>
@@ -2128,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="K8">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
         <v>3.6</v>
@@ -2155,10 +2155,10 @@
         <v>2.67</v>
       </c>
       <c r="S8">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="T8">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U8">
         <v>1.95</v>
@@ -2241,7 +2241,7 @@
         <v>76</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>108</v>
@@ -2250,115 +2250,115 @@
         <v>191</v>
       </c>
       <c r="G9">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
+        <v>2.05</v>
+      </c>
+      <c r="I9">
+        <v>3.25</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3.45</v>
+      </c>
+      <c r="L9">
+        <v>2.33</v>
+      </c>
+      <c r="M9">
+        <v>1.44</v>
+      </c>
+      <c r="N9">
         <v>2.63</v>
       </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>1.44</v>
-      </c>
-      <c r="K9">
-        <v>4.62</v>
-      </c>
-      <c r="L9">
-        <v>5.9</v>
-      </c>
-      <c r="M9">
-        <v>1.25</v>
-      </c>
-      <c r="N9">
-        <v>3.75</v>
-      </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="P9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q9">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="R9">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>1.47</v>
+        <v>1.87</v>
       </c>
       <c r="T9">
-        <v>2.57</v>
+        <v>1.77</v>
       </c>
       <c r="U9">
+        <v>1.83</v>
+      </c>
+      <c r="V9">
+        <v>1.83</v>
+      </c>
+      <c r="W9">
+        <v>1.52</v>
+      </c>
+      <c r="X9">
+        <v>1.3</v>
+      </c>
+      <c r="Y9">
+        <v>1.46</v>
+      </c>
+      <c r="Z9">
+        <v>1.22</v>
+      </c>
+      <c r="AA9">
+        <v>1.17</v>
+      </c>
+      <c r="AB9">
+        <v>1.32</v>
+      </c>
+      <c r="AC9">
+        <v>1.11</v>
+      </c>
+      <c r="AD9">
+        <v>2.43</v>
+      </c>
+      <c r="AE9">
+        <v>2.43</v>
+      </c>
+      <c r="AF9">
+        <v>7.85</v>
+      </c>
+      <c r="AG9">
+        <v>1.96</v>
+      </c>
+      <c r="AH9">
+        <v>1.12</v>
+      </c>
+      <c r="AI9">
+        <v>6.17</v>
+      </c>
+      <c r="AJ9">
+        <v>1.26</v>
+      </c>
+      <c r="AK9">
+        <v>3.88</v>
+      </c>
+      <c r="AL9">
+        <v>1.46</v>
+      </c>
+      <c r="AM9">
+        <v>2.72</v>
+      </c>
+      <c r="AN9">
+        <v>1.75</v>
+      </c>
+      <c r="AO9">
+        <v>2.08</v>
+      </c>
+      <c r="AP9">
+        <v>2.15</v>
+      </c>
+      <c r="AQ9">
         <v>1.7</v>
-      </c>
-      <c r="V9">
-        <v>2.05</v>
-      </c>
-      <c r="W9">
-        <v>1.05</v>
-      </c>
-      <c r="X9">
-        <v>1.17</v>
-      </c>
-      <c r="Y9">
-        <v>3.1</v>
-      </c>
-      <c r="Z9">
-        <v>2.25</v>
-      </c>
-      <c r="AA9">
-        <v>1.42</v>
-      </c>
-      <c r="AB9">
-        <v>1.76</v>
-      </c>
-      <c r="AC9">
-        <v>1.34</v>
-      </c>
-      <c r="AD9">
-        <v>3.1</v>
-      </c>
-      <c r="AE9">
-        <v>1.4</v>
-      </c>
-      <c r="AF9">
-        <v>10.2</v>
-      </c>
-      <c r="AG9">
-        <v>3.62</v>
-      </c>
-      <c r="AH9">
-        <v>1.18</v>
-      </c>
-      <c r="AI9">
-        <v>4.1</v>
-      </c>
-      <c r="AJ9">
-        <v>1.36</v>
-      </c>
-      <c r="AK9">
-        <v>2.79</v>
-      </c>
-      <c r="AL9">
-        <v>1.71</v>
-      </c>
-      <c r="AM9">
-        <v>2.11</v>
-      </c>
-      <c r="AN9">
-        <v>2.12</v>
-      </c>
-      <c r="AO9">
-        <v>1.71</v>
-      </c>
-      <c r="AP9">
-        <v>2.73</v>
-      </c>
-      <c r="AQ9">
-        <v>1.41</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -2372,7 +2372,7 @@
         <v>76</v>
       </c>
       <c r="D10">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>109</v>
@@ -2381,115 +2381,115 @@
         <v>192</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="H10">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="I10">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="J10">
+        <v>2.75</v>
+      </c>
+      <c r="K10">
+        <v>3.2</v>
+      </c>
+      <c r="L10">
+        <v>2.48</v>
+      </c>
+      <c r="M10">
+        <v>1.39</v>
+      </c>
+      <c r="N10">
+        <v>2.93</v>
+      </c>
+      <c r="O10">
+        <v>1.02</v>
+      </c>
+      <c r="P10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>1.29</v>
+      </c>
+      <c r="R10">
+        <v>3.14</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>1.79</v>
+      </c>
+      <c r="U10">
+        <v>1.73</v>
+      </c>
+      <c r="V10">
+        <v>2.06</v>
+      </c>
+      <c r="W10">
+        <v>1.48</v>
+      </c>
+      <c r="X10">
+        <v>1.28</v>
+      </c>
+      <c r="Y10">
+        <v>1.41</v>
+      </c>
+      <c r="Z10">
+        <v>0.82</v>
+      </c>
+      <c r="AA10">
+        <v>1.36</v>
+      </c>
+      <c r="AB10">
+        <v>1.58</v>
+      </c>
+      <c r="AC10">
+        <v>1.39</v>
+      </c>
+      <c r="AD10">
+        <v>2.97</v>
+      </c>
+      <c r="AE10">
+        <v>1.83</v>
+      </c>
+      <c r="AF10">
+        <v>8.5</v>
+      </c>
+      <c r="AG10">
+        <v>2.2</v>
+      </c>
+      <c r="AH10">
+        <v>1.28</v>
+      </c>
+      <c r="AI10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ10">
+        <v>1.47</v>
+      </c>
+      <c r="AK10">
+        <v>2.42</v>
+      </c>
+      <c r="AL10">
+        <v>1.82</v>
+      </c>
+      <c r="AM10">
+        <v>1.84</v>
+      </c>
+      <c r="AN10">
+        <v>2.34</v>
+      </c>
+      <c r="AO10">
+        <v>1.5</v>
+      </c>
+      <c r="AP10">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>3.52</v>
-      </c>
-      <c r="L10">
-        <v>2.26</v>
-      </c>
-      <c r="M10">
-        <v>1.44</v>
-      </c>
-      <c r="N10">
-        <v>2.63</v>
-      </c>
-      <c r="O10">
-        <v>1.06</v>
-      </c>
-      <c r="P10">
-        <v>9</v>
-      </c>
-      <c r="Q10">
-        <v>1.37</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>1.9</v>
-      </c>
-      <c r="T10">
-        <v>1.81</v>
-      </c>
-      <c r="U10">
-        <v>1.83</v>
-      </c>
-      <c r="V10">
-        <v>1.83</v>
-      </c>
-      <c r="W10">
-        <v>1.52</v>
-      </c>
-      <c r="X10">
-        <v>1.3</v>
-      </c>
-      <c r="Y10">
-        <v>1.46</v>
-      </c>
-      <c r="Z10">
-        <v>1.22</v>
-      </c>
-      <c r="AA10">
-        <v>1.17</v>
-      </c>
-      <c r="AB10">
-        <v>1.32</v>
-      </c>
-      <c r="AC10">
-        <v>1.11</v>
-      </c>
-      <c r="AD10">
-        <v>2.43</v>
-      </c>
-      <c r="AE10">
-        <v>2.43</v>
-      </c>
-      <c r="AF10">
-        <v>7.85</v>
-      </c>
-      <c r="AG10">
-        <v>1.96</v>
-      </c>
-      <c r="AH10">
-        <v>1.12</v>
-      </c>
-      <c r="AI10">
-        <v>6.17</v>
-      </c>
-      <c r="AJ10">
-        <v>1.26</v>
-      </c>
-      <c r="AK10">
-        <v>3.88</v>
-      </c>
-      <c r="AL10">
-        <v>1.46</v>
-      </c>
-      <c r="AM10">
-        <v>2.72</v>
-      </c>
-      <c r="AN10">
-        <v>1.75</v>
-      </c>
-      <c r="AO10">
-        <v>2.08</v>
-      </c>
-      <c r="AP10">
-        <v>2.15</v>
-      </c>
       <c r="AQ10">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2512,120 +2512,120 @@
         <v>193</v>
       </c>
       <c r="G11">
-        <v>3.39</v>
+        <v>1.91</v>
       </c>
       <c r="H11">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="I11">
-        <v>3.18</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>2.59</v>
+        <v>1.42</v>
       </c>
       <c r="K11">
-        <v>3.01</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>2.36</v>
+        <v>6.8</v>
       </c>
       <c r="M11">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="N11">
-        <v>2.93</v>
+        <v>3.75</v>
       </c>
       <c r="O11">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P11">
-        <v>8.699999999999999</v>
+        <v>20</v>
       </c>
       <c r="Q11">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="R11">
-        <v>3.14</v>
+        <v>5.2</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="U11">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V11">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="W11">
-        <v>1.48</v>
+        <v>1.05</v>
       </c>
       <c r="X11">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="Y11">
+        <v>3.1</v>
+      </c>
+      <c r="Z11">
+        <v>2.25</v>
+      </c>
+      <c r="AA11">
+        <v>1.42</v>
+      </c>
+      <c r="AB11">
+        <v>1.76</v>
+      </c>
+      <c r="AC11">
+        <v>1.34</v>
+      </c>
+      <c r="AD11">
+        <v>3.1</v>
+      </c>
+      <c r="AE11">
+        <v>1.4</v>
+      </c>
+      <c r="AF11">
+        <v>10.2</v>
+      </c>
+      <c r="AG11">
+        <v>3.62</v>
+      </c>
+      <c r="AH11">
+        <v>1.18</v>
+      </c>
+      <c r="AI11">
+        <v>4.1</v>
+      </c>
+      <c r="AJ11">
+        <v>1.36</v>
+      </c>
+      <c r="AK11">
+        <v>2.79</v>
+      </c>
+      <c r="AL11">
+        <v>1.71</v>
+      </c>
+      <c r="AM11">
+        <v>2.11</v>
+      </c>
+      <c r="AN11">
+        <v>2.12</v>
+      </c>
+      <c r="AO11">
+        <v>1.71</v>
+      </c>
+      <c r="AP11">
+        <v>2.73</v>
+      </c>
+      <c r="AQ11">
         <v>1.41</v>
-      </c>
-      <c r="Z11">
-        <v>0.82</v>
-      </c>
-      <c r="AA11">
-        <v>1.36</v>
-      </c>
-      <c r="AB11">
-        <v>1.58</v>
-      </c>
-      <c r="AC11">
-        <v>1.39</v>
-      </c>
-      <c r="AD11">
-        <v>2.97</v>
-      </c>
-      <c r="AE11">
-        <v>1.83</v>
-      </c>
-      <c r="AF11">
-        <v>8.5</v>
-      </c>
-      <c r="AG11">
-        <v>2.2</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>1.47</v>
-      </c>
-      <c r="AK11">
-        <v>2.42</v>
-      </c>
-      <c r="AL11">
-        <v>1.82</v>
-      </c>
-      <c r="AM11">
-        <v>1.84</v>
-      </c>
-      <c r="AN11">
-        <v>2.34</v>
-      </c>
-      <c r="AO11">
-        <v>1.5</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2">
         <v>45361</v>
@@ -2634,7 +2634,7 @@
         <v>77</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>111</v>
@@ -2643,120 +2643,120 @@
         <v>194</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H12">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="J12">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="K12">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="M12">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N12">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P12">
         <v>10</v>
       </c>
       <c r="Q12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="R12">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="S12">
+        <v>1.84</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>1.73</v>
+      </c>
+      <c r="V12">
         <v>1.95</v>
       </c>
-      <c r="T12">
-        <v>1.76</v>
-      </c>
-      <c r="U12">
-        <v>1.8</v>
-      </c>
-      <c r="V12">
-        <v>1.91</v>
-      </c>
       <c r="W12">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="X12">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="Y12">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="Z12">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AA12">
-        <v>1.28</v>
+        <v>0.79</v>
       </c>
       <c r="AB12">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="AC12">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AD12">
-        <v>2.44</v>
+        <v>3.04</v>
       </c>
       <c r="AE12">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="AF12">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG12">
-        <v>2.74</v>
+        <v>4.25</v>
       </c>
       <c r="AH12">
         <v>1.3</v>
       </c>
       <c r="AI12">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="AJ12">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AK12">
+        <v>2.35</v>
+      </c>
+      <c r="AL12">
+        <v>1.9</v>
+      </c>
+      <c r="AM12">
+        <v>1.9</v>
+      </c>
+      <c r="AN12">
         <v>2.48</v>
       </c>
-      <c r="AL12">
-        <v>1.89</v>
-      </c>
-      <c r="AM12">
-        <v>1.91</v>
-      </c>
-      <c r="AN12">
-        <v>2.41</v>
-      </c>
       <c r="AO12">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AP12">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AQ12">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2">
         <v>45361</v>
@@ -2774,61 +2774,61 @@
         <v>195</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H13">
         <v>2.4</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="K13">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L13">
-        <v>3.43</v>
+        <v>5.2</v>
       </c>
       <c r="M13">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="N13">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q13">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R13">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="S13">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="T13">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="U13">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V13">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W13">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>1.18</v>
       </c>
       <c r="Y13">
-        <v>2.02</v>
+        <v>2.29</v>
       </c>
       <c r="Z13">
         <v>2.17</v>
@@ -2837,57 +2837,57 @@
         <v>1.25</v>
       </c>
       <c r="AB13">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AC13">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AD13">
-        <v>3.18</v>
+        <v>3.29</v>
       </c>
       <c r="AE13">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AF13">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG13">
-        <v>3.29</v>
+        <v>4.88</v>
       </c>
       <c r="AH13">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI13">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="AJ13">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AK13">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AL13">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="AM13">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="AN13">
-        <v>2.45</v>
+        <v>2.21</v>
       </c>
       <c r="AO13">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AP13">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="AQ13">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>45361</v>
@@ -2905,115 +2905,115 @@
         <v>196</v>
       </c>
       <c r="G14">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="H14">
         <v>2.4</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
+        <v>1.78</v>
+      </c>
+      <c r="K14">
+        <v>3.95</v>
+      </c>
+      <c r="L14">
+        <v>3.9</v>
+      </c>
+      <c r="M14">
+        <v>1.29</v>
+      </c>
+      <c r="N14">
+        <v>3.5</v>
+      </c>
+      <c r="O14">
+        <v>1.02</v>
+      </c>
+      <c r="P14">
+        <v>19</v>
+      </c>
+      <c r="Q14">
+        <v>1.17</v>
+      </c>
+      <c r="R14">
+        <v>5.3</v>
+      </c>
+      <c r="S14">
+        <v>1.5</v>
+      </c>
+      <c r="T14">
+        <v>2.26</v>
+      </c>
+      <c r="U14">
+        <v>1.57</v>
+      </c>
+      <c r="V14">
+        <v>2.25</v>
+      </c>
+      <c r="W14">
+        <v>1.19</v>
+      </c>
+      <c r="X14">
+        <v>1.19</v>
+      </c>
+      <c r="Y14">
+        <v>1.98</v>
+      </c>
+      <c r="Z14">
+        <v>1.33</v>
+      </c>
+      <c r="AA14">
+        <v>0.58</v>
+      </c>
+      <c r="AB14">
+        <v>1.49</v>
+      </c>
+      <c r="AC14">
+        <v>1.1</v>
+      </c>
+      <c r="AD14">
+        <v>2.59</v>
+      </c>
+      <c r="AE14">
         <v>1.55</v>
       </c>
-      <c r="K14">
-        <v>4.37</v>
-      </c>
-      <c r="L14">
-        <v>5.45</v>
-      </c>
-      <c r="M14">
-        <v>1.3</v>
-      </c>
-      <c r="N14">
-        <v>3.4</v>
-      </c>
-      <c r="O14">
-        <v>1.03</v>
-      </c>
-      <c r="P14">
-        <v>16</v>
-      </c>
-      <c r="Q14">
-        <v>1.19</v>
-      </c>
-      <c r="R14">
-        <v>4.8</v>
-      </c>
-      <c r="S14">
-        <v>1.6</v>
-      </c>
-      <c r="T14">
-        <v>2.21</v>
-      </c>
-      <c r="U14">
-        <v>1.67</v>
-      </c>
-      <c r="V14">
-        <v>2.1</v>
-      </c>
-      <c r="W14">
-        <v>1.1</v>
-      </c>
-      <c r="X14">
-        <v>1.18</v>
-      </c>
-      <c r="Y14">
-        <v>2.29</v>
-      </c>
-      <c r="Z14">
-        <v>2.17</v>
-      </c>
-      <c r="AA14">
-        <v>1.25</v>
-      </c>
-      <c r="AB14">
-        <v>1.91</v>
-      </c>
-      <c r="AC14">
-        <v>1.38</v>
-      </c>
-      <c r="AD14">
-        <v>3.29</v>
-      </c>
-      <c r="AE14">
-        <v>1.26</v>
-      </c>
       <c r="AF14">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG14">
-        <v>4.88</v>
+        <v>2.9</v>
       </c>
       <c r="AH14">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AI14">
-        <v>3.42</v>
+        <v>5.2</v>
       </c>
       <c r="AJ14">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="AK14">
-        <v>2.13</v>
+        <v>3.48</v>
       </c>
       <c r="AL14">
-        <v>1.76</v>
+        <v>1.46</v>
       </c>
       <c r="AM14">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="AN14">
-        <v>2.21</v>
+        <v>1.7</v>
       </c>
       <c r="AO14">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AP14">
-        <v>3.14</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -3027,7 +3027,7 @@
         <v>77</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>114</v>
@@ -3036,120 +3036,120 @@
         <v>197</v>
       </c>
       <c r="G15">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H15">
+        <v>2.4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>1.88</v>
+      </c>
+      <c r="K15">
+        <v>3.85</v>
+      </c>
+      <c r="L15">
+        <v>3.6</v>
+      </c>
+      <c r="M15">
+        <v>1.29</v>
+      </c>
+      <c r="N15">
+        <v>3.5</v>
+      </c>
+      <c r="O15">
+        <v>1.02</v>
+      </c>
+      <c r="P15">
+        <v>18</v>
+      </c>
+      <c r="Q15">
+        <v>1.17</v>
+      </c>
+      <c r="R15">
+        <v>5.3</v>
+      </c>
+      <c r="S15">
+        <v>1.53</v>
+      </c>
+      <c r="T15">
+        <v>2.19</v>
+      </c>
+      <c r="U15">
+        <v>1.53</v>
+      </c>
+      <c r="V15">
         <v>2.38</v>
       </c>
-      <c r="I15">
-        <v>5.5</v>
-      </c>
-      <c r="J15">
-        <v>1.53</v>
-      </c>
-      <c r="K15">
-        <v>4.33</v>
-      </c>
-      <c r="L15">
-        <v>5.7</v>
-      </c>
-      <c r="M15">
-        <v>1.33</v>
-      </c>
-      <c r="N15">
-        <v>3.25</v>
-      </c>
-      <c r="O15">
-        <v>1.04</v>
-      </c>
-      <c r="P15">
-        <v>10</v>
-      </c>
-      <c r="Q15">
-        <v>1.25</v>
-      </c>
-      <c r="R15">
-        <v>3.8</v>
-      </c>
-      <c r="S15">
-        <v>1.78</v>
-      </c>
-      <c r="T15">
-        <v>1.93</v>
-      </c>
-      <c r="U15">
-        <v>1.73</v>
-      </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="X15">
         <v>1.18</v>
       </c>
       <c r="Y15">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="Z15">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AA15">
-        <v>0.79</v>
+        <v>1.25</v>
       </c>
       <c r="AB15">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="AC15">
-        <v>1.15</v>
+        <v>1.46</v>
       </c>
       <c r="AD15">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="AE15">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AF15">
         <v>8.5</v>
       </c>
       <c r="AG15">
-        <v>4.25</v>
+        <v>3.29</v>
       </c>
       <c r="AH15">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AI15">
         <v>3.25</v>
       </c>
       <c r="AJ15">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AK15">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AL15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AM15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AN15">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="AO15">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AP15">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2">
         <v>45361</v>
@@ -3158,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>115</v>
@@ -3167,115 +3167,115 @@
         <v>198</v>
       </c>
       <c r="G16">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J16">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="K16">
-        <v>4.03</v>
+        <v>3.45</v>
       </c>
       <c r="L16">
-        <v>4.13</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N16">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="O16">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P16">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q16">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="R16">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="S16">
-        <v>1.55</v>
+        <v>2.01</v>
       </c>
       <c r="T16">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="U16">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W16">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="X16">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="Y16">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="Z16">
         <v>1.33</v>
       </c>
       <c r="AA16">
-        <v>0.58</v>
+        <v>1.28</v>
       </c>
       <c r="AB16">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AC16">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD16">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AE16">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="AF16">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG16">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="AH16">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AI16">
-        <v>5.2</v>
+        <v>3.52</v>
       </c>
       <c r="AJ16">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="AK16">
-        <v>3.48</v>
+        <v>2.48</v>
       </c>
       <c r="AL16">
-        <v>1.46</v>
+        <v>1.89</v>
       </c>
       <c r="AM16">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="AN16">
-        <v>1.7</v>
+        <v>2.41</v>
       </c>
       <c r="AO16">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="AP16">
-        <v>2.22</v>
+        <v>3.27</v>
       </c>
       <c r="AQ16">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -3307,13 +3307,13 @@
         <v>4.5</v>
       </c>
       <c r="J17">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="K17">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="L17">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
         <v>1.57</v>
@@ -3334,10 +3334,10 @@
         <v>2.54</v>
       </c>
       <c r="S17">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="T17">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U17">
         <v>2.1</v>
@@ -3438,13 +3438,13 @@
         <v>3.4</v>
       </c>
       <c r="J18">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="K18">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="L18">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="M18">
         <v>1.44</v>
@@ -3465,10 +3465,10 @@
         <v>3.1</v>
       </c>
       <c r="S18">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U18">
         <v>1.8</v>
@@ -3569,13 +3569,13 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="K19">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="M19">
         <v>1.2</v>
@@ -3596,10 +3596,10 @@
         <v>6.45</v>
       </c>
       <c r="S19">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T19">
-        <v>3.09</v>
+        <v>2.85</v>
       </c>
       <c r="U19">
         <v>1.33</v>
@@ -3700,13 +3700,13 @@
         <v>3.25</v>
       </c>
       <c r="J20">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="K20">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="L20">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="M20">
         <v>1.44</v>
@@ -3822,115 +3822,115 @@
         <v>203</v>
       </c>
       <c r="G21">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="H21">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="I21">
-        <v>4.79</v>
+        <v>2.45</v>
       </c>
       <c r="J21">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="K21">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
       <c r="L21">
-        <v>3.73</v>
+        <v>1.77</v>
       </c>
       <c r="M21">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>3.28</v>
       </c>
       <c r="O21">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="P21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q21">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="R21">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="S21">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="T21">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="U21">
-        <v>1.97</v>
+        <v>1.62</v>
       </c>
       <c r="V21">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="W21">
+        <v>2.04</v>
+      </c>
+      <c r="X21">
         <v>1.28</v>
       </c>
-      <c r="X21">
-        <v>1.34</v>
-      </c>
       <c r="Y21">
-        <v>1.85</v>
+        <v>1.26</v>
       </c>
       <c r="Z21">
-        <v>1.86</v>
+        <v>0.64</v>
       </c>
       <c r="AA21">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="AB21">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AC21">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AD21">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="AE21">
+        <v>2.88</v>
+      </c>
+      <c r="AF21">
+        <v>8.5</v>
+      </c>
+      <c r="AG21">
         <v>1.57</v>
       </c>
-      <c r="AF21">
-        <v>8</v>
-      </c>
-      <c r="AG21">
-        <v>2.75</v>
-      </c>
       <c r="AH21">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AI21">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="AJ21">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AK21">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AL21">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="AM21">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AN21">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="AO21">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="AQ21">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="22" spans="1:43">
@@ -3953,115 +3953,115 @@
         <v>204</v>
       </c>
       <c r="G22">
-        <v>4.3</v>
+        <v>2.68</v>
       </c>
       <c r="H22">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="I22">
-        <v>2.45</v>
+        <v>4.79</v>
       </c>
       <c r="J22">
-        <v>3.78</v>
+        <v>2.01</v>
       </c>
       <c r="K22">
+        <v>3.3</v>
+      </c>
+      <c r="L22">
+        <v>3.75</v>
+      </c>
+      <c r="M22">
+        <v>1.47</v>
+      </c>
+      <c r="N22">
+        <v>2.75</v>
+      </c>
+      <c r="O22">
+        <v>1.07</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>1.4</v>
+      </c>
+      <c r="R22">
+        <v>2.9</v>
+      </c>
+      <c r="S22">
+        <v>2.06</v>
+      </c>
+      <c r="T22">
+        <v>1.65</v>
+      </c>
+      <c r="U22">
+        <v>1.97</v>
+      </c>
+      <c r="V22">
+        <v>1.79</v>
+      </c>
+      <c r="W22">
+        <v>1.28</v>
+      </c>
+      <c r="X22">
+        <v>1.34</v>
+      </c>
+      <c r="Y22">
+        <v>1.85</v>
+      </c>
+      <c r="Z22">
+        <v>1.86</v>
+      </c>
+      <c r="AA22">
+        <v>0.85</v>
+      </c>
+      <c r="AB22">
+        <v>1.43</v>
+      </c>
+      <c r="AC22">
+        <v>1.1</v>
+      </c>
+      <c r="AD22">
+        <v>2.53</v>
+      </c>
+      <c r="AE22">
+        <v>1.57</v>
+      </c>
+      <c r="AF22">
+        <v>8</v>
+      </c>
+      <c r="AG22">
+        <v>2.75</v>
+      </c>
+      <c r="AH22">
+        <v>1.36</v>
+      </c>
+      <c r="AI22">
+        <v>2.85</v>
+      </c>
+      <c r="AJ22">
+        <v>1.64</v>
+      </c>
+      <c r="AK22">
+        <v>2.1</v>
+      </c>
+      <c r="AL22">
+        <v>2.08</v>
+      </c>
+      <c r="AM22">
+        <v>1.65</v>
+      </c>
+      <c r="AN22">
+        <v>2.75</v>
+      </c>
+      <c r="AO22">
+        <v>1.38</v>
+      </c>
+      <c r="AP22">
         <v>3.85</v>
       </c>
-      <c r="L22">
-        <v>1.85</v>
-      </c>
-      <c r="M22">
-        <v>1.31</v>
-      </c>
-      <c r="N22">
-        <v>3.28</v>
-      </c>
-      <c r="O22">
-        <v>1.04</v>
-      </c>
-      <c r="P22">
-        <v>10</v>
-      </c>
-      <c r="Q22">
-        <v>1.22</v>
-      </c>
-      <c r="R22">
-        <v>4.2</v>
-      </c>
-      <c r="S22">
-        <v>1.64</v>
-      </c>
-      <c r="T22">
-        <v>2.18</v>
-      </c>
-      <c r="U22">
-        <v>1.62</v>
-      </c>
-      <c r="V22">
-        <v>2.24</v>
-      </c>
-      <c r="W22">
-        <v>2.04</v>
-      </c>
-      <c r="X22">
-        <v>1.28</v>
-      </c>
-      <c r="Y22">
-        <v>1.26</v>
-      </c>
-      <c r="Z22">
-        <v>0.64</v>
-      </c>
-      <c r="AA22">
-        <v>1.29</v>
-      </c>
-      <c r="AB22">
-        <v>1.24</v>
-      </c>
-      <c r="AC22">
-        <v>1.33</v>
-      </c>
-      <c r="AD22">
-        <v>2.57</v>
-      </c>
-      <c r="AE22">
-        <v>2.88</v>
-      </c>
-      <c r="AF22">
-        <v>8.5</v>
-      </c>
-      <c r="AG22">
-        <v>1.57</v>
-      </c>
-      <c r="AH22">
-        <v>1.27</v>
-      </c>
-      <c r="AI22">
-        <v>3.35</v>
-      </c>
-      <c r="AJ22">
-        <v>1.49</v>
-      </c>
-      <c r="AK22">
-        <v>2.4</v>
-      </c>
-      <c r="AL22">
-        <v>1.9</v>
-      </c>
-      <c r="AM22">
-        <v>1.9</v>
-      </c>
-      <c r="AN22">
-        <v>2.38</v>
-      </c>
-      <c r="AO22">
-        <v>1.5</v>
-      </c>
-      <c r="AP22">
-        <v>3.2</v>
-      </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:43">
@@ -4093,13 +4093,13 @@
         <v>4.33</v>
       </c>
       <c r="J23">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K23">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
         <v>1.62</v>
@@ -4117,13 +4117,13 @@
         <v>1.53</v>
       </c>
       <c r="R23">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S23">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="T23">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="U23">
         <v>2.25</v>
@@ -4224,13 +4224,13 @@
         <v>9.5</v>
       </c>
       <c r="J24">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="K24">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="L24">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M24">
         <v>1.41</v>
@@ -4355,13 +4355,13 @@
         <v>4.75</v>
       </c>
       <c r="J25">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="K25">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="L25">
-        <v>4.08</v>
+        <v>4.4</v>
       </c>
       <c r="M25">
         <v>1.33</v>
@@ -4486,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="K26">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="L26">
-        <v>5.05</v>
+        <v>5.4</v>
       </c>
       <c r="M26">
         <v>1.29</v>
@@ -4513,10 +4513,10 @@
         <v>4.6</v>
       </c>
       <c r="S26">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="T26">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="U26">
         <v>1.67</v>
@@ -4617,13 +4617,13 @@
         <v>6</v>
       </c>
       <c r="J27">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="K27">
-        <v>5.45</v>
+        <v>4.9</v>
       </c>
       <c r="L27">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="M27">
         <v>1.25</v>
@@ -4644,10 +4644,10 @@
         <v>4.65</v>
       </c>
       <c r="S27">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="T27">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="U27">
         <v>1.7</v>
@@ -4751,10 +4751,10 @@
         <v>1.71</v>
       </c>
       <c r="K28">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="M28">
         <v>1.33</v>
@@ -4775,10 +4775,10 @@
         <v>3.92</v>
       </c>
       <c r="S28">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="T28">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="U28">
         <v>1.75</v>
@@ -5010,13 +5010,13 @@
         <v>4.33</v>
       </c>
       <c r="J30">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="K30">
-        <v>3.83</v>
+        <v>3.9</v>
       </c>
       <c r="L30">
-        <v>4.47</v>
+        <v>4.7</v>
       </c>
       <c r="M30">
         <v>1.31</v>
@@ -5037,7 +5037,7 @@
         <v>4.2</v>
       </c>
       <c r="S30">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="T30">
         <v>2.11</v>
@@ -5082,10 +5082,10 @@
         <v>3.32</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ30">
         <v>1.29</v>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2">
         <v>45361</v>
@@ -5123,7 +5123,7 @@
         <v>81</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>130</v>
@@ -5132,120 +5132,120 @@
         <v>213</v>
       </c>
       <c r="G31">
-        <v>6.09</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="I31">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J31">
-        <v>4.84</v>
+        <v>6.73</v>
       </c>
       <c r="K31">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M31">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N31">
-        <v>3.22</v>
+        <v>2.63</v>
       </c>
       <c r="O31">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q31">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="R31">
-        <v>3.64</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>1.69</v>
+        <v>2.03</v>
       </c>
       <c r="T31">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="U31">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="V31">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="W31">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="X31">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z31">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AA31">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AB31">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AC31">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AD31">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="AE31">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AF31">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG31">
         <v>1.35</v>
       </c>
       <c r="AH31">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AI31">
-        <v>4.33</v>
+        <v>2.98</v>
       </c>
       <c r="AJ31">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AK31">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="AL31">
-        <v>1.52</v>
+        <v>2</v>
       </c>
       <c r="AM31">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="AN31">
-        <v>1.86</v>
+        <v>2.64</v>
       </c>
       <c r="AO31">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="AP31">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="AQ31">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="32" spans="1:43">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2">
         <v>45361</v>
@@ -5263,115 +5263,115 @@
         <v>214</v>
       </c>
       <c r="G32">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="H32">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J32">
+        <v>1.91</v>
+      </c>
+      <c r="K32">
+        <v>3.6</v>
+      </c>
+      <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
+        <v>1.33</v>
+      </c>
+      <c r="N32">
+        <v>3.25</v>
+      </c>
+      <c r="O32">
+        <v>1.04</v>
+      </c>
+      <c r="P32">
+        <v>10.25</v>
+      </c>
+      <c r="Q32">
+        <v>1.25</v>
+      </c>
+      <c r="R32">
+        <v>3.75</v>
+      </c>
+      <c r="S32">
+        <v>1.67</v>
+      </c>
+      <c r="T32">
+        <v>1.99</v>
+      </c>
+      <c r="U32">
+        <v>1.67</v>
+      </c>
+      <c r="V32">
+        <v>2.1</v>
+      </c>
+      <c r="W32">
         <v>1.22</v>
       </c>
-      <c r="K32">
-        <v>6.8</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
+      <c r="X32">
         <v>1.22</v>
       </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <v>1.02</v>
-      </c>
-      <c r="P32">
-        <v>23.5</v>
-      </c>
-      <c r="Q32">
-        <v>1.1</v>
-      </c>
-      <c r="R32">
-        <v>5.7</v>
-      </c>
-      <c r="S32">
-        <v>1.45</v>
-      </c>
-      <c r="T32">
-        <v>2.56</v>
-      </c>
-      <c r="U32">
-        <v>2.1</v>
-      </c>
-      <c r="V32">
-        <v>1.67</v>
-      </c>
-      <c r="W32">
-        <v>1.05</v>
-      </c>
-      <c r="X32">
-        <v>1.05</v>
-      </c>
       <c r="Y32">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="Z32">
-        <v>2.55</v>
+        <v>1.36</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AB32">
-        <v>2.37</v>
+        <v>1.4</v>
       </c>
       <c r="AC32">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="AD32">
-        <v>3.71</v>
+        <v>2.43</v>
       </c>
       <c r="AE32">
-        <v>1.06</v>
+        <v>1.69</v>
       </c>
       <c r="AF32">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AG32">
-        <v>11.3</v>
+        <v>2.62</v>
       </c>
       <c r="AH32">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AI32">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AJ32">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AK32">
-        <v>3.04</v>
+        <v>3.6</v>
       </c>
       <c r="AL32">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AM32">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AN32">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AO32">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AP32">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="AQ32">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="33" spans="1:43">
@@ -5403,13 +5403,13 @@
         <v>4.5</v>
       </c>
       <c r="J33">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="K33">
-        <v>4.27</v>
+        <v>4.3</v>
       </c>
       <c r="L33">
-        <v>4.92</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>1.29</v>
@@ -5430,10 +5430,10 @@
         <v>4.4</v>
       </c>
       <c r="S33">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="T33">
-        <v>2.21</v>
+        <v>2.45</v>
       </c>
       <c r="U33">
         <v>1.62</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="2">
         <v>45361</v>
@@ -5534,13 +5534,13 @@
         <v>2.6</v>
       </c>
       <c r="J34">
-        <v>2.99</v>
+        <v>3.35</v>
       </c>
       <c r="K34">
-        <v>3.57</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="M34">
         <v>1.3</v>
@@ -5561,10 +5561,10 @@
         <v>4.4</v>
       </c>
       <c r="S34">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="T34">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U34">
         <v>1.57</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
         <v>45361</v>
@@ -5665,13 +5665,13 @@
         <v>3.4</v>
       </c>
       <c r="J35">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="K35">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L35">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="M35">
         <v>1.44</v>
@@ -5692,10 +5692,10 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T35">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U35">
         <v>1.91</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2">
         <v>45361</v>
@@ -5796,13 +5796,13 @@
         <v>3.75</v>
       </c>
       <c r="J36">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="K36">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="L36">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="M36">
         <v>1.44</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="S36">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T36">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U36">
         <v>1.91</v>
@@ -5927,13 +5927,13 @@
         <v>6.5</v>
       </c>
       <c r="J37">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="K37">
-        <v>4.58</v>
+        <v>4.8</v>
       </c>
       <c r="L37">
-        <v>6.65</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>1.33</v>
@@ -5954,10 +5954,10 @@
         <v>4.4</v>
       </c>
       <c r="S37">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="T37">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="U37">
         <v>1.95</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2">
         <v>45361</v>
@@ -6091,10 +6091,10 @@
         <v>1.67</v>
       </c>
       <c r="U38">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W38">
         <v>1.57</v>
@@ -6171,7 +6171,7 @@
         <v>81</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
         <v>138</v>
@@ -6180,120 +6180,120 @@
         <v>221</v>
       </c>
       <c r="G39">
-        <v>6</v>
+        <v>1.53</v>
       </c>
       <c r="H39">
+        <v>2.88</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <v>1.17</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>1.22</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>1.02</v>
+      </c>
+      <c r="P39">
+        <v>23.5</v>
+      </c>
+      <c r="Q39">
+        <v>1.1</v>
+      </c>
+      <c r="R39">
+        <v>5.7</v>
+      </c>
+      <c r="S39">
+        <v>1.4</v>
+      </c>
+      <c r="T39">
+        <v>2.58</v>
+      </c>
+      <c r="U39">
         <v>2.1</v>
       </c>
-      <c r="I39">
-        <v>2.1</v>
-      </c>
-      <c r="J39">
-        <v>6.73</v>
-      </c>
-      <c r="K39">
-        <v>3.75</v>
-      </c>
-      <c r="L39">
-        <v>1.45</v>
-      </c>
-      <c r="M39">
-        <v>1.44</v>
-      </c>
-      <c r="N39">
-        <v>2.63</v>
-      </c>
-      <c r="O39">
+      <c r="V39">
+        <v>1.67</v>
+      </c>
+      <c r="W39">
+        <v>1.05</v>
+      </c>
+      <c r="X39">
+        <v>1.05</v>
+      </c>
+      <c r="Y39">
+        <v>5</v>
+      </c>
+      <c r="Z39">
+        <v>2.55</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>2.37</v>
+      </c>
+      <c r="AC39">
+        <v>1.34</v>
+      </c>
+      <c r="AD39">
+        <v>3.71</v>
+      </c>
+      <c r="AE39">
         <v>1.06</v>
       </c>
-      <c r="P39">
-        <v>8</v>
-      </c>
-      <c r="Q39">
-        <v>1.36</v>
-      </c>
-      <c r="R39">
-        <v>3</v>
-      </c>
-      <c r="S39">
-        <v>2.03</v>
-      </c>
-      <c r="T39">
-        <v>1.7</v>
-      </c>
-      <c r="U39">
-        <v>2.25</v>
-      </c>
-      <c r="V39">
-        <v>1.57</v>
-      </c>
-      <c r="W39">
+      <c r="AF39">
+        <v>15</v>
+      </c>
+      <c r="AG39">
+        <v>11.3</v>
+      </c>
+      <c r="AH39">
+        <v>1.18</v>
+      </c>
+      <c r="AI39">
+        <v>4.5</v>
+      </c>
+      <c r="AJ39">
+        <v>1.31</v>
+      </c>
+      <c r="AK39">
+        <v>3.04</v>
+      </c>
+      <c r="AL39">
+        <v>1.88</v>
+      </c>
+      <c r="AM39">
+        <v>1.92</v>
+      </c>
+      <c r="AN39">
+        <v>1.92</v>
+      </c>
+      <c r="AO39">
+        <v>1.79</v>
+      </c>
+      <c r="AP39">
         <v>2.45</v>
       </c>
-      <c r="X39">
-        <v>1.2</v>
-      </c>
-      <c r="Y39">
-        <v>1.07</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>1.75</v>
-      </c>
-      <c r="AB39">
-        <v>0.92</v>
-      </c>
-      <c r="AC39">
-        <v>1.5</v>
-      </c>
-      <c r="AD39">
-        <v>2.42</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
       <c r="AQ39">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
         <v>45361</v>
@@ -6302,7 +6302,7 @@
         <v>81</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>139</v>
@@ -6311,115 +6311,115 @@
         <v>222</v>
       </c>
       <c r="G40">
-        <v>2.5</v>
+        <v>6.09</v>
       </c>
       <c r="H40">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>2.02</v>
       </c>
       <c r="J40">
-        <v>2.05</v>
+        <v>5.6</v>
       </c>
       <c r="K40">
-        <v>3.37</v>
+        <v>4.2</v>
       </c>
       <c r="L40">
-        <v>3.63</v>
+        <v>1.52</v>
       </c>
       <c r="M40">
         <v>1.33</v>
       </c>
       <c r="N40">
-        <v>3.25</v>
+        <v>3.22</v>
       </c>
       <c r="O40">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P40">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R40">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="S40">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="T40">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="U40">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V40">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="W40">
-        <v>1.22</v>
+        <v>2.4</v>
       </c>
       <c r="X40">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Y40">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="Z40">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AA40">
-        <v>0.42</v>
+        <v>2.25</v>
       </c>
       <c r="AB40">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AC40">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="AD40">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AE40">
-        <v>1.69</v>
+        <v>3.6</v>
       </c>
       <c r="AF40">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG40">
-        <v>2.62</v>
+        <v>1.35</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ40">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AK40">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AL40">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AM40">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AN40">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AO40">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AP40">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="41" spans="1:43">
@@ -6451,13 +6451,13 @@
         <v>3.5</v>
       </c>
       <c r="J41">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="K41">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
         <v>1.33</v>
@@ -6478,10 +6478,10 @@
         <v>3.9</v>
       </c>
       <c r="S41">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T41">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U41">
         <v>1.67</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="42" spans="1:43">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2">
         <v>45361</v>
@@ -6564,7 +6564,7 @@
         <v>83</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>141</v>
@@ -6576,117 +6576,117 @@
         <v>1.73</v>
       </c>
       <c r="H42">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J42">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K42">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L42">
-        <v>8.35</v>
+        <v>9.6</v>
       </c>
       <c r="M42">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q42">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="R42">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="S42">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="T42">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W42">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="X42">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Y42">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z42">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AA42">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="AB42">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AC42">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AD42">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="AE42">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AF42">
         <v>11</v>
       </c>
       <c r="AG42">
-        <v>7</v>
+        <v>4.89</v>
       </c>
       <c r="AH42">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AI42">
-        <v>4.1</v>
+        <v>5.15</v>
       </c>
       <c r="AJ42">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AK42">
-        <v>2.85</v>
+        <v>3.35</v>
       </c>
       <c r="AL42">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AM42">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AO42">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AP42">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B43" s="2">
         <v>45361</v>
@@ -6695,7 +6695,7 @@
         <v>83</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>142</v>
@@ -6704,22 +6704,22 @@
         <v>225</v>
       </c>
       <c r="G43">
-        <v>1.73</v>
+        <v>8.5</v>
       </c>
       <c r="H43">
         <v>2.63</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>1.73</v>
       </c>
       <c r="J43">
-        <v>1.26</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K43">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L43">
-        <v>11.75</v>
+        <v>1.28</v>
       </c>
       <c r="M43">
         <v>1.29</v>
@@ -6728,96 +6728,96 @@
         <v>3.5</v>
       </c>
       <c r="O43">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q43">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="R43">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="S43">
+        <v>1.51</v>
+      </c>
+      <c r="T43">
+        <v>2.14</v>
+      </c>
+      <c r="U43">
+        <v>2.05</v>
+      </c>
+      <c r="V43">
+        <v>1.7</v>
+      </c>
+      <c r="W43">
+        <v>3.44</v>
+      </c>
+      <c r="X43">
+        <v>1.15</v>
+      </c>
+      <c r="Y43">
+        <v>1.06</v>
+      </c>
+      <c r="Z43">
+        <v>1.54</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>1.18</v>
+      </c>
+      <c r="AC43">
+        <v>1.79</v>
+      </c>
+      <c r="AD43">
+        <v>2.97</v>
+      </c>
+      <c r="AE43">
+        <v>7.6</v>
+      </c>
+      <c r="AF43">
+        <v>13</v>
+      </c>
+      <c r="AG43">
+        <v>1.13</v>
+      </c>
+      <c r="AH43">
+        <v>1.39</v>
+      </c>
+      <c r="AI43">
+        <v>2.76</v>
+      </c>
+      <c r="AJ43">
+        <v>1.8</v>
+      </c>
+      <c r="AK43">
+        <v>2</v>
+      </c>
+      <c r="AL43">
+        <v>2.19</v>
+      </c>
+      <c r="AM43">
         <v>1.6</v>
       </c>
-      <c r="T43">
-        <v>2.2</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.8</v>
-      </c>
-      <c r="W43">
-        <v>1.03</v>
-      </c>
-      <c r="X43">
-        <v>1.14</v>
-      </c>
-      <c r="Y43">
-        <v>3.6</v>
-      </c>
-      <c r="Z43">
-        <v>1.9</v>
-      </c>
-      <c r="AA43">
-        <v>0.7</v>
-      </c>
-      <c r="AB43">
-        <v>2.05</v>
-      </c>
-      <c r="AC43">
+      <c r="AN43">
+        <v>2.91</v>
+      </c>
+      <c r="AO43">
+        <v>1.33</v>
+      </c>
+      <c r="AP43">
+        <v>3.7</v>
+      </c>
+      <c r="AQ43">
         <v>1.19</v>
-      </c>
-      <c r="AD43">
-        <v>3.24</v>
-      </c>
-      <c r="AE43">
-        <v>1.23</v>
-      </c>
-      <c r="AF43">
-        <v>11</v>
-      </c>
-      <c r="AG43">
-        <v>4.89</v>
-      </c>
-      <c r="AH43">
-        <v>1.11</v>
-      </c>
-      <c r="AI43">
-        <v>5.15</v>
-      </c>
-      <c r="AJ43">
-        <v>1.27</v>
-      </c>
-      <c r="AK43">
-        <v>3.35</v>
-      </c>
-      <c r="AL43">
-        <v>1.48</v>
-      </c>
-      <c r="AM43">
-        <v>2.45</v>
-      </c>
-      <c r="AN43">
-        <v>1.85</v>
-      </c>
-      <c r="AO43">
-        <v>1.95</v>
-      </c>
-      <c r="AP43">
-        <v>2.28</v>
-      </c>
-      <c r="AQ43">
-        <v>1.54</v>
       </c>
     </row>
     <row r="44" spans="1:43">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2">
         <v>45361</v>
@@ -6826,7 +6826,7 @@
         <v>83</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
         <v>143</v>
@@ -6835,115 +6835,115 @@
         <v>226</v>
       </c>
       <c r="G44">
-        <v>8.5</v>
+        <v>1.73</v>
       </c>
       <c r="H44">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>1.31</v>
+      </c>
+      <c r="K44">
+        <v>5.4</v>
+      </c>
+      <c r="L44">
+        <v>7.8</v>
+      </c>
+      <c r="M44">
+        <v>1.22</v>
+      </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <v>1.01</v>
+      </c>
+      <c r="P44">
+        <v>13</v>
+      </c>
+      <c r="Q44">
+        <v>1.12</v>
+      </c>
+      <c r="R44">
+        <v>6</v>
+      </c>
+      <c r="S44">
+        <v>1.43</v>
+      </c>
+      <c r="T44">
+        <v>2.51</v>
+      </c>
+      <c r="U44">
+        <v>1.75</v>
+      </c>
+      <c r="V44">
+        <v>2</v>
+      </c>
+      <c r="W44">
+        <v>1.04</v>
+      </c>
+      <c r="X44">
+        <v>1.1</v>
+      </c>
+      <c r="Y44">
+        <v>3.5</v>
+      </c>
+      <c r="Z44">
+        <v>1.93</v>
+      </c>
+      <c r="AA44">
+        <v>0.71</v>
+      </c>
+      <c r="AB44">
+        <v>1.83</v>
+      </c>
+      <c r="AC44">
+        <v>1.34</v>
+      </c>
+      <c r="AD44">
+        <v>3.17</v>
+      </c>
+      <c r="AE44">
+        <v>1.14</v>
+      </c>
+      <c r="AF44">
+        <v>11</v>
+      </c>
+      <c r="AG44">
+        <v>7</v>
+      </c>
+      <c r="AH44">
+        <v>1.22</v>
+      </c>
+      <c r="AI44">
+        <v>4.1</v>
+      </c>
+      <c r="AJ44">
+        <v>1.38</v>
+      </c>
+      <c r="AK44">
+        <v>2.85</v>
+      </c>
+      <c r="AL44">
+        <v>1.61</v>
+      </c>
+      <c r="AM44">
+        <v>2.2</v>
+      </c>
+      <c r="AN44">
+        <v>2</v>
+      </c>
+      <c r="AO44">
         <v>1.73</v>
       </c>
-      <c r="J44">
-        <v>10.88</v>
-      </c>
-      <c r="K44">
-        <v>6</v>
-      </c>
-      <c r="L44">
-        <v>1.21</v>
-      </c>
-      <c r="M44">
-        <v>1.29</v>
-      </c>
-      <c r="N44">
-        <v>3.5</v>
-      </c>
-      <c r="O44">
-        <v>1.03</v>
-      </c>
-      <c r="P44">
-        <v>15</v>
-      </c>
-      <c r="Q44">
-        <v>1.19</v>
-      </c>
-      <c r="R44">
-        <v>4.75</v>
-      </c>
-      <c r="S44">
-        <v>1.56</v>
-      </c>
-      <c r="T44">
-        <v>2.27</v>
-      </c>
-      <c r="U44">
-        <v>2.05</v>
-      </c>
-      <c r="V44">
-        <v>1.7</v>
-      </c>
-      <c r="W44">
-        <v>3.44</v>
-      </c>
-      <c r="X44">
-        <v>1.15</v>
-      </c>
-      <c r="Y44">
-        <v>1.06</v>
-      </c>
-      <c r="Z44">
-        <v>1.54</v>
-      </c>
-      <c r="AA44">
-        <v>2</v>
-      </c>
-      <c r="AB44">
-        <v>1.18</v>
-      </c>
-      <c r="AC44">
-        <v>1.79</v>
-      </c>
-      <c r="AD44">
-        <v>2.97</v>
-      </c>
-      <c r="AE44">
-        <v>7.6</v>
-      </c>
-      <c r="AF44">
-        <v>13</v>
-      </c>
-      <c r="AG44">
-        <v>1.13</v>
-      </c>
-      <c r="AH44">
-        <v>1.39</v>
-      </c>
-      <c r="AI44">
-        <v>2.76</v>
-      </c>
-      <c r="AJ44">
-        <v>1.8</v>
-      </c>
-      <c r="AK44">
-        <v>2</v>
-      </c>
-      <c r="AL44">
-        <v>2.19</v>
-      </c>
-      <c r="AM44">
-        <v>1.6</v>
-      </c>
-      <c r="AN44">
-        <v>2.91</v>
-      </c>
-      <c r="AO44">
-        <v>1.33</v>
-      </c>
       <c r="AP44">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="AQ44">
-        <v>1.19</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="45" spans="1:43">
@@ -6975,13 +6975,13 @@
         <v>2.75</v>
       </c>
       <c r="J45">
-        <v>4.18</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L45">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="M45">
         <v>1.44</v>
@@ -7002,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="T45">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U45">
         <v>1.95</v>
@@ -7106,13 +7106,13 @@
         <v>4.2</v>
       </c>
       <c r="J46">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L46">
-        <v>3.52</v>
+        <v>3.85</v>
       </c>
       <c r="M46">
         <v>1.5</v>
@@ -7133,7 +7133,7 @@
         <v>2.8</v>
       </c>
       <c r="S46">
-        <v>2.45</v>
+        <v>2.31</v>
       </c>
       <c r="T46">
         <v>1.48</v>
@@ -7237,13 +7237,13 @@
         <v>2.8</v>
       </c>
       <c r="J47">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="K47">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="L47">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="M47">
         <v>1.52</v>
@@ -7264,10 +7264,10 @@
         <v>2.45</v>
       </c>
       <c r="S47">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="T47">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -7368,13 +7368,13 @@
         <v>2.38</v>
       </c>
       <c r="J48">
-        <v>3.56</v>
+        <v>3.85</v>
       </c>
       <c r="K48">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L48">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="M48">
         <v>1.33</v>
@@ -7395,7 +7395,7 @@
         <v>4.2</v>
       </c>
       <c r="S48">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="T48">
         <v>2.07</v>
@@ -7499,13 +7499,13 @@
         <v>4.5</v>
       </c>
       <c r="J49">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="K49">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L49">
-        <v>4.83</v>
+        <v>4.5</v>
       </c>
       <c r="M49">
         <v>1.42</v>
@@ -7526,10 +7526,10 @@
         <v>3.1</v>
       </c>
       <c r="S49">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="T49">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U49">
         <v>1.85</v>
@@ -7630,13 +7630,13 @@
         <v>2.6</v>
       </c>
       <c r="J50">
+        <v>3.5</v>
+      </c>
+      <c r="K50">
         <v>3.65</v>
       </c>
-      <c r="K50">
-        <v>3.75</v>
-      </c>
       <c r="L50">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="M50">
         <v>1.3</v>
@@ -7657,7 +7657,7 @@
         <v>4.5</v>
       </c>
       <c r="S50">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="T50">
         <v>2.2</v>
@@ -7761,13 +7761,13 @@
         <v>4.5</v>
       </c>
       <c r="J51">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K51">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="L51">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="M51">
         <v>1.33</v>
@@ -7791,7 +7791,7 @@
         <v>1.63</v>
       </c>
       <c r="T51">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U51">
         <v>1.67</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2">
         <v>45361</v>
@@ -7874,7 +7874,7 @@
         <v>86</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -7883,115 +7883,115 @@
         <v>234</v>
       </c>
       <c r="G52">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="H52">
         <v>2.3</v>
       </c>
       <c r="I52">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="J52">
-        <v>1.96</v>
+        <v>4.7</v>
       </c>
       <c r="K52">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L52">
-        <v>3.45</v>
+        <v>1.64</v>
       </c>
       <c r="M52">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="N52">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="O52">
         <v>1.03</v>
       </c>
       <c r="P52">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q52">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="R52">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="S52">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="T52">
-        <v>2.21</v>
+        <v>1.98</v>
       </c>
       <c r="U52">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V52">
+        <v>1.95</v>
+      </c>
+      <c r="W52">
         <v>2.2</v>
       </c>
-      <c r="W52">
-        <v>1.36</v>
-      </c>
       <c r="X52">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="Y52">
-        <v>1.71</v>
+        <v>1.12</v>
       </c>
       <c r="Z52">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AA52">
-        <v>0.92</v>
+        <v>2.2</v>
       </c>
       <c r="AB52">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AC52">
-        <v>1.33</v>
+        <v>2.16</v>
       </c>
       <c r="AD52">
-        <v>3.02</v>
+        <v>4.12</v>
       </c>
       <c r="AE52">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AH52">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AI52">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AK52">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AL52">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AM52">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AQ52">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:43">
@@ -8023,13 +8023,13 @@
         <v>2.75</v>
       </c>
       <c r="J53">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="K53">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L53">
-        <v>2.18</v>
+        <v>2.41</v>
       </c>
       <c r="M53">
         <v>1.25</v>
@@ -8050,10 +8050,10 @@
         <v>4.95</v>
       </c>
       <c r="S53">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="T53">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="U53">
         <v>1.44</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" s="2">
         <v>45361</v>
@@ -8136,7 +8136,7 @@
         <v>86</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
         <v>153</v>
@@ -8145,120 +8145,120 @@
         <v>236</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="H54">
         <v>2.3</v>
       </c>
       <c r="I54">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J54">
-        <v>4.34</v>
+        <v>2.1</v>
       </c>
       <c r="K54">
-        <v>3.46</v>
+        <v>3.75</v>
       </c>
       <c r="L54">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="N54">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="O54">
         <v>1.03</v>
       </c>
       <c r="P54">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q54">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="R54">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="T54">
-        <v>1.95</v>
+        <v>2.21</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W54">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="X54">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="Y54">
-        <v>1.12</v>
+        <v>1.71</v>
       </c>
       <c r="Z54">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AA54">
-        <v>2.2</v>
+        <v>0.92</v>
       </c>
       <c r="AB54">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AC54">
-        <v>2.16</v>
+        <v>1.33</v>
       </c>
       <c r="AD54">
-        <v>4.12</v>
+        <v>3.02</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AL54">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM54">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP54">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="55" spans="1:43">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2">
         <v>45361</v>
@@ -8267,7 +8267,7 @@
         <v>87</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
         <v>154</v>
@@ -8276,115 +8276,115 @@
         <v>237</v>
       </c>
       <c r="G55">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="H55">
-        <v>3.2</v>
+        <v>2.16</v>
       </c>
       <c r="I55">
-        <v>9.5</v>
+        <v>2.46</v>
       </c>
       <c r="J55">
-        <v>1.17</v>
+        <v>3.95</v>
       </c>
       <c r="K55">
-        <v>7.85</v>
+        <v>3.55</v>
       </c>
       <c r="L55">
-        <v>12.5</v>
+        <v>1.86</v>
       </c>
       <c r="M55">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="N55">
-        <v>4.33</v>
+        <v>2.86</v>
       </c>
       <c r="O55">
+        <v>1.02</v>
+      </c>
+      <c r="P55">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>1.27</v>
+      </c>
+      <c r="R55">
+        <v>3.28</v>
+      </c>
+      <c r="S55">
+        <v>1.96</v>
+      </c>
+      <c r="T55">
+        <v>1.88</v>
+      </c>
+      <c r="U55">
+        <v>1.81</v>
+      </c>
+      <c r="V55">
+        <v>1.93</v>
+      </c>
+      <c r="W55">
+        <v>1.91</v>
+      </c>
+      <c r="X55">
+        <v>1.28</v>
+      </c>
+      <c r="Y55">
+        <v>1.25</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0.7</v>
+      </c>
+      <c r="AB55">
+        <v>0.98</v>
+      </c>
+      <c r="AC55">
         <v>1.01</v>
       </c>
-      <c r="P55">
-        <v>29</v>
-      </c>
-      <c r="Q55">
-        <v>1.07</v>
-      </c>
-      <c r="R55">
-        <v>7</v>
-      </c>
-      <c r="S55">
-        <v>1.33</v>
-      </c>
-      <c r="T55">
-        <v>3</v>
-      </c>
-      <c r="U55">
-        <v>1.83</v>
-      </c>
-      <c r="V55">
-        <v>1.85</v>
-      </c>
-      <c r="W55">
-        <v>1.04</v>
-      </c>
-      <c r="X55">
-        <v>1.11</v>
-      </c>
-      <c r="Y55">
-        <v>5.5</v>
-      </c>
-      <c r="Z55">
-        <v>2.36</v>
-      </c>
-      <c r="AA55">
-        <v>0.79</v>
-      </c>
-      <c r="AB55">
+      <c r="AD55">
+        <v>1.99</v>
+      </c>
+      <c r="AE55">
+        <v>2.8</v>
+      </c>
+      <c r="AF55">
+        <v>8</v>
+      </c>
+      <c r="AG55">
+        <v>1.59</v>
+      </c>
+      <c r="AH55">
+        <v>1.3</v>
+      </c>
+      <c r="AI55">
+        <v>3.1</v>
+      </c>
+      <c r="AJ55">
+        <v>1.61</v>
+      </c>
+      <c r="AK55">
+        <v>2.27</v>
+      </c>
+      <c r="AL55">
         <v>1.9</v>
       </c>
-      <c r="AC55">
-        <v>1.34</v>
-      </c>
-      <c r="AD55">
-        <v>3.24</v>
-      </c>
-      <c r="AE55">
-        <v>1.18</v>
-      </c>
-      <c r="AF55">
-        <v>11</v>
-      </c>
-      <c r="AG55">
-        <v>5.5</v>
-      </c>
-      <c r="AH55">
-        <v>1.32</v>
-      </c>
-      <c r="AI55">
-        <v>3.05</v>
-      </c>
-      <c r="AJ55">
-        <v>1.58</v>
-      </c>
-      <c r="AK55">
-        <v>2.2</v>
-      </c>
-      <c r="AL55">
-        <v>1.98</v>
-      </c>
       <c r="AM55">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AN55">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="AO55">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AP55">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AQ55">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -8407,34 +8407,34 @@
         <v>238</v>
       </c>
       <c r="G56">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H56">
         <v>2.23</v>
       </c>
       <c r="I56">
-        <v>4.4</v>
+        <v>3.07</v>
       </c>
       <c r="J56">
-        <v>2.04</v>
+        <v>3.25</v>
       </c>
       <c r="K56">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L56">
-        <v>3.69</v>
+        <v>2.18</v>
       </c>
       <c r="M56">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="N56">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="O56">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P56">
-        <v>8.800000000000001</v>
+        <v>6.85</v>
       </c>
       <c r="Q56">
         <v>1.28</v>
@@ -8443,79 +8443,79 @@
         <v>3.18</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="T56">
+        <v>2.29</v>
+      </c>
+      <c r="U56">
+        <v>1.73</v>
+      </c>
+      <c r="V56">
+        <v>2.04</v>
+      </c>
+      <c r="W56">
+        <v>1.61</v>
+      </c>
+      <c r="X56">
+        <v>1.41</v>
+      </c>
+      <c r="Y56">
+        <v>1.3</v>
+      </c>
+      <c r="Z56">
+        <v>1.4</v>
+      </c>
+      <c r="AA56">
         <v>1.8</v>
       </c>
-      <c r="U56">
-        <v>1.8</v>
-      </c>
-      <c r="V56">
-        <v>1.95</v>
-      </c>
-      <c r="W56">
-        <v>1.3</v>
-      </c>
-      <c r="X56">
-        <v>1.3</v>
-      </c>
-      <c r="Y56">
-        <v>1.78</v>
-      </c>
-      <c r="Z56">
-        <v>1.6</v>
-      </c>
-      <c r="AA56">
-        <v>0.6</v>
-      </c>
       <c r="AB56">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AC56">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="AD56">
-        <v>2.53</v>
+        <v>3.04</v>
       </c>
       <c r="AE56">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AF56">
         <v>8</v>
       </c>
       <c r="AG56">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="AH56">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AI56">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="AJ56">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AK56">
-        <v>2.75</v>
+        <v>2.53</v>
       </c>
       <c r="AL56">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AM56">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AN56">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="AO56">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AP56">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="AQ56">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -8547,13 +8547,13 @@
         <v>5.5</v>
       </c>
       <c r="J57">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="K57">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="L57">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="M57">
         <v>1.29</v>
@@ -8574,10 +8574,10 @@
         <v>4.33</v>
       </c>
       <c r="S57">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="T57">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="U57">
         <v>1.73</v>
@@ -8669,97 +8669,97 @@
         <v>240</v>
       </c>
       <c r="G58">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H58">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="I58">
-        <v>3.07</v>
+        <v>2.4</v>
       </c>
       <c r="J58">
-        <v>3.56</v>
+        <v>3.35</v>
       </c>
       <c r="K58">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L58">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="M58">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="N58">
-        <v>3.01</v>
+        <v>3.2</v>
       </c>
       <c r="O58">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P58">
-        <v>6.85</v>
+        <v>10.5</v>
       </c>
       <c r="Q58">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R58">
-        <v>3.18</v>
+        <v>3.75</v>
       </c>
       <c r="S58">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="T58">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="U58">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="V58">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="W58">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="X58">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="Y58">
         <v>1.3</v>
       </c>
       <c r="Z58">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AA58">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AB58">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AC58">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AD58">
-        <v>3.04</v>
+        <v>2.64</v>
       </c>
       <c r="AE58">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AF58">
         <v>8</v>
       </c>
       <c r="AG58">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AH58">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AI58">
-        <v>3.56</v>
+        <v>3.8</v>
       </c>
       <c r="AJ58">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AK58">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="AL58">
         <v>1.88</v>
@@ -8768,21 +8768,21 @@
         <v>1.92</v>
       </c>
       <c r="AN58">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="AO58">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AP58">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="AQ58">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="59" spans="1:43">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2">
         <v>45361</v>
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
         <v>158</v>
@@ -8800,115 +8800,115 @@
         <v>241</v>
       </c>
       <c r="G59">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="H59">
-        <v>2.16</v>
+        <v>3.2</v>
       </c>
       <c r="I59">
-        <v>2.46</v>
+        <v>9.5</v>
       </c>
       <c r="J59">
-        <v>4.08</v>
+        <v>1.17</v>
       </c>
       <c r="K59">
-        <v>3.78</v>
+        <v>7.4</v>
       </c>
       <c r="L59">
-        <v>1.82</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="N59">
-        <v>2.86</v>
+        <v>4.33</v>
       </c>
       <c r="O59">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P59">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Q59">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="R59">
-        <v>3.28</v>
+        <v>7</v>
       </c>
       <c r="S59">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="T59">
-        <v>1.97</v>
+        <v>3.15</v>
       </c>
       <c r="U59">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V59">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="X59">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="Y59">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AA59">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
       <c r="AB59">
-        <v>0.98</v>
+        <v>1.9</v>
       </c>
       <c r="AC59">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="AD59">
-        <v>1.99</v>
+        <v>3.24</v>
       </c>
       <c r="AE59">
-        <v>2.8</v>
+        <v>1.18</v>
       </c>
       <c r="AF59">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG59">
-        <v>1.59</v>
+        <v>5.5</v>
       </c>
       <c r="AH59">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AI59">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AJ59">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AK59">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="AL59">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AM59">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="AN59">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="AO59">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AP59">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -8931,120 +8931,120 @@
         <v>242</v>
       </c>
       <c r="G60">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H60">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="I60">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="J60">
-        <v>3.71</v>
+        <v>2.04</v>
       </c>
       <c r="K60">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L60">
-        <v>1.97</v>
+        <v>3.45</v>
       </c>
       <c r="M60">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="N60">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="O60">
         <v>1.02</v>
       </c>
       <c r="P60">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q60">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R60">
-        <v>3.75</v>
+        <v>3.18</v>
       </c>
       <c r="S60">
+        <v>1.99</v>
+      </c>
+      <c r="T60">
+        <v>1.85</v>
+      </c>
+      <c r="U60">
+        <v>1.8</v>
+      </c>
+      <c r="V60">
+        <v>1.95</v>
+      </c>
+      <c r="W60">
+        <v>1.3</v>
+      </c>
+      <c r="X60">
+        <v>1.3</v>
+      </c>
+      <c r="Y60">
+        <v>1.78</v>
+      </c>
+      <c r="Z60">
+        <v>1.6</v>
+      </c>
+      <c r="AA60">
+        <v>0.6</v>
+      </c>
+      <c r="AB60">
+        <v>1.31</v>
+      </c>
+      <c r="AC60">
+        <v>1.22</v>
+      </c>
+      <c r="AD60">
+        <v>2.53</v>
+      </c>
+      <c r="AE60">
         <v>1.75</v>
-      </c>
-      <c r="T60">
-        <v>2.01</v>
-      </c>
-      <c r="U60">
-        <v>1.65</v>
-      </c>
-      <c r="V60">
-        <v>2.2</v>
-      </c>
-      <c r="W60">
-        <v>1.83</v>
-      </c>
-      <c r="X60">
-        <v>1.22</v>
-      </c>
-      <c r="Y60">
-        <v>1.3</v>
-      </c>
-      <c r="Z60">
-        <v>1.8</v>
-      </c>
-      <c r="AA60">
-        <v>2.1</v>
-      </c>
-      <c r="AB60">
-        <v>1.16</v>
-      </c>
-      <c r="AC60">
-        <v>1.48</v>
-      </c>
-      <c r="AD60">
-        <v>2.64</v>
-      </c>
-      <c r="AE60">
-        <v>2.44</v>
       </c>
       <c r="AF60">
         <v>8</v>
       </c>
       <c r="AG60">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="AH60">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AI60">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AJ60">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AK60">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AL60">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AM60">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="AN60">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AO60">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AP60">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="AQ60">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="61" spans="1:43">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2">
         <v>45361</v>
@@ -9071,13 +9071,13 @@
         <v>4</v>
       </c>
       <c r="J61">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="K61">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="L61">
-        <v>3.58</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
         <v>1.4</v>
@@ -9098,10 +9098,10 @@
         <v>3.2</v>
       </c>
       <c r="S61">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="T61">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U61">
         <v>1.8</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>45361</v>
@@ -9184,7 +9184,7 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
         <v>161</v>
@@ -9193,120 +9193,120 @@
         <v>244</v>
       </c>
       <c r="G62">
-        <v>3.75</v>
+        <v>1.62</v>
       </c>
       <c r="H62">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="I62">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="J62">
-        <v>3.47</v>
+        <v>1.22</v>
       </c>
       <c r="K62">
-        <v>3.22</v>
+        <v>6</v>
       </c>
       <c r="L62">
-        <v>2.17</v>
+        <v>11</v>
       </c>
       <c r="M62">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="N62">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O62">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P62">
-        <v>9.300000000000001</v>
+        <v>12</v>
       </c>
       <c r="Q62">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="R62">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="S62">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="T62">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="U62">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="W62">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="X62">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="Y62">
-        <v>1.28</v>
+        <v>3.6</v>
       </c>
       <c r="Z62">
-        <v>1.64</v>
+        <v>2.23</v>
       </c>
       <c r="AA62">
-        <v>1.45</v>
+        <v>0.92</v>
       </c>
       <c r="AB62">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="AC62">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AD62">
         <v>3.14</v>
       </c>
       <c r="AE62">
-        <v>2.39</v>
+        <v>1.23</v>
       </c>
       <c r="AF62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG62">
-        <v>1.82</v>
+        <v>5.15</v>
       </c>
       <c r="AH62">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AI62">
-        <v>3.7</v>
+        <v>2.71</v>
       </c>
       <c r="AJ62">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AK62">
-        <v>2.6</v>
+        <v>2.03</v>
       </c>
       <c r="AL62">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AM62">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="AN62">
-        <v>2.16</v>
+        <v>2.91</v>
       </c>
       <c r="AO62">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="AQ62">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="63" spans="1:43">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2">
         <v>45361</v>
@@ -9315,7 +9315,7 @@
         <v>89</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
         <v>162</v>
@@ -9324,115 +9324,115 @@
         <v>245</v>
       </c>
       <c r="G63">
-        <v>1.62</v>
+        <v>3.75</v>
       </c>
       <c r="H63">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="J63">
-        <v>1.22</v>
+        <v>3.6</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="L63">
-        <v>11</v>
+        <v>1.97</v>
       </c>
       <c r="M63">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="N63">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O63">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P63">
-        <v>12</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q63">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="R63">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="S63">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="T63">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="U63">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V63">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="X63">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="Y63">
-        <v>3.6</v>
+        <v>1.28</v>
       </c>
       <c r="Z63">
-        <v>2.23</v>
+        <v>1.64</v>
       </c>
       <c r="AA63">
-        <v>0.92</v>
+        <v>1.45</v>
       </c>
       <c r="AB63">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AC63">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AD63">
         <v>3.14</v>
       </c>
       <c r="AE63">
-        <v>1.23</v>
+        <v>2.39</v>
       </c>
       <c r="AF63">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG63">
-        <v>5.15</v>
+        <v>1.82</v>
       </c>
       <c r="AH63">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AI63">
-        <v>2.71</v>
+        <v>3.7</v>
       </c>
       <c r="AJ63">
+        <v>1.4</v>
+      </c>
+      <c r="AK63">
+        <v>2.6</v>
+      </c>
+      <c r="AL63">
         <v>1.7</v>
       </c>
-      <c r="AK63">
-        <v>2.03</v>
-      </c>
-      <c r="AL63">
-        <v>2.15</v>
-      </c>
       <c r="AM63">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="AN63">
-        <v>2.91</v>
+        <v>2.16</v>
       </c>
       <c r="AO63">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="AP63">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="AQ63">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="64" spans="1:43">
@@ -9464,13 +9464,13 @@
         <v>4.55</v>
       </c>
       <c r="J64">
-        <v>1.97</v>
+        <v>2.24</v>
       </c>
       <c r="K64">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="L64">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M64">
         <v>1.48</v>
@@ -9491,10 +9491,10 @@
         <v>2.84</v>
       </c>
       <c r="S64">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="T64">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -9595,13 +9595,13 @@
         <v>3.6</v>
       </c>
       <c r="J65">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="K65">
-        <v>3.97</v>
+        <v>3.75</v>
       </c>
       <c r="L65">
-        <v>3.88</v>
+        <v>3.3</v>
       </c>
       <c r="M65">
         <v>1.3</v>
@@ -9622,10 +9622,10 @@
         <v>4.45</v>
       </c>
       <c r="S65">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="T65">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="U65">
         <v>1.53</v>
@@ -9726,13 +9726,13 @@
         <v>2.63</v>
       </c>
       <c r="J66">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="K66">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="M66">
         <v>1.4</v>
@@ -9753,10 +9753,10 @@
         <v>3.4</v>
       </c>
       <c r="S66">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="T66">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U66">
         <v>1.75</v>
@@ -9830,7 +9830,7 @@
     </row>
     <row r="67" spans="1:43">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B67" s="2">
         <v>45361</v>
@@ -9857,13 +9857,13 @@
         <v>3.13</v>
       </c>
       <c r="J67">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
       <c r="K67">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="L67">
-        <v>2.28</v>
+        <v>2.49</v>
       </c>
       <c r="M67">
         <v>1.42</v>
@@ -9929,10 +9929,10 @@
         <v>2</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ67">
         <v>1.24</v>
@@ -9988,13 +9988,13 @@
         <v>4</v>
       </c>
       <c r="J68">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="K68">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="L68">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
         <v>1.44</v>
@@ -10015,10 +10015,10 @@
         <v>3.3</v>
       </c>
       <c r="S68">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="T68">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U68">
         <v>1.91</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="2">
         <v>45361</v>
@@ -10119,13 +10119,13 @@
         <v>5</v>
       </c>
       <c r="J69">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K69">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="L69">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="M69">
         <v>1.3</v>
@@ -10146,10 +10146,10 @@
         <v>4.33</v>
       </c>
       <c r="S69">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="T69">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="U69">
         <v>1.7</v>
@@ -10250,13 +10250,13 @@
         <v>8</v>
       </c>
       <c r="J70">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="K70">
-        <v>5.95</v>
+        <v>5.8</v>
       </c>
       <c r="L70">
-        <v>10.25</v>
+        <v>9.4</v>
       </c>
       <c r="M70">
         <v>1.25</v>
@@ -10277,10 +10277,10 @@
         <v>4.8</v>
       </c>
       <c r="S70">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="T70">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U70">
         <v>1.95</v>
@@ -10381,13 +10381,13 @@
         <v>5.5</v>
       </c>
       <c r="J71">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="K71">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="L71">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="M71">
         <v>1.5</v>
@@ -10408,10 +10408,10 @@
         <v>3.05</v>
       </c>
       <c r="S71">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="T71">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="U71">
         <v>2.1</v>
@@ -10512,13 +10512,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="K72">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L72">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -10539,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="T72">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -10616,7 +10616,7 @@
     </row>
     <row r="73" spans="1:43">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="2">
         <v>45361</v>
@@ -10643,13 +10643,13 @@
         <v>2.75</v>
       </c>
       <c r="J73">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K73">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -10670,10 +10670,10 @@
         <v>3.3</v>
       </c>
       <c r="S73">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="T73">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U73">
         <v>1.8</v>
@@ -10747,7 +10747,7 @@
     </row>
     <row r="74" spans="1:43">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2">
         <v>45361</v>
@@ -10756,7 +10756,7 @@
         <v>94</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
         <v>173</v>
@@ -10765,120 +10765,120 @@
         <v>256</v>
       </c>
       <c r="G74">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H74">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="J74">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="K74">
-        <v>3.15</v>
+        <v>5.6</v>
       </c>
       <c r="L74">
-        <v>3.67</v>
+        <v>8.6</v>
       </c>
       <c r="M74">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="N74">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O74">
+        <v>1.03</v>
+      </c>
+      <c r="P74">
+        <v>22</v>
+      </c>
+      <c r="Q74">
+        <v>1.13</v>
+      </c>
+      <c r="R74">
+        <v>5.2</v>
+      </c>
+      <c r="S74">
+        <v>1.44</v>
+      </c>
+      <c r="T74">
+        <v>2.51</v>
+      </c>
+      <c r="U74">
+        <v>1.91</v>
+      </c>
+      <c r="V74">
+        <v>1.91</v>
+      </c>
+      <c r="W74">
         <v>1.04</v>
       </c>
-      <c r="P74">
-        <v>7.7</v>
-      </c>
-      <c r="Q74">
+      <c r="X74">
+        <v>1.11</v>
+      </c>
+      <c r="Y74">
+        <v>3.2</v>
+      </c>
+      <c r="Z74">
+        <v>2.67</v>
+      </c>
+      <c r="AA74">
+        <v>0.75</v>
+      </c>
+      <c r="AB74">
+        <v>2.15</v>
+      </c>
+      <c r="AC74">
+        <v>1.33</v>
+      </c>
+      <c r="AD74">
+        <v>3.48</v>
+      </c>
+      <c r="AE74">
+        <v>1.2</v>
+      </c>
+      <c r="AF74">
+        <v>12.5</v>
+      </c>
+      <c r="AG74">
+        <v>5.85</v>
+      </c>
+      <c r="AH74">
+        <v>1.2</v>
+      </c>
+      <c r="AI74">
+        <v>3.84</v>
+      </c>
+      <c r="AJ74">
+        <v>1.41</v>
+      </c>
+      <c r="AK74">
+        <v>2.73</v>
+      </c>
+      <c r="AL74">
+        <v>1.72</v>
+      </c>
+      <c r="AM74">
+        <v>2.11</v>
+      </c>
+      <c r="AN74">
+        <v>2.15</v>
+      </c>
+      <c r="AO74">
+        <v>1.69</v>
+      </c>
+      <c r="AP74">
+        <v>2.79</v>
+      </c>
+      <c r="AQ74">
         <v>1.36</v>
-      </c>
-      <c r="R74">
-        <v>2.8</v>
-      </c>
-      <c r="S74">
-        <v>2.09</v>
-      </c>
-      <c r="T74">
-        <v>1.66</v>
-      </c>
-      <c r="U74">
-        <v>2</v>
-      </c>
-      <c r="V74">
-        <v>1.75</v>
-      </c>
-      <c r="W74">
-        <v>1.26</v>
-      </c>
-      <c r="X74">
-        <v>1.32</v>
-      </c>
-      <c r="Y74">
-        <v>1.82</v>
-      </c>
-      <c r="Z74">
-        <v>2.31</v>
-      </c>
-      <c r="AA74">
-        <v>2</v>
-      </c>
-      <c r="AB74">
-        <v>2.06</v>
-      </c>
-      <c r="AC74">
-        <v>1.55</v>
-      </c>
-      <c r="AD74">
-        <v>3.61</v>
-      </c>
-      <c r="AE74">
-        <v>1.66</v>
-      </c>
-      <c r="AF74">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG74">
-        <v>2.65</v>
-      </c>
-      <c r="AH74">
-        <v>1.35</v>
-      </c>
-      <c r="AI74">
-        <v>2.84</v>
-      </c>
-      <c r="AJ74">
-        <v>1.9</v>
-      </c>
-      <c r="AK74">
-        <v>1.9</v>
-      </c>
-      <c r="AL74">
-        <v>2.13</v>
-      </c>
-      <c r="AM74">
-        <v>1.67</v>
-      </c>
-      <c r="AN74">
-        <v>2.8</v>
-      </c>
-      <c r="AO74">
-        <v>1.38</v>
-      </c>
-      <c r="AP74">
-        <v>3.92</v>
-      </c>
-      <c r="AQ74">
-        <v>1.19</v>
       </c>
     </row>
     <row r="75" spans="1:43">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B75" s="2">
         <v>45361</v>
@@ -10887,7 +10887,7 @@
         <v>94</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
         <v>174</v>
@@ -10896,115 +10896,115 @@
         <v>257</v>
       </c>
       <c r="G75">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H75">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="I75">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="J75">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="K75">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="L75">
-        <v>8.65</v>
+        <v>4.4</v>
       </c>
       <c r="M75">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="O75">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P75">
-        <v>22</v>
+        <v>7.7</v>
       </c>
       <c r="Q75">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="R75">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="S75">
-        <v>1.52</v>
+        <v>2.07</v>
       </c>
       <c r="T75">
-        <v>2.43</v>
+        <v>1.54</v>
       </c>
       <c r="U75">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V75">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W75">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="X75">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="Y75">
-        <v>3.2</v>
+        <v>1.82</v>
       </c>
       <c r="Z75">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AA75">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AB75">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="AC75">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AD75">
-        <v>3.48</v>
+        <v>3.61</v>
       </c>
       <c r="AE75">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="AF75">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG75">
-        <v>5.85</v>
+        <v>2.65</v>
       </c>
       <c r="AH75">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AI75">
-        <v>3.84</v>
+        <v>2.84</v>
       </c>
       <c r="AJ75">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="AK75">
-        <v>2.73</v>
+        <v>1.9</v>
       </c>
       <c r="AL75">
-        <v>1.72</v>
+        <v>2.13</v>
       </c>
       <c r="AM75">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="AN75">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="AO75">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AP75">
-        <v>2.79</v>
+        <v>3.92</v>
       </c>
       <c r="AQ75">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="76" spans="1:43">
@@ -11036,13 +11036,13 @@
         <v>2.5</v>
       </c>
       <c r="J76">
-        <v>3.38</v>
+        <v>3.45</v>
       </c>
       <c r="K76">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="L76">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="M76">
         <v>1.37</v>
@@ -11066,7 +11066,7 @@
         <v>2.05</v>
       </c>
       <c r="T76">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="U76">
         <v>1.6</v>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="77" spans="1:43">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B77" s="2">
         <v>45361</v>
@@ -11149,7 +11149,7 @@
         <v>96</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E77" t="s">
         <v>176</v>
@@ -11158,120 +11158,120 @@
         <v>259</v>
       </c>
       <c r="G77">
+        <v>1.36</v>
+      </c>
+      <c r="H77">
+        <v>3.75</v>
+      </c>
+      <c r="I77">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>1.09</v>
+      </c>
+      <c r="K77">
+        <v>11</v>
+      </c>
+      <c r="L77">
+        <v>24</v>
+      </c>
+      <c r="M77">
+        <v>1.14</v>
+      </c>
+      <c r="N77">
+        <v>5.5</v>
+      </c>
+      <c r="O77">
+        <v>1.01</v>
+      </c>
+      <c r="P77">
+        <v>17</v>
+      </c>
+      <c r="Q77">
+        <v>1.05</v>
+      </c>
+      <c r="R77">
+        <v>8</v>
+      </c>
+      <c r="S77">
+        <v>1.23</v>
+      </c>
+      <c r="T77">
+        <v>3.59</v>
+      </c>
+      <c r="U77">
         <v>2.1</v>
       </c>
-      <c r="H77">
+      <c r="V77">
+        <v>1.67</v>
+      </c>
+      <c r="W77">
+        <v>1.01</v>
+      </c>
+      <c r="X77">
+        <v>1.04</v>
+      </c>
+      <c r="Y77">
+        <v>9.5</v>
+      </c>
+      <c r="Z77">
         <v>2.25</v>
       </c>
-      <c r="I77">
-        <v>6</v>
-      </c>
-      <c r="J77">
-        <v>1.53</v>
-      </c>
-      <c r="K77">
-        <v>4.2</v>
-      </c>
-      <c r="L77">
-        <v>6</v>
-      </c>
-      <c r="M77">
-        <v>1.36</v>
-      </c>
-      <c r="N77">
-        <v>3</v>
-      </c>
-      <c r="O77">
+      <c r="AA77">
+        <v>0.67</v>
+      </c>
+      <c r="AB77">
+        <v>2.41</v>
+      </c>
+      <c r="AC77">
         <v>1.03</v>
       </c>
-      <c r="P77">
-        <v>15</v>
-      </c>
-      <c r="Q77">
-        <v>1.26</v>
-      </c>
-      <c r="R77">
-        <v>4</v>
-      </c>
-      <c r="S77">
-        <v>1.9</v>
-      </c>
-      <c r="T77">
-        <v>1.9</v>
-      </c>
-      <c r="U77">
-        <v>2</v>
-      </c>
-      <c r="V77">
-        <v>1.75</v>
-      </c>
-      <c r="W77">
-        <v>1.11</v>
-      </c>
-      <c r="X77">
-        <v>1.21</v>
-      </c>
-      <c r="Y77">
-        <v>2.68</v>
-      </c>
-      <c r="Z77">
-        <v>2.46</v>
-      </c>
-      <c r="AA77">
-        <v>1.15</v>
-      </c>
-      <c r="AB77">
-        <v>1.83</v>
-      </c>
-      <c r="AC77">
-        <v>1.09</v>
-      </c>
       <c r="AD77">
-        <v>2.92</v>
+        <v>3.44</v>
       </c>
       <c r="AE77">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AF77">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG77">
-        <v>5.05</v>
+        <v>11.5</v>
       </c>
       <c r="AH77">
+        <v>1.17</v>
+      </c>
+      <c r="AI77">
+        <v>4.1</v>
+      </c>
+      <c r="AJ77">
+        <v>1.33</v>
+      </c>
+      <c r="AK77">
+        <v>2.85</v>
+      </c>
+      <c r="AL77">
+        <v>1.57</v>
+      </c>
+      <c r="AM77">
+        <v>2.18</v>
+      </c>
+      <c r="AN77">
+        <v>1.93</v>
+      </c>
+      <c r="AO77">
+        <v>1.76</v>
+      </c>
+      <c r="AP77">
+        <v>2.43</v>
+      </c>
+      <c r="AQ77">
         <v>1.46</v>
-      </c>
-      <c r="AI77">
-        <v>2.52</v>
-      </c>
-      <c r="AJ77">
-        <v>1.9</v>
-      </c>
-      <c r="AK77">
-        <v>1.9</v>
-      </c>
-      <c r="AL77">
-        <v>2.39</v>
-      </c>
-      <c r="AM77">
-        <v>1.51</v>
-      </c>
-      <c r="AN77">
-        <v>3.2</v>
-      </c>
-      <c r="AO77">
-        <v>1.28</v>
-      </c>
-      <c r="AP77">
-        <v>4.5</v>
-      </c>
-      <c r="AQ77">
-        <v>1.18</v>
       </c>
     </row>
     <row r="78" spans="1:43">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B78" s="2">
         <v>45361</v>
@@ -11280,7 +11280,7 @@
         <v>96</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>177</v>
@@ -11289,120 +11289,120 @@
         <v>260</v>
       </c>
       <c r="G78">
+        <v>2.1</v>
+      </c>
+      <c r="H78">
+        <v>2.25</v>
+      </c>
+      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <v>1.53</v>
+      </c>
+      <c r="K78">
+        <v>4.2</v>
+      </c>
+      <c r="L78">
+        <v>6</v>
+      </c>
+      <c r="M78">
         <v>1.36</v>
       </c>
-      <c r="H78">
-        <v>3.75</v>
-      </c>
-      <c r="I78">
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>1.03</v>
+      </c>
+      <c r="P78">
         <v>15</v>
       </c>
-      <c r="J78">
+      <c r="Q78">
+        <v>1.26</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>1.9</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
+        <v>1.75</v>
+      </c>
+      <c r="W78">
+        <v>1.11</v>
+      </c>
+      <c r="X78">
+        <v>1.21</v>
+      </c>
+      <c r="Y78">
+        <v>2.68</v>
+      </c>
+      <c r="Z78">
+        <v>2.46</v>
+      </c>
+      <c r="AA78">
+        <v>1.15</v>
+      </c>
+      <c r="AB78">
+        <v>1.83</v>
+      </c>
+      <c r="AC78">
         <v>1.09</v>
       </c>
-      <c r="K78">
+      <c r="AD78">
+        <v>2.92</v>
+      </c>
+      <c r="AE78">
+        <v>1.25</v>
+      </c>
+      <c r="AF78">
         <v>10.5</v>
       </c>
-      <c r="L78">
-        <v>22.5</v>
-      </c>
-      <c r="M78">
-        <v>1.14</v>
-      </c>
-      <c r="N78">
-        <v>5.5</v>
-      </c>
-      <c r="O78">
-        <v>1.01</v>
-      </c>
-      <c r="P78">
-        <v>17</v>
-      </c>
-      <c r="Q78">
-        <v>1.05</v>
-      </c>
-      <c r="R78">
-        <v>8</v>
-      </c>
-      <c r="S78">
-        <v>1.26</v>
-      </c>
-      <c r="T78">
-        <v>3.63</v>
-      </c>
-      <c r="U78">
-        <v>2.1</v>
-      </c>
-      <c r="V78">
-        <v>1.67</v>
-      </c>
-      <c r="W78">
-        <v>1.01</v>
-      </c>
-      <c r="X78">
-        <v>1.04</v>
-      </c>
-      <c r="Y78">
-        <v>9.5</v>
-      </c>
-      <c r="Z78">
-        <v>2.25</v>
-      </c>
-      <c r="AA78">
-        <v>0.67</v>
-      </c>
-      <c r="AB78">
-        <v>2.41</v>
-      </c>
-      <c r="AC78">
-        <v>1.03</v>
-      </c>
-      <c r="AD78">
-        <v>3.44</v>
-      </c>
-      <c r="AE78">
-        <v>1.1</v>
-      </c>
-      <c r="AF78">
-        <v>17</v>
-      </c>
       <c r="AG78">
-        <v>11.5</v>
+        <v>5.05</v>
       </c>
       <c r="AH78">
-        <v>1.17</v>
+        <v>1.46</v>
       </c>
       <c r="AI78">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="AJ78">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="AK78">
-        <v>2.85</v>
+        <v>1.9</v>
       </c>
       <c r="AL78">
-        <v>1.57</v>
+        <v>2.39</v>
       </c>
       <c r="AM78">
-        <v>2.18</v>
+        <v>1.51</v>
       </c>
       <c r="AN78">
-        <v>1.93</v>
+        <v>3.2</v>
       </c>
       <c r="AO78">
-        <v>1.76</v>
+        <v>1.28</v>
       </c>
       <c r="AP78">
-        <v>2.43</v>
+        <v>4.5</v>
       </c>
       <c r="AQ78">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="79" spans="1:43">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B79" s="2">
         <v>45361</v>
@@ -11429,13 +11429,13 @@
         <v>2.85</v>
       </c>
       <c r="J79">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K79">
-        <v>3.08</v>
+        <v>3.4</v>
       </c>
       <c r="L79">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="M79">
         <v>1.4</v>
@@ -11456,10 +11456,10 @@
         <v>3.3</v>
       </c>
       <c r="S79">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T79">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U79">
         <v>1.72</v>
@@ -11501,10 +11501,10 @@
         <v>1.92</v>
       </c>
       <c r="AH79">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI79">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ79">
         <v>1.41</v>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B80" s="2">
         <v>45361</v>
@@ -11560,13 +11560,13 @@
         <v>6</v>
       </c>
       <c r="J80">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="K80">
-        <v>4.08</v>
+        <v>4.1</v>
       </c>
       <c r="L80">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="M80">
         <v>1.36</v>
@@ -11587,10 +11587,10 @@
         <v>3.4</v>
       </c>
       <c r="S80">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T80">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
         <v>1.95</v>
@@ -11691,13 +11691,13 @@
         <v>3.5</v>
       </c>
       <c r="J81">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="K81">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L81">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="M81">
         <v>1.4</v>
@@ -11718,10 +11718,10 @@
         <v>3.4</v>
       </c>
       <c r="S81">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="U81">
         <v>1.75</v>
@@ -11822,13 +11822,13 @@
         <v>2.7</v>
       </c>
       <c r="J82">
-        <v>4.22</v>
+        <v>3.45</v>
       </c>
       <c r="K82">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="L82">
-        <v>1.82</v>
+        <v>2.24</v>
       </c>
       <c r="M82">
         <v>1.53</v>
@@ -11849,10 +11849,10 @@
         <v>2.43</v>
       </c>
       <c r="S82">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="T82">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="U82">
         <v>2</v>
@@ -11953,13 +11953,13 @@
         <v>4</v>
       </c>
       <c r="J83">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="K83">
+        <v>3.7</v>
+      </c>
+      <c r="L83">
         <v>3.6</v>
-      </c>
-      <c r="L83">
-        <v>3.52</v>
       </c>
       <c r="M83">
         <v>1.33</v>
@@ -11980,10 +11980,10 @@
         <v>3.8</v>
       </c>
       <c r="S83">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T83">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U83">
         <v>1.67</v>
@@ -12084,13 +12084,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K84">
         <v>7.4</v>
       </c>
       <c r="L84">
-        <v>13.75</v>
+        <v>14</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -12114,7 +12114,7 @@
         <v>1.36</v>
       </c>
       <c r="T84">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U84">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -2045,10 +2045,10 @@
         <v>1.53</v>
       </c>
       <c r="Z7">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AB7">
         <v>1.47</v>
@@ -2176,10 +2176,10 @@
         <v>1.68</v>
       </c>
       <c r="Z8">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AA8">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AB8">
         <v>1.52</v>
@@ -2307,10 +2307,10 @@
         <v>1.46</v>
       </c>
       <c r="Z9">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AA9">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AB9">
         <v>1.32</v>
@@ -2438,10 +2438,10 @@
         <v>1.41</v>
       </c>
       <c r="Z10">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AB10">
         <v>1.58</v>
@@ -2569,10 +2569,10 @@
         <v>3.1</v>
       </c>
       <c r="Z11">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AA11">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AB11">
         <v>1.76</v>
@@ -2700,10 +2700,10 @@
         <v>2.3</v>
       </c>
       <c r="Z12">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA12">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AB12">
         <v>1.89</v>
@@ -2831,10 +2831,10 @@
         <v>2.29</v>
       </c>
       <c r="Z13">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AA13">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AB13">
         <v>1.91</v>
@@ -2962,10 +2962,10 @@
         <v>1.98</v>
       </c>
       <c r="Z14">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AA14">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AB14">
         <v>1.49</v>
@@ -3093,10 +3093,10 @@
         <v>2.02</v>
       </c>
       <c r="Z15">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AB15">
         <v>1.72</v>
@@ -3224,10 +3224,10 @@
         <v>1.62</v>
       </c>
       <c r="Z16">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AA16">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AB16">
         <v>1.24</v>
@@ -3355,10 +3355,10 @@
         <v>1.68</v>
       </c>
       <c r="Z17">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AB17">
         <v>1.4</v>
@@ -3486,10 +3486,10 @@
         <v>1.49</v>
       </c>
       <c r="Z18">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AA18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB18">
         <v>1.27</v>
@@ -3617,10 +3617,10 @@
         <v>1.54</v>
       </c>
       <c r="Z19">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="AA19">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AB19">
         <v>1.68</v>
@@ -3748,10 +3748,10 @@
         <v>1.5</v>
       </c>
       <c r="Z20">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AA20">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AB20">
         <v>1.46</v>
@@ -3879,10 +3879,10 @@
         <v>1.26</v>
       </c>
       <c r="Z21">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="AA21">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AB21">
         <v>1.24</v>
@@ -4010,10 +4010,10 @@
         <v>1.85</v>
       </c>
       <c r="Z22">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AA22">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB22">
         <v>1.43</v>
@@ -4141,10 +4141,10 @@
         <v>1.55</v>
       </c>
       <c r="Z23">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AA23">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AB23">
         <v>1.39</v>
@@ -4272,10 +4272,10 @@
         <v>3</v>
       </c>
       <c r="Z24">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AA24">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AB24">
         <v>2.05</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="Z25">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AA25">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AB25">
         <v>1.98</v>
@@ -4537,7 +4537,7 @@
         <v>0.92</v>
       </c>
       <c r="AA26">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AB26">
         <v>1.4</v>
@@ -4665,10 +4665,10 @@
         <v>2.77</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AA27">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AB27">
         <v>1.83</v>
@@ -4796,10 +4796,10 @@
         <v>2.24</v>
       </c>
       <c r="Z28">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AA28">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AB28">
         <v>1.28</v>
@@ -4927,10 +4927,10 @@
         <v>2.4</v>
       </c>
       <c r="Z29">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AA29">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AB29">
         <v>2.15</v>
@@ -5058,10 +5058,10 @@
         <v>2.1</v>
       </c>
       <c r="Z30">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AB30">
         <v>1.91</v>
@@ -5189,10 +5189,10 @@
         <v>1.07</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AA31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AB31">
         <v>0.92</v>
@@ -5320,10 +5320,10 @@
         <v>1.85</v>
       </c>
       <c r="Z32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA32">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="AB32">
         <v>1.4</v>
@@ -5451,10 +5451,10 @@
         <v>2.16</v>
       </c>
       <c r="Z33">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AA33">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AB33">
         <v>1.87</v>
@@ -5582,10 +5582,10 @@
         <v>1.24</v>
       </c>
       <c r="Z34">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AA34">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AB34">
         <v>1.34</v>
@@ -5713,10 +5713,10 @@
         <v>1.45</v>
       </c>
       <c r="Z35">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AA35">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AB35">
         <v>1.45</v>
@@ -5844,10 +5844,10 @@
         <v>1.62</v>
       </c>
       <c r="Z36">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AA36">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AB36">
         <v>1.18</v>
@@ -5975,10 +5975,10 @@
         <v>2.69</v>
       </c>
       <c r="Z37">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AA37">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AB37">
         <v>1.47</v>
@@ -6106,10 +6106,10 @@
         <v>1.35</v>
       </c>
       <c r="Z38">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AA38">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AB38">
         <v>1.59</v>
@@ -6237,10 +6237,10 @@
         <v>5</v>
       </c>
       <c r="Z39">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AB39">
         <v>2.37</v>
@@ -6368,10 +6368,10 @@
         <v>1.1</v>
       </c>
       <c r="Z40">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AA40">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AB40">
         <v>1.17</v>
@@ -6499,10 +6499,10 @@
         <v>1.67</v>
       </c>
       <c r="Z41">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AA41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>1.67</v>
@@ -6630,10 +6630,10 @@
         <v>3.6</v>
       </c>
       <c r="Z42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AA42">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AB42">
         <v>2.05</v>
@@ -6713,13 +6713,13 @@
         <v>1.73</v>
       </c>
       <c r="J43">
-        <v>9.800000000000001</v>
+        <v>6.76</v>
       </c>
       <c r="K43">
-        <v>5.4</v>
+        <v>4.57</v>
       </c>
       <c r="L43">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M43">
         <v>1.29</v>
@@ -6740,10 +6740,10 @@
         <v>4.75</v>
       </c>
       <c r="S43">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="T43">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="U43">
         <v>2.05</v>
@@ -6761,10 +6761,10 @@
         <v>1.06</v>
       </c>
       <c r="Z43">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AA43">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AB43">
         <v>1.18</v>
@@ -6892,10 +6892,10 @@
         <v>3.5</v>
       </c>
       <c r="Z44">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AA44">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AB44">
         <v>1.83</v>
@@ -6975,13 +6975,13 @@
         <v>2.75</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K45">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="L45">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="M45">
         <v>1.44</v>
@@ -7002,10 +7002,10 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="T45">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="U45">
         <v>1.95</v>
@@ -7023,10 +7023,10 @@
         <v>1.27</v>
       </c>
       <c r="Z45">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AA45">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AB45">
         <v>1.12</v>
@@ -7106,13 +7106,13 @@
         <v>4.2</v>
       </c>
       <c r="J46">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K46">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="L46">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="M46">
         <v>1.5</v>
@@ -7133,7 +7133,7 @@
         <v>2.8</v>
       </c>
       <c r="S46">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="T46">
         <v>1.48</v>
@@ -7154,10 +7154,10 @@
         <v>1.7</v>
       </c>
       <c r="Z46">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AA46">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AB46">
         <v>1.55</v>
@@ -7237,13 +7237,13 @@
         <v>2.8</v>
       </c>
       <c r="J47">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="K47">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="L47">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="M47">
         <v>1.52</v>
@@ -7264,10 +7264,10 @@
         <v>2.45</v>
       </c>
       <c r="S47">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="T47">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="U47">
         <v>2</v>
@@ -7285,10 +7285,10 @@
         <v>1.25</v>
       </c>
       <c r="Z47">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AA47">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AB47">
         <v>1.58</v>
@@ -7368,13 +7368,13 @@
         <v>2.38</v>
       </c>
       <c r="J48">
-        <v>3.85</v>
+        <v>3.46</v>
       </c>
       <c r="K48">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="L48">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M48">
         <v>1.33</v>
@@ -7395,10 +7395,10 @@
         <v>4.2</v>
       </c>
       <c r="S48">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="T48">
-        <v>2.07</v>
+        <v>2.14</v>
       </c>
       <c r="U48">
         <v>1.67</v>
@@ -7416,10 +7416,10 @@
         <v>1.25</v>
       </c>
       <c r="Z48">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AA48">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB48">
         <v>1.5</v>
@@ -7499,13 +7499,13 @@
         <v>4.5</v>
       </c>
       <c r="J49">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="K49">
-        <v>3.55</v>
+        <v>3.22</v>
       </c>
       <c r="L49">
-        <v>4.5</v>
+        <v>3.87</v>
       </c>
       <c r="M49">
         <v>1.42</v>
@@ -7526,10 +7526,10 @@
         <v>3.1</v>
       </c>
       <c r="S49">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="T49">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U49">
         <v>1.85</v>
@@ -7547,10 +7547,10 @@
         <v>1.91</v>
       </c>
       <c r="Z49">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AA49">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AB49">
         <v>1.44</v>
@@ -7630,13 +7630,13 @@
         <v>2.6</v>
       </c>
       <c r="J50">
-        <v>3.5</v>
+        <v>3.14</v>
       </c>
       <c r="K50">
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="L50">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="M50">
         <v>1.3</v>
@@ -7657,7 +7657,7 @@
         <v>4.5</v>
       </c>
       <c r="S50">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="T50">
         <v>2.2</v>
@@ -7678,10 +7678,10 @@
         <v>1.3</v>
       </c>
       <c r="Z50">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AA50">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AB50">
         <v>1.27</v>
@@ -7761,13 +7761,13 @@
         <v>4.5</v>
       </c>
       <c r="J51">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="K51">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="L51">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M51">
         <v>1.33</v>
@@ -7791,7 +7791,7 @@
         <v>1.63</v>
       </c>
       <c r="T51">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U51">
         <v>1.67</v>
@@ -7809,10 +7809,10 @@
         <v>2.05</v>
       </c>
       <c r="Z51">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AA51">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AB51">
         <v>2.03</v>
@@ -7892,13 +7892,13 @@
         <v>2.2</v>
       </c>
       <c r="J52">
-        <v>4.7</v>
+        <v>4.88</v>
       </c>
       <c r="K52">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L52">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M52">
         <v>1.34</v>
@@ -7919,10 +7919,10 @@
         <v>3.75</v>
       </c>
       <c r="S52">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U52">
         <v>1.8</v>
@@ -7940,10 +7940,10 @@
         <v>1.12</v>
       </c>
       <c r="Z52">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AA52">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AB52">
         <v>1.96</v>
@@ -8023,13 +8023,13 @@
         <v>2.75</v>
       </c>
       <c r="J53">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="K53">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L53">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="M53">
         <v>1.25</v>
@@ -8050,10 +8050,10 @@
         <v>4.95</v>
       </c>
       <c r="S53">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="T53">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="U53">
         <v>1.44</v>
@@ -8071,10 +8071,10 @@
         <v>1.44</v>
       </c>
       <c r="Z53">
-        <v>2.69</v>
+        <v>2.57</v>
       </c>
       <c r="AA53">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AB53">
         <v>2.37</v>
@@ -8154,13 +8154,13 @@
         <v>3.6</v>
       </c>
       <c r="J54">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M54">
         <v>1.33</v>
@@ -8181,10 +8181,10 @@
         <v>3.9</v>
       </c>
       <c r="S54">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="T54">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="U54">
         <v>1.62</v>
@@ -8202,10 +8202,10 @@
         <v>1.71</v>
       </c>
       <c r="Z54">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AA54">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AB54">
         <v>1.69</v>
@@ -8285,13 +8285,13 @@
         <v>2.46</v>
       </c>
       <c r="J55">
-        <v>3.95</v>
+        <v>3.78</v>
       </c>
       <c r="K55">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L55">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="M55">
         <v>1.39</v>
@@ -8312,10 +8312,10 @@
         <v>3.28</v>
       </c>
       <c r="S55">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U55">
         <v>1.81</v>
@@ -8333,10 +8333,10 @@
         <v>1.25</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AA55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AB55">
         <v>0.98</v>
@@ -8416,13 +8416,13 @@
         <v>3.07</v>
       </c>
       <c r="J56">
-        <v>3.25</v>
+        <v>3.56</v>
       </c>
       <c r="K56">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L56">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M56">
         <v>1.4</v>
@@ -8443,10 +8443,10 @@
         <v>3.18</v>
       </c>
       <c r="S56">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
       <c r="T56">
-        <v>2.29</v>
+        <v>1.9</v>
       </c>
       <c r="U56">
         <v>1.73</v>
@@ -8464,10 +8464,10 @@
         <v>1.3</v>
       </c>
       <c r="Z56">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA56">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB56">
         <v>1.29</v>
@@ -8547,13 +8547,13 @@
         <v>5.5</v>
       </c>
       <c r="J57">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="K57">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L57">
-        <v>5.6</v>
+        <v>6.02</v>
       </c>
       <c r="M57">
         <v>1.29</v>
@@ -8574,10 +8574,10 @@
         <v>4.33</v>
       </c>
       <c r="S57">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="T57">
-        <v>2.42</v>
+        <v>2.21</v>
       </c>
       <c r="U57">
         <v>1.73</v>
@@ -8595,10 +8595,10 @@
         <v>2.5</v>
       </c>
       <c r="Z57">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AA57">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AB57">
         <v>1.4</v>
@@ -8678,13 +8678,13 @@
         <v>2.4</v>
       </c>
       <c r="J58">
-        <v>3.35</v>
+        <v>3.71</v>
       </c>
       <c r="K58">
         <v>3.6</v>
       </c>
       <c r="L58">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="M58">
         <v>1.3</v>
@@ -8705,10 +8705,10 @@
         <v>3.75</v>
       </c>
       <c r="S58">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T58">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="U58">
         <v>1.65</v>
@@ -8726,10 +8726,10 @@
         <v>1.3</v>
       </c>
       <c r="Z58">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA58">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB58">
         <v>1.16</v>
@@ -8809,13 +8809,13 @@
         <v>9.5</v>
       </c>
       <c r="J59">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K59">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>11.88</v>
       </c>
       <c r="M59">
         <v>1.2</v>
@@ -8836,10 +8836,10 @@
         <v>7</v>
       </c>
       <c r="S59">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T59">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="U59">
         <v>1.83</v>
@@ -8857,10 +8857,10 @@
         <v>5.5</v>
       </c>
       <c r="Z59">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="AA59">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AB59">
         <v>1.9</v>
@@ -8943,10 +8943,10 @@
         <v>2.04</v>
       </c>
       <c r="K60">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L60">
-        <v>3.45</v>
+        <v>3.69</v>
       </c>
       <c r="M60">
         <v>1.42</v>
@@ -8967,10 +8967,10 @@
         <v>3.18</v>
       </c>
       <c r="S60">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U60">
         <v>1.8</v>
@@ -8988,10 +8988,10 @@
         <v>1.78</v>
       </c>
       <c r="Z60">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AA60">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AB60">
         <v>1.31</v>
@@ -9071,13 +9071,13 @@
         <v>4</v>
       </c>
       <c r="J61">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K61">
         <v>3.45</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.46</v>
       </c>
       <c r="M61">
         <v>1.4</v>
@@ -9098,7 +9098,7 @@
         <v>3.2</v>
       </c>
       <c r="S61">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="T61">
         <v>1.81</v>
@@ -9119,10 +9119,10 @@
         <v>1.73</v>
       </c>
       <c r="Z61">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AA61">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AB61">
         <v>1.7</v>
@@ -9250,10 +9250,10 @@
         <v>3.6</v>
       </c>
       <c r="Z62">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AA62">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AB62">
         <v>1.9</v>
@@ -9333,13 +9333,13 @@
         <v>2.6</v>
       </c>
       <c r="J63">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="K63">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L63">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="M63">
         <v>1.39</v>
@@ -9360,10 +9360,10 @@
         <v>3.5</v>
       </c>
       <c r="S63">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T63">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U63">
         <v>1.75</v>
@@ -9381,10 +9381,10 @@
         <v>1.28</v>
       </c>
       <c r="Z63">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AA63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AB63">
         <v>1.73</v>
@@ -9464,13 +9464,13 @@
         <v>4.55</v>
       </c>
       <c r="J64">
-        <v>2.24</v>
+        <v>1.97</v>
       </c>
       <c r="K64">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M64">
         <v>1.48</v>
@@ -9491,10 +9491,10 @@
         <v>2.84</v>
       </c>
       <c r="S64">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="T64">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="U64">
         <v>1.9</v>
@@ -9512,10 +9512,10 @@
         <v>1.76</v>
       </c>
       <c r="Z64">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA64">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AB64">
         <v>1.73</v>
@@ -9595,13 +9595,13 @@
         <v>3.6</v>
       </c>
       <c r="J65">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K65">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="M65">
         <v>1.3</v>
@@ -9622,10 +9622,10 @@
         <v>4.45</v>
       </c>
       <c r="S65">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T65">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="U65">
         <v>1.53</v>
@@ -9643,10 +9643,10 @@
         <v>1.78</v>
       </c>
       <c r="Z65">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AA65">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AB65">
         <v>1.33</v>
@@ -9726,13 +9726,13 @@
         <v>2.63</v>
       </c>
       <c r="J66">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="K66">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L66">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <v>1.4</v>
@@ -9753,10 +9753,10 @@
         <v>3.4</v>
       </c>
       <c r="S66">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U66">
         <v>1.75</v>
@@ -9774,10 +9774,10 @@
         <v>1.2</v>
       </c>
       <c r="Z66">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AA66">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AB66">
         <v>1.5</v>
@@ -9857,13 +9857,13 @@
         <v>3.13</v>
       </c>
       <c r="J67">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="K67">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L67">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="M67">
         <v>1.42</v>
@@ -9884,10 +9884,10 @@
         <v>3.1</v>
       </c>
       <c r="S67">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="T67">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="U67">
         <v>1.8</v>
@@ -9905,10 +9905,10 @@
         <v>1.42</v>
       </c>
       <c r="Z67">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AA67">
-        <v>2.36</v>
+        <v>2.17</v>
       </c>
       <c r="AB67">
         <v>1.9</v>
@@ -9988,13 +9988,13 @@
         <v>4</v>
       </c>
       <c r="J68">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K68">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
         <v>1.44</v>
@@ -10015,10 +10015,10 @@
         <v>3.3</v>
       </c>
       <c r="S68">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T68">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U68">
         <v>1.91</v>
@@ -10036,10 +10036,10 @@
         <v>1.75</v>
       </c>
       <c r="Z68">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AA68">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AB68">
         <v>1.53</v>
@@ -10119,13 +10119,13 @@
         <v>5</v>
       </c>
       <c r="J69">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="K69">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>4.84</v>
       </c>
       <c r="M69">
         <v>1.3</v>
@@ -10146,10 +10146,10 @@
         <v>4.33</v>
       </c>
       <c r="S69">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T69">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="U69">
         <v>1.7</v>
@@ -10167,10 +10167,10 @@
         <v>2.3</v>
       </c>
       <c r="Z69">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AA69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AB69">
         <v>1.9</v>
@@ -10250,13 +10250,13 @@
         <v>8</v>
       </c>
       <c r="J70">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="K70">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L70">
-        <v>9.4</v>
+        <v>9.34</v>
       </c>
       <c r="M70">
         <v>1.25</v>
@@ -10277,10 +10277,10 @@
         <v>4.8</v>
       </c>
       <c r="S70">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="T70">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="U70">
         <v>1.95</v>
@@ -10298,10 +10298,10 @@
         <v>3.3</v>
       </c>
       <c r="Z70">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AA70">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AB70">
         <v>2</v>
@@ -10381,13 +10381,13 @@
         <v>5.5</v>
       </c>
       <c r="J71">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="K71">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
-        <v>4.8</v>
+        <v>5.19</v>
       </c>
       <c r="M71">
         <v>1.5</v>
@@ -10408,10 +10408,10 @@
         <v>3.05</v>
       </c>
       <c r="S71">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="T71">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="U71">
         <v>2.1</v>
@@ -10429,10 +10429,10 @@
         <v>1.95</v>
       </c>
       <c r="Z71">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AA71">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AB71">
         <v>1.65</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>7.6</v>
+        <v>6.47</v>
       </c>
       <c r="K72">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="L72">
         <v>1.4</v>
@@ -10539,10 +10539,10 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T72">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -10560,10 +10560,10 @@
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AA72">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AB72">
         <v>1.25</v>
@@ -10643,13 +10643,13 @@
         <v>2.75</v>
       </c>
       <c r="J73">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L73">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M73">
         <v>1.4</v>
@@ -10670,10 +10670,10 @@
         <v>3.3</v>
       </c>
       <c r="S73">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="T73">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U73">
         <v>1.8</v>
@@ -10691,10 +10691,10 @@
         <v>1.3</v>
       </c>
       <c r="Z73">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AA73">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
         <v>1.19</v>
@@ -10774,13 +10774,13 @@
         <v>7.5</v>
       </c>
       <c r="J74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="K74">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L74">
-        <v>8.6</v>
+        <v>8.92</v>
       </c>
       <c r="M74">
         <v>1.25</v>
@@ -10801,10 +10801,10 @@
         <v>5.2</v>
       </c>
       <c r="S74">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="T74">
-        <v>2.51</v>
+        <v>2.43</v>
       </c>
       <c r="U74">
         <v>1.91</v>
@@ -10822,10 +10822,10 @@
         <v>3.2</v>
       </c>
       <c r="Z74">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB74">
         <v>2.15</v>
@@ -10905,13 +10905,13 @@
         <v>5</v>
       </c>
       <c r="J75">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L75">
-        <v>4.4</v>
+        <v>3.67</v>
       </c>
       <c r="M75">
         <v>1.5</v>
@@ -10932,10 +10932,10 @@
         <v>2.8</v>
       </c>
       <c r="S75">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="T75">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="U75">
         <v>2</v>
@@ -10953,10 +10953,10 @@
         <v>1.82</v>
       </c>
       <c r="Z75">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AA75">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AB75">
         <v>2.06</v>
@@ -11036,13 +11036,13 @@
         <v>2.5</v>
       </c>
       <c r="J76">
+        <v>2.94</v>
+      </c>
+      <c r="K76">
         <v>3.45</v>
       </c>
-      <c r="K76">
-        <v>3.35</v>
-      </c>
       <c r="L76">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="M76">
         <v>1.37</v>
@@ -11063,10 +11063,10 @@
         <v>3.9</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="T76">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="U76">
         <v>1.6</v>
@@ -11084,10 +11084,10 @@
         <v>1.17</v>
       </c>
       <c r="Z76">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AA76">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AB76">
         <v>1.64</v>
@@ -11167,13 +11167,13 @@
         <v>15</v>
       </c>
       <c r="J77">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K77">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>19.19</v>
       </c>
       <c r="M77">
         <v>1.14</v>
@@ -11194,10 +11194,10 @@
         <v>8</v>
       </c>
       <c r="S77">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="T77">
-        <v>3.59</v>
+        <v>3.63</v>
       </c>
       <c r="U77">
         <v>2.1</v>
@@ -11215,10 +11215,10 @@
         <v>9.5</v>
       </c>
       <c r="Z77">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AA77">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AB77">
         <v>2.41</v>
@@ -11346,10 +11346,10 @@
         <v>2.68</v>
       </c>
       <c r="Z78">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AA78">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AB78">
         <v>1.83</v>
@@ -11429,13 +11429,13 @@
         <v>2.85</v>
       </c>
       <c r="J79">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K79">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="L79">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="M79">
         <v>1.4</v>
@@ -11456,10 +11456,10 @@
         <v>3.3</v>
       </c>
       <c r="S79">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="T79">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U79">
         <v>1.72</v>
@@ -11560,13 +11560,13 @@
         <v>6</v>
       </c>
       <c r="J80">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="K80">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="L80">
-        <v>5.6</v>
+        <v>6.24</v>
       </c>
       <c r="M80">
         <v>1.36</v>
@@ -11587,10 +11587,10 @@
         <v>3.4</v>
       </c>
       <c r="S80">
+        <v>1.83</v>
+      </c>
+      <c r="T80">
         <v>1.91</v>
-      </c>
-      <c r="T80">
-        <v>1.9</v>
       </c>
       <c r="U80">
         <v>1.95</v>
@@ -11608,10 +11608,10 @@
         <v>2.46</v>
       </c>
       <c r="Z80">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AA80">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AB80">
         <v>1.6</v>
@@ -11691,13 +11691,13 @@
         <v>3.5</v>
       </c>
       <c r="J81">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="K81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L81">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="M81">
         <v>1.4</v>
@@ -11718,10 +11718,10 @@
         <v>3.4</v>
       </c>
       <c r="S81">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T81">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U81">
         <v>1.75</v>
@@ -11739,10 +11739,10 @@
         <v>1.58</v>
       </c>
       <c r="Z81">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AA81">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AB81">
         <v>1.62</v>
@@ -11822,13 +11822,13 @@
         <v>2.7</v>
       </c>
       <c r="J82">
-        <v>3.45</v>
+        <v>3.69</v>
       </c>
       <c r="K82">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="L82">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="M82">
         <v>1.53</v>
@@ -11849,10 +11849,10 @@
         <v>2.43</v>
       </c>
       <c r="S82">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="T82">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="U82">
         <v>2</v>
@@ -11873,7 +11873,7 @@
         <v>1.07</v>
       </c>
       <c r="AA82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AB82">
         <v>1.24</v>
@@ -11953,13 +11953,13 @@
         <v>4</v>
       </c>
       <c r="J83">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="M83">
         <v>1.33</v>
@@ -11980,10 +11980,10 @@
         <v>3.8</v>
       </c>
       <c r="S83">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="T83">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="U83">
         <v>1.67</v>
@@ -12001,10 +12001,10 @@
         <v>1.83</v>
       </c>
       <c r="Z83">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AA83">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AB83">
         <v>1.54</v>
@@ -12084,13 +12084,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="K84">
-        <v>7.4</v>
+        <v>7.75</v>
       </c>
       <c r="L84">
-        <v>14</v>
+        <v>11.92</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -12111,10 +12111,10 @@
         <v>0</v>
       </c>
       <c r="S84">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T84">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="U84">
         <v>0</v>
@@ -12132,10 +12132,10 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AA84">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB84">
         <v>2.07</v>
